--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['29', '39', '86', '90+1']</t>
   </si>
   <si>
+    <t>['65', '79']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -896,6 +899,9 @@
   </si>
   <si>
     <t>['56', '78']</t>
+  </si>
+  <si>
+    <t>['20', '43', '72']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2009,7 +2015,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ4">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2134,7 +2140,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2340,7 +2346,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2546,7 +2552,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2958,7 +2964,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3370,7 +3376,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3448,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ11">
         <v>1.31</v>
@@ -3576,7 +3582,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4069,7 +4075,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ14">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -4606,7 +4612,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4812,7 +4818,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5018,7 +5024,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5636,7 +5642,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5842,7 +5848,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6048,7 +6054,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6254,7 +6260,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6460,7 +6466,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6666,7 +6672,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6747,7 +6753,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ27">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6872,7 +6878,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7078,7 +7084,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7284,7 +7290,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7362,7 +7368,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ30">
         <v>1.46</v>
@@ -7696,7 +7702,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7774,7 +7780,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7902,7 +7908,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7983,7 +7989,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ33">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -8108,7 +8114,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8314,7 +8320,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8520,7 +8526,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -9138,7 +9144,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9344,7 +9350,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9550,7 +9556,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9756,7 +9762,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10168,7 +10174,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10246,7 +10252,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ44">
         <v>0.62</v>
@@ -10374,7 +10380,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10580,7 +10586,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10786,7 +10792,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11073,7 +11079,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ48">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.96</v>
@@ -11404,7 +11410,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11816,7 +11822,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12228,7 +12234,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12640,7 +12646,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13130,10 +13136,10 @@
         <v>0.6</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ58">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.05</v>
@@ -13258,7 +13264,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13464,7 +13470,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13670,7 +13676,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13876,7 +13882,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14082,7 +14088,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14288,7 +14294,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14494,7 +14500,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14906,7 +14912,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15524,7 +15530,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15602,7 +15608,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ70">
         <v>1.31</v>
@@ -15936,7 +15942,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16966,7 +16972,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17047,7 +17053,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17584,7 +17590,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17790,7 +17796,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17996,7 +18002,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18202,7 +18208,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18408,7 +18414,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18486,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ84">
         <v>0.54</v>
@@ -18614,7 +18620,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18901,7 +18907,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ86">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19232,7 +19238,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19644,7 +19650,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19850,7 +19856,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -20340,7 +20346,7 @@
         <v>0.75</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ93">
         <v>0.92</v>
@@ -20674,7 +20680,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20880,7 +20886,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21498,7 +21504,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21579,7 +21585,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ99">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -21704,7 +21710,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21910,7 +21916,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22116,7 +22122,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22528,7 +22534,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22734,7 +22740,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22940,7 +22946,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23352,7 +23358,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -23970,7 +23976,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24051,7 +24057,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ111">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.63</v>
@@ -24176,7 +24182,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24588,7 +24594,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24794,7 +24800,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24872,7 +24878,7 @@
         <v>0.88</v>
       </c>
       <c r="AP115">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ115">
         <v>0.85</v>
@@ -25000,7 +25006,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25206,7 +25212,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25412,7 +25418,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25618,7 +25624,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25902,7 +25908,7 @@
         <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ120">
         <v>1.46</v>
@@ -26442,7 +26448,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26648,7 +26654,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26726,7 +26732,7 @@
         <v>1.2</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ124">
         <v>1.23</v>
@@ -26854,7 +26860,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27060,7 +27066,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27141,7 +27147,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ126">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.92</v>
@@ -27266,7 +27272,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27472,7 +27478,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27678,7 +27684,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -28090,7 +28096,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28296,7 +28302,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28502,7 +28508,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28708,7 +28714,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28786,7 +28792,7 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="AQ134">
         <v>1.46</v>
@@ -28992,7 +28998,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ135">
         <v>1.5</v>
@@ -29120,7 +29126,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29532,7 +29538,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -30150,7 +30156,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30356,7 +30362,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30437,7 +30443,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AR142">
         <v>1.42</v>
@@ -30562,7 +30568,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30643,7 +30649,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ143">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="AR143">
         <v>1.28</v>
@@ -30974,7 +30980,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31180,7 +31186,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31258,7 +31264,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="AQ146">
         <v>0.73</v>
@@ -31386,7 +31392,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31798,7 +31804,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -32004,7 +32010,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32288,7 +32294,7 @@
         <v>0.71</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ151">
         <v>0.6899999999999999</v>
@@ -32497,7 +32503,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32622,7 +32628,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32828,7 +32834,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -32909,7 +32915,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AR154">
         <v>1.22</v>
@@ -33034,7 +33040,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33240,7 +33246,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33557,13 +33563,13 @@
         <v>15</v>
       </c>
       <c r="BA157">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB157">
         <v>6</v>
       </c>
       <c r="BC157">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD157">
         <v>1.83</v>
@@ -33603,6 +33609,212 @@
       </c>
       <c r="BP157">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7861655</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45767.5</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>78</v>
+      </c>
+      <c r="H158" t="s">
+        <v>76</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>5</v>
+      </c>
+      <c r="O158" t="s">
+        <v>203</v>
+      </c>
+      <c r="P158" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q158">
+        <v>2.96</v>
+      </c>
+      <c r="R158">
+        <v>2.08</v>
+      </c>
+      <c r="S158">
+        <v>3.55</v>
+      </c>
+      <c r="T158">
+        <v>1.4</v>
+      </c>
+      <c r="U158">
+        <v>3</v>
+      </c>
+      <c r="V158">
+        <v>2.92</v>
+      </c>
+      <c r="W158">
+        <v>1.47</v>
+      </c>
+      <c r="X158">
+        <v>6.3</v>
+      </c>
+      <c r="Y158">
+        <v>1.09</v>
+      </c>
+      <c r="Z158">
+        <v>2.32</v>
+      </c>
+      <c r="AA158">
+        <v>3.1</v>
+      </c>
+      <c r="AB158">
+        <v>2.8</v>
+      </c>
+      <c r="AC158">
+        <v>1.05</v>
+      </c>
+      <c r="AD158">
+        <v>10.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.29</v>
+      </c>
+      <c r="AF158">
+        <v>3.4</v>
+      </c>
+      <c r="AG158">
+        <v>1.95</v>
+      </c>
+      <c r="AH158">
+        <v>1.95</v>
+      </c>
+      <c r="AI158">
+        <v>1.6</v>
+      </c>
+      <c r="AJ158">
+        <v>2.15</v>
+      </c>
+      <c r="AK158">
+        <v>1.36</v>
+      </c>
+      <c r="AL158">
+        <v>1.2</v>
+      </c>
+      <c r="AM158">
+        <v>1.57</v>
+      </c>
+      <c r="AN158">
+        <v>0.88</v>
+      </c>
+      <c r="AO158">
+        <v>1</v>
+      </c>
+      <c r="AP158">
+        <v>0.85</v>
+      </c>
+      <c r="AQ158">
+        <v>1.07</v>
+      </c>
+      <c r="AR158">
+        <v>1.28</v>
+      </c>
+      <c r="AS158">
+        <v>1.32</v>
+      </c>
+      <c r="AT158">
+        <v>2.6</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>8</v>
+      </c>
+      <c r="AW158">
+        <v>14</v>
+      </c>
+      <c r="AX158">
+        <v>5</v>
+      </c>
+      <c r="AY158">
+        <v>19</v>
+      </c>
+      <c r="AZ158">
+        <v>13</v>
+      </c>
+      <c r="BA158">
+        <v>9</v>
+      </c>
+      <c r="BB158">
+        <v>6</v>
+      </c>
+      <c r="BC158">
+        <v>15</v>
+      </c>
+      <c r="BD158">
+        <v>1.95</v>
+      </c>
+      <c r="BE158">
+        <v>6.6</v>
+      </c>
+      <c r="BF158">
+        <v>2.1</v>
+      </c>
+      <c r="BG158">
+        <v>1.32</v>
+      </c>
+      <c r="BH158">
+        <v>3.05</v>
+      </c>
+      <c r="BI158">
+        <v>1.55</v>
+      </c>
+      <c r="BJ158">
+        <v>2.68</v>
+      </c>
+      <c r="BK158">
+        <v>1.86</v>
+      </c>
+      <c r="BL158">
+        <v>2.12</v>
+      </c>
+      <c r="BM158">
+        <v>2.1</v>
+      </c>
+      <c r="BN158">
+        <v>1.7</v>
+      </c>
+      <c r="BO158">
+        <v>3.15</v>
+      </c>
+      <c r="BP158">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,12 @@
     <t>['65', '79']</t>
   </si>
   <si>
+    <t>['35', '45+2', '59', '90+7']</t>
+  </si>
+  <si>
+    <t>['13', '62', '81']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -902,6 +908,12 @@
   </si>
   <si>
     <t>['20', '43', '72']</t>
+  </si>
+  <si>
+    <t>['17', '51', '56', '85']</t>
+  </si>
+  <si>
+    <t>['4', '40', '61']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2140,7 +2152,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2218,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ5">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2346,7 +2358,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2424,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ6">
         <v>1.46</v>
@@ -2552,7 +2564,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2839,7 +2851,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ8">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2964,7 +2976,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3376,7 +3388,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3457,7 +3469,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ11">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3582,7 +3594,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3660,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3866,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ13">
         <v>0.54</v>
@@ -4612,7 +4624,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4690,10 +4702,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ17">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4818,7 +4830,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5024,7 +5036,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5102,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ19">
         <v>0.85</v>
@@ -5517,7 +5529,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ21">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR21">
         <v>1.44</v>
@@ -5642,7 +5654,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5723,7 +5735,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ22">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -5848,7 +5860,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5926,10 +5938,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR23">
         <v>1.53</v>
@@ -6054,7 +6066,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6260,7 +6272,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6338,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ25">
         <v>0.77</v>
@@ -6466,7 +6478,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6672,7 +6684,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6878,7 +6890,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7084,7 +7096,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7162,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ29">
         <v>0.92</v>
@@ -7290,7 +7302,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7702,7 +7714,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7783,7 +7795,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7908,7 +7920,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8114,7 +8126,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8192,10 +8204,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ34">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -8320,7 +8332,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8526,7 +8538,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8604,10 +8616,10 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ36">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR36">
         <v>1.69</v>
@@ -8810,10 +8822,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ37">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR37">
         <v>1.54</v>
@@ -9144,7 +9156,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9350,7 +9362,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9556,7 +9568,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9634,7 +9646,7 @@
         <v>2.33</v>
       </c>
       <c r="AP41">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ41">
         <v>1.46</v>
@@ -9762,7 +9774,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10174,7 +10186,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10255,7 +10267,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ44">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR44">
         <v>0.9</v>
@@ -10380,7 +10392,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10586,7 +10598,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10667,7 +10679,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ46">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10792,7 +10804,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10870,7 +10882,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ47">
         <v>0.92</v>
@@ -11076,7 +11088,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11285,7 +11297,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ49">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11410,7 +11422,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11488,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ50">
         <v>0.85</v>
@@ -11822,7 +11834,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12109,7 +12121,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR53">
         <v>1.13</v>
@@ -12234,7 +12246,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12518,7 +12530,7 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ55">
         <v>0.77</v>
@@ -12646,7 +12658,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12727,7 +12739,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ56">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -13264,7 +13276,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13345,7 +13357,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ59">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>1.04</v>
@@ -13470,7 +13482,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13548,7 +13560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ60">
         <v>1.46</v>
@@ -13676,7 +13688,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13882,7 +13894,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13960,7 +13972,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ62">
         <v>0.77</v>
@@ -14088,7 +14100,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14294,7 +14306,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14375,7 +14387,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ64">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR64">
         <v>1.45</v>
@@ -14500,7 +14512,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14578,10 +14590,10 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14784,7 +14796,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ66">
         <v>1.23</v>
@@ -14912,7 +14924,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15196,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ68">
         <v>0.54</v>
@@ -15530,7 +15542,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15611,7 +15623,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ70">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR70">
         <v>1.17</v>
@@ -15817,7 +15829,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ71">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -15942,7 +15954,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16638,7 +16650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ75">
         <v>1.46</v>
@@ -16844,10 +16856,10 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ76">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR76">
         <v>1.38</v>
@@ -16972,7 +16984,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17050,7 +17062,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17259,7 +17271,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR78">
         <v>1.92</v>
@@ -17590,7 +17602,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17671,7 +17683,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ80">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR80">
         <v>1.37</v>
@@ -17796,7 +17808,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18002,7 +18014,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18208,7 +18220,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18289,7 +18301,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ83">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18414,7 +18426,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18620,7 +18632,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18698,10 +18710,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ85">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR85">
         <v>1.76</v>
@@ -18904,7 +18916,7 @@
         <v>0.43</v>
       </c>
       <c r="AP86">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19113,7 +19125,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ87">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19238,7 +19250,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19522,7 +19534,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ89">
         <v>1.23</v>
@@ -19650,7 +19662,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19856,7 +19868,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -19934,7 +19946,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ91">
         <v>0.85</v>
@@ -20143,7 +20155,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR92">
         <v>1.68</v>
@@ -20680,7 +20692,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20886,7 +20898,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -20964,10 +20976,10 @@
         <v>0.43</v>
       </c>
       <c r="AP96">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ96">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR96">
         <v>1.89</v>
@@ -21173,7 +21185,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ97">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR97">
         <v>1.78</v>
@@ -21376,7 +21388,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ98">
         <v>0.77</v>
@@ -21504,7 +21516,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21710,7 +21722,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21788,10 +21800,10 @@
         <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ100">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR100">
         <v>1.46</v>
@@ -21916,7 +21928,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21994,7 +22006,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ101">
         <v>1.23</v>
@@ -22122,7 +22134,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22203,7 +22215,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR102">
         <v>1.25</v>
@@ -22406,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ103">
         <v>0.85</v>
@@ -22534,7 +22546,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22612,7 +22624,7 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ104">
         <v>0.92</v>
@@ -22740,7 +22752,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22946,7 +22958,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23027,7 +23039,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR106">
         <v>1.4</v>
@@ -23233,7 +23245,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ107">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR107">
         <v>1.68</v>
@@ -23358,7 +23370,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -23645,7 +23657,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ109">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR109">
         <v>1.19</v>
@@ -23976,7 +23988,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24182,7 +24194,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24260,7 +24272,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ112">
         <v>1.46</v>
@@ -24466,7 +24478,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ113">
         <v>1.23</v>
@@ -24594,7 +24606,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24672,10 +24684,10 @@
         <v>1.25</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ114">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR114">
         <v>1.41</v>
@@ -24800,7 +24812,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25006,7 +25018,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25087,7 +25099,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR116">
         <v>1.48</v>
@@ -25212,7 +25224,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25293,7 +25305,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ117">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR117">
         <v>1.38</v>
@@ -25418,7 +25430,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25496,7 +25508,7 @@
         <v>0.44</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ118">
         <v>0.54</v>
@@ -25624,7 +25636,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26114,10 +26126,10 @@
         <v>0.33</v>
       </c>
       <c r="AP121">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ121">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26448,7 +26460,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26529,7 +26541,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ123">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26654,7 +26666,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26860,7 +26872,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27066,7 +27078,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27144,7 +27156,7 @@
         <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27272,7 +27284,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27478,7 +27490,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27556,10 +27568,10 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ128">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR128">
         <v>1.76</v>
@@ -27684,7 +27696,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -27765,7 +27777,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ129">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR129">
         <v>1.73</v>
@@ -28096,7 +28108,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28174,10 +28186,10 @@
         <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR131">
         <v>1.4</v>
@@ -28302,7 +28314,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28380,7 +28392,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ132">
         <v>1.46</v>
@@ -28508,7 +28520,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28714,7 +28726,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28795,7 +28807,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ134">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29001,7 +29013,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29126,7 +29138,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29204,10 +29216,10 @@
         <v>0.59</v>
       </c>
       <c r="AP136">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AQ136">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29410,7 +29422,7 @@
         <v>1.59</v>
       </c>
       <c r="AP137">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ137">
         <v>1.5</v>
@@ -29538,7 +29550,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -29619,7 +29631,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ138">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AR138">
         <v>1.7</v>
@@ -29822,10 +29834,10 @@
         <v>1.59</v>
       </c>
       <c r="AP139">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AQ139">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AR139">
         <v>1.77</v>
@@ -30028,7 +30040,7 @@
         <v>1.96</v>
       </c>
       <c r="AP140">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AQ140">
         <v>1.88</v>
@@ -30156,7 +30168,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30234,10 +30246,10 @@
         <v>0.78</v>
       </c>
       <c r="AP141">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ141">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30362,7 +30374,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30440,7 +30452,7 @@
         <v>0.87</v>
       </c>
       <c r="AP142">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142">
         <v>1.07</v>
@@ -30568,7 +30580,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30646,7 +30658,7 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AQ143">
         <v>0.85</v>
@@ -30855,7 +30867,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ144">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AR144">
         <v>1.67</v>
@@ -30980,7 +30992,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31058,10 +31070,10 @@
         <v>1.7</v>
       </c>
       <c r="AP145">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AQ145">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31186,7 +31198,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31267,7 +31279,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ146">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31392,7 +31404,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31470,10 +31482,10 @@
         <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AQ147">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AR147">
         <v>1.77</v>
@@ -31676,10 +31688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31804,7 +31816,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -31882,7 +31894,7 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ149">
         <v>1.88</v>
@@ -32010,7 +32022,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32091,7 +32103,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -32297,7 +32309,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ151">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AR151">
         <v>1.3</v>
@@ -32500,7 +32512,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ152">
         <v>0.85</v>
@@ -32628,7 +32640,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32706,10 +32718,10 @@
         <v>1.48</v>
       </c>
       <c r="AP153">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AQ153">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AR153">
         <v>1.29</v>
@@ -32834,7 +32846,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -32912,7 +32924,7 @@
         <v>0.92</v>
       </c>
       <c r="AP154">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -33040,7 +33052,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33118,10 +33130,10 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AQ155">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR155">
         <v>1.35</v>
@@ -33246,7 +33258,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33327,7 +33339,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ156">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -33530,7 +33542,7 @@
         <v>1.52</v>
       </c>
       <c r="AP157">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AQ157">
         <v>1.5</v>
@@ -33658,7 +33670,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -33815,6 +33827,830 @@
       </c>
       <c r="BP158">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7861657</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45768.375</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>74</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>146</v>
+      </c>
+      <c r="P159" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q159">
+        <v>2</v>
+      </c>
+      <c r="R159">
+        <v>2.33</v>
+      </c>
+      <c r="S159">
+        <v>4.8</v>
+      </c>
+      <c r="T159">
+        <v>1.32</v>
+      </c>
+      <c r="U159">
+        <v>3.1</v>
+      </c>
+      <c r="V159">
+        <v>2.4</v>
+      </c>
+      <c r="W159">
+        <v>1.47</v>
+      </c>
+      <c r="X159">
+        <v>5.5</v>
+      </c>
+      <c r="Y159">
+        <v>1.11</v>
+      </c>
+      <c r="Z159">
+        <v>1.71</v>
+      </c>
+      <c r="AA159">
+        <v>3.9</v>
+      </c>
+      <c r="AB159">
+        <v>4.65</v>
+      </c>
+      <c r="AC159">
+        <v>1.04</v>
+      </c>
+      <c r="AD159">
+        <v>10</v>
+      </c>
+      <c r="AE159">
+        <v>1.18</v>
+      </c>
+      <c r="AF159">
+        <v>4.2</v>
+      </c>
+      <c r="AG159">
+        <v>1.69</v>
+      </c>
+      <c r="AH159">
+        <v>2.16</v>
+      </c>
+      <c r="AI159">
+        <v>1.6</v>
+      </c>
+      <c r="AJ159">
+        <v>2.1</v>
+      </c>
+      <c r="AK159">
+        <v>1.25</v>
+      </c>
+      <c r="AL159">
+        <v>1.2</v>
+      </c>
+      <c r="AM159">
+        <v>2.1</v>
+      </c>
+      <c r="AN159">
+        <v>1.46</v>
+      </c>
+      <c r="AO159">
+        <v>0.73</v>
+      </c>
+      <c r="AP159">
+        <v>1.44</v>
+      </c>
+      <c r="AQ159">
+        <v>0.74</v>
+      </c>
+      <c r="AR159">
+        <v>1.45</v>
+      </c>
+      <c r="AS159">
+        <v>1.21</v>
+      </c>
+      <c r="AT159">
+        <v>2.66</v>
+      </c>
+      <c r="AU159">
+        <v>2</v>
+      </c>
+      <c r="AV159">
+        <v>4</v>
+      </c>
+      <c r="AW159">
+        <v>14</v>
+      </c>
+      <c r="AX159">
+        <v>3</v>
+      </c>
+      <c r="AY159">
+        <v>22</v>
+      </c>
+      <c r="AZ159">
+        <v>7</v>
+      </c>
+      <c r="BA159">
+        <v>6</v>
+      </c>
+      <c r="BB159">
+        <v>5</v>
+      </c>
+      <c r="BC159">
+        <v>11</v>
+      </c>
+      <c r="BD159">
+        <v>1.56</v>
+      </c>
+      <c r="BE159">
+        <v>9</v>
+      </c>
+      <c r="BF159">
+        <v>3.22</v>
+      </c>
+      <c r="BG159">
+        <v>1.25</v>
+      </c>
+      <c r="BH159">
+        <v>3.82</v>
+      </c>
+      <c r="BI159">
+        <v>1.38</v>
+      </c>
+      <c r="BJ159">
+        <v>2.62</v>
+      </c>
+      <c r="BK159">
+        <v>1.68</v>
+      </c>
+      <c r="BL159">
+        <v>2.01</v>
+      </c>
+      <c r="BM159">
+        <v>2.16</v>
+      </c>
+      <c r="BN159">
+        <v>1.62</v>
+      </c>
+      <c r="BO159">
+        <v>2.84</v>
+      </c>
+      <c r="BP159">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7861656</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45768.375</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s">
+        <v>72</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>4</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>87</v>
+      </c>
+      <c r="P160" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q160">
+        <v>3.55</v>
+      </c>
+      <c r="R160">
+        <v>2.29</v>
+      </c>
+      <c r="S160">
+        <v>2.63</v>
+      </c>
+      <c r="T160">
+        <v>1.29</v>
+      </c>
+      <c r="U160">
+        <v>3.28</v>
+      </c>
+      <c r="V160">
+        <v>2.45</v>
+      </c>
+      <c r="W160">
+        <v>1.58</v>
+      </c>
+      <c r="X160">
+        <v>4.9</v>
+      </c>
+      <c r="Y160">
+        <v>1.13</v>
+      </c>
+      <c r="Z160">
+        <v>3.28</v>
+      </c>
+      <c r="AA160">
+        <v>3.72</v>
+      </c>
+      <c r="AB160">
+        <v>2.12</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>15</v>
+      </c>
+      <c r="AE160">
+        <v>1.15</v>
+      </c>
+      <c r="AF160">
+        <v>4.6</v>
+      </c>
+      <c r="AG160">
+        <v>1.66</v>
+      </c>
+      <c r="AH160">
+        <v>2.36</v>
+      </c>
+      <c r="AI160">
+        <v>1.5</v>
+      </c>
+      <c r="AJ160">
+        <v>2.45</v>
+      </c>
+      <c r="AK160">
+        <v>1.29</v>
+      </c>
+      <c r="AL160">
+        <v>1.22</v>
+      </c>
+      <c r="AM160">
+        <v>1.33</v>
+      </c>
+      <c r="AN160">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO160">
+        <v>1.5</v>
+      </c>
+      <c r="AP160">
+        <v>0.67</v>
+      </c>
+      <c r="AQ160">
+        <v>1.56</v>
+      </c>
+      <c r="AR160">
+        <v>1.33</v>
+      </c>
+      <c r="AS160">
+        <v>1.44</v>
+      </c>
+      <c r="AT160">
+        <v>2.77</v>
+      </c>
+      <c r="AU160">
+        <v>5</v>
+      </c>
+      <c r="AV160">
+        <v>11</v>
+      </c>
+      <c r="AW160">
+        <v>11</v>
+      </c>
+      <c r="AX160">
+        <v>7</v>
+      </c>
+      <c r="AY160">
+        <v>17</v>
+      </c>
+      <c r="AZ160">
+        <v>19</v>
+      </c>
+      <c r="BA160">
+        <v>5</v>
+      </c>
+      <c r="BB160">
+        <v>7</v>
+      </c>
+      <c r="BC160">
+        <v>12</v>
+      </c>
+      <c r="BD160">
+        <v>2.45</v>
+      </c>
+      <c r="BE160">
+        <v>9</v>
+      </c>
+      <c r="BF160">
+        <v>1.69</v>
+      </c>
+      <c r="BG160">
+        <v>1.27</v>
+      </c>
+      <c r="BH160">
+        <v>3.42</v>
+      </c>
+      <c r="BI160">
+        <v>1.47</v>
+      </c>
+      <c r="BJ160">
+        <v>2.5</v>
+      </c>
+      <c r="BK160">
+        <v>1.78</v>
+      </c>
+      <c r="BL160">
+        <v>1.97</v>
+      </c>
+      <c r="BM160">
+        <v>2.23</v>
+      </c>
+      <c r="BN160">
+        <v>1.61</v>
+      </c>
+      <c r="BO160">
+        <v>2.82</v>
+      </c>
+      <c r="BP160">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7861628</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45768.45833333334</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>80</v>
+      </c>
+      <c r="H161" t="s">
+        <v>77</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>4</v>
+      </c>
+      <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>7</v>
+      </c>
+      <c r="O161" t="s">
+        <v>204</v>
+      </c>
+      <c r="P161" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q161">
+        <v>2.26</v>
+      </c>
+      <c r="R161">
+        <v>2.31</v>
+      </c>
+      <c r="S161">
+        <v>4.89</v>
+      </c>
+      <c r="T161">
+        <v>1.29</v>
+      </c>
+      <c r="U161">
+        <v>3.3</v>
+      </c>
+      <c r="V161">
+        <v>2.46</v>
+      </c>
+      <c r="W161">
+        <v>1.52</v>
+      </c>
+      <c r="X161">
+        <v>5.3</v>
+      </c>
+      <c r="Y161">
+        <v>1.13</v>
+      </c>
+      <c r="Z161">
+        <v>1.72</v>
+      </c>
+      <c r="AA161">
+        <v>3.75</v>
+      </c>
+      <c r="AB161">
+        <v>4.55</v>
+      </c>
+      <c r="AC161">
+        <v>1.01</v>
+      </c>
+      <c r="AD161">
+        <v>10</v>
+      </c>
+      <c r="AE161">
+        <v>1.17</v>
+      </c>
+      <c r="AF161">
+        <v>4.8</v>
+      </c>
+      <c r="AG161">
+        <v>1.67</v>
+      </c>
+      <c r="AH161">
+        <v>2.25</v>
+      </c>
+      <c r="AI161">
+        <v>1.67</v>
+      </c>
+      <c r="AJ161">
+        <v>2.28</v>
+      </c>
+      <c r="AK161">
+        <v>1.25</v>
+      </c>
+      <c r="AL161">
+        <v>1.2</v>
+      </c>
+      <c r="AM161">
+        <v>2.19</v>
+      </c>
+      <c r="AN161">
+        <v>1.65</v>
+      </c>
+      <c r="AO161">
+        <v>1.58</v>
+      </c>
+      <c r="AP161">
+        <v>1.7</v>
+      </c>
+      <c r="AQ161">
+        <v>1.52</v>
+      </c>
+      <c r="AR161">
+        <v>1.75</v>
+      </c>
+      <c r="AS161">
+        <v>1.37</v>
+      </c>
+      <c r="AT161">
+        <v>3.12</v>
+      </c>
+      <c r="AU161">
+        <v>8</v>
+      </c>
+      <c r="AV161">
+        <v>4</v>
+      </c>
+      <c r="AW161">
+        <v>9</v>
+      </c>
+      <c r="AX161">
+        <v>2</v>
+      </c>
+      <c r="AY161">
+        <v>22</v>
+      </c>
+      <c r="AZ161">
+        <v>6</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>1</v>
+      </c>
+      <c r="BC161">
+        <v>6</v>
+      </c>
+      <c r="BD161">
+        <v>1.6</v>
+      </c>
+      <c r="BE161">
+        <v>6.9</v>
+      </c>
+      <c r="BF161">
+        <v>2.65</v>
+      </c>
+      <c r="BG161">
+        <v>1.2</v>
+      </c>
+      <c r="BH161">
+        <v>3.85</v>
+      </c>
+      <c r="BI161">
+        <v>1.39</v>
+      </c>
+      <c r="BJ161">
+        <v>2.77</v>
+      </c>
+      <c r="BK161">
+        <v>1.65</v>
+      </c>
+      <c r="BL161">
+        <v>2.16</v>
+      </c>
+      <c r="BM161">
+        <v>2.03</v>
+      </c>
+      <c r="BN161">
+        <v>1.73</v>
+      </c>
+      <c r="BO161">
+        <v>2.53</v>
+      </c>
+      <c r="BP161">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7861629</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45768.54166666666</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>79</v>
+      </c>
+      <c r="H162" t="s">
+        <v>70</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162" t="s">
+        <v>205</v>
+      </c>
+      <c r="P162" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q162">
+        <v>2.49</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>4.96</v>
+      </c>
+      <c r="T162">
+        <v>1.47</v>
+      </c>
+      <c r="U162">
+        <v>2.75</v>
+      </c>
+      <c r="V162">
+        <v>2.98</v>
+      </c>
+      <c r="W162">
+        <v>1.32</v>
+      </c>
+      <c r="X162">
+        <v>8</v>
+      </c>
+      <c r="Y162">
+        <v>1.07</v>
+      </c>
+      <c r="Z162">
+        <v>1.9</v>
+      </c>
+      <c r="AA162">
+        <v>3.2</v>
+      </c>
+      <c r="AB162">
+        <v>3.9</v>
+      </c>
+      <c r="AC162">
+        <v>1.06</v>
+      </c>
+      <c r="AD162">
+        <v>7.75</v>
+      </c>
+      <c r="AE162">
+        <v>1.33</v>
+      </c>
+      <c r="AF162">
+        <v>2.92</v>
+      </c>
+      <c r="AG162">
+        <v>2.1</v>
+      </c>
+      <c r="AH162">
+        <v>1.71</v>
+      </c>
+      <c r="AI162">
+        <v>1.91</v>
+      </c>
+      <c r="AJ162">
+        <v>1.8</v>
+      </c>
+      <c r="AK162">
+        <v>1.3</v>
+      </c>
+      <c r="AL162">
+        <v>1.25</v>
+      </c>
+      <c r="AM162">
+        <v>1.88</v>
+      </c>
+      <c r="AN162">
+        <v>1.81</v>
+      </c>
+      <c r="AO162">
+        <v>1.54</v>
+      </c>
+      <c r="AP162">
+        <v>1.85</v>
+      </c>
+      <c r="AQ162">
+        <v>1.48</v>
+      </c>
+      <c r="AR162">
+        <v>1.79</v>
+      </c>
+      <c r="AS162">
+        <v>1.58</v>
+      </c>
+      <c r="AT162">
+        <v>3.37</v>
+      </c>
+      <c r="AU162">
+        <v>6</v>
+      </c>
+      <c r="AV162">
+        <v>4</v>
+      </c>
+      <c r="AW162">
+        <v>5</v>
+      </c>
+      <c r="AX162">
+        <v>7</v>
+      </c>
+      <c r="AY162">
+        <v>13</v>
+      </c>
+      <c r="AZ162">
+        <v>16</v>
+      </c>
+      <c r="BA162">
+        <v>4</v>
+      </c>
+      <c r="BB162">
+        <v>5</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>1.64</v>
+      </c>
+      <c r="BE162">
+        <v>6.8</v>
+      </c>
+      <c r="BF162">
+        <v>2.66</v>
+      </c>
+      <c r="BG162">
+        <v>1.24</v>
+      </c>
+      <c r="BH162">
+        <v>3.22</v>
+      </c>
+      <c r="BI162">
+        <v>1.46</v>
+      </c>
+      <c r="BJ162">
+        <v>2.45</v>
+      </c>
+      <c r="BK162">
+        <v>1.85</v>
+      </c>
+      <c r="BL162">
+        <v>1.86</v>
+      </c>
+      <c r="BM162">
+        <v>2.3</v>
+      </c>
+      <c r="BN162">
+        <v>1.55</v>
+      </c>
+      <c r="BO162">
+        <v>3.05</v>
+      </c>
+      <c r="BP162">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,9 @@
     <t>['13', '62', '81']</t>
   </si>
   <si>
+    <t>['3', '66', '81']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -914,6 +917,9 @@
   </si>
   <si>
     <t>['4', '40', '61']</t>
+  </si>
+  <si>
+    <t>['31', '87']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,7 +1621,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ2">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1818,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ3">
         <v>0.77</v>
@@ -2152,7 +2158,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2358,7 +2364,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2564,7 +2570,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2976,7 +2982,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3054,10 +3060,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ9">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -3388,7 +3394,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3594,7 +3600,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4624,7 +4630,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4830,7 +4836,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5036,7 +5042,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5526,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ21">
         <v>0.64</v>
@@ -5654,7 +5660,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5860,7 +5866,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6066,7 +6072,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6272,7 +6278,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6478,7 +6484,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6559,7 +6565,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ26">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6684,7 +6690,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6890,7 +6896,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7096,7 +7102,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7302,7 +7308,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7714,7 +7720,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7920,7 +7926,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8126,7 +8132,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8332,7 +8338,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8410,7 +8416,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ35">
         <v>1.46</v>
@@ -8538,7 +8544,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -9156,7 +9162,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9362,7 +9368,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9568,7 +9574,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9774,7 +9780,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9855,7 +9861,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ42">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -10186,7 +10192,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10392,7 +10398,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10598,7 +10604,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10804,7 +10810,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11294,7 +11300,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ49">
         <v>1.21</v>
@@ -11422,7 +11428,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11834,7 +11840,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11915,7 +11921,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ52">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR52">
         <v>1.41</v>
@@ -12246,7 +12252,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12658,7 +12664,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13276,7 +13282,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13482,7 +13488,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13688,7 +13694,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13766,7 +13772,7 @@
         <v>1.6</v>
       </c>
       <c r="AP61">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ61">
         <v>1.46</v>
@@ -13894,7 +13900,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14100,7 +14106,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14306,7 +14312,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14512,7 +14518,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14799,7 +14805,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ66">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
         <v>1.84</v>
@@ -14924,7 +14930,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15542,7 +15548,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15826,7 +15832,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ71">
         <v>1.43</v>
@@ -15954,7 +15960,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16035,7 +16041,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ72">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -16984,7 +16990,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17602,7 +17608,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17808,7 +17814,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17886,7 +17892,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ81">
         <v>0.92</v>
@@ -18014,7 +18020,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18220,7 +18226,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18426,7 +18432,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18632,7 +18638,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -19250,7 +19256,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19537,7 +19543,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ89">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19662,7 +19668,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19868,7 +19874,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -20152,7 +20158,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ92">
         <v>0.93</v>
@@ -20692,7 +20698,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20898,7 +20904,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21516,7 +21522,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21722,7 +21728,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21928,7 +21934,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22009,7 +22015,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ101">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR101">
         <v>1.36</v>
@@ -22134,7 +22140,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22546,7 +22552,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22752,7 +22758,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22958,7 +22964,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23370,7 +23376,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -23988,7 +23994,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24066,7 +24072,7 @@
         <v>0.78</v>
       </c>
       <c r="AP111">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24194,7 +24200,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24481,7 +24487,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ113">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR113">
         <v>1.93</v>
@@ -24606,7 +24612,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24812,7 +24818,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25018,7 +25024,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25224,7 +25230,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25430,7 +25436,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25636,7 +25642,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26332,7 +26338,7 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ122">
         <v>0.54</v>
@@ -26460,7 +26466,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26666,7 +26672,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26747,7 +26753,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ124">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR124">
         <v>1.31</v>
@@ -26872,7 +26878,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27078,7 +27084,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27284,7 +27290,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27490,7 +27496,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27696,7 +27702,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -28108,7 +28114,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28314,7 +28320,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28520,7 +28526,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28726,7 +28732,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29138,7 +29144,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29425,7 +29431,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
         <v>1.6</v>
@@ -29550,7 +29556,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -29628,7 +29634,7 @@
         <v>1.5</v>
       </c>
       <c r="AP138">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AQ138">
         <v>1.7</v>
@@ -30043,7 +30049,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ140">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -30168,7 +30174,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30374,7 +30380,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30580,7 +30586,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30864,7 +30870,7 @@
         <v>1.91</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ144">
         <v>1.85</v>
@@ -30992,7 +30998,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31198,7 +31204,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31404,7 +31410,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31816,7 +31822,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -31897,7 +31903,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ149">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AR149">
         <v>1.59</v>
@@ -32022,7 +32028,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32100,7 +32106,7 @@
         <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ150">
         <v>1.52</v>
@@ -32640,7 +32646,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32846,7 +32852,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -33052,7 +33058,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33258,7 +33264,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33336,7 +33342,7 @@
         <v>1.88</v>
       </c>
       <c r="AP156">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AQ156">
         <v>1.85</v>
@@ -33545,7 +33551,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33670,7 +33676,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -34082,7 +34088,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34288,7 +34294,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34494,7 +34500,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34608,10 +34614,10 @@
         <v>4</v>
       </c>
       <c r="BB162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC162">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD162">
         <v>1.64</v>
@@ -34651,6 +34657,212 @@
       </c>
       <c r="BP162">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7861630</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45769.58333333334</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>71</v>
+      </c>
+      <c r="H163" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163" t="s">
+        <v>206</v>
+      </c>
+      <c r="P163" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q163">
+        <v>2.94</v>
+      </c>
+      <c r="R163">
+        <v>2.43</v>
+      </c>
+      <c r="S163">
+        <v>2.94</v>
+      </c>
+      <c r="T163">
+        <v>1.22</v>
+      </c>
+      <c r="U163">
+        <v>3.8</v>
+      </c>
+      <c r="V163">
+        <v>2.11</v>
+      </c>
+      <c r="W163">
+        <v>1.7</v>
+      </c>
+      <c r="X163">
+        <v>4.33</v>
+      </c>
+      <c r="Y163">
+        <v>1.17</v>
+      </c>
+      <c r="Z163">
+        <v>2.37</v>
+      </c>
+      <c r="AA163">
+        <v>3.5</v>
+      </c>
+      <c r="AB163">
+        <v>2.54</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>12</v>
+      </c>
+      <c r="AE163">
+        <v>1.09</v>
+      </c>
+      <c r="AF163">
+        <v>5.3</v>
+      </c>
+      <c r="AG163">
+        <v>1.44</v>
+      </c>
+      <c r="AH163">
+        <v>2.71</v>
+      </c>
+      <c r="AI163">
+        <v>1.44</v>
+      </c>
+      <c r="AJ163">
+        <v>2.89</v>
+      </c>
+      <c r="AK163">
+        <v>1.26</v>
+      </c>
+      <c r="AL163">
+        <v>1.22</v>
+      </c>
+      <c r="AM163">
+        <v>1.53</v>
+      </c>
+      <c r="AN163">
+        <v>1.5</v>
+      </c>
+      <c r="AO163">
+        <v>1.88</v>
+      </c>
+      <c r="AP163">
+        <v>1.56</v>
+      </c>
+      <c r="AQ163">
+        <v>1.81</v>
+      </c>
+      <c r="AR163">
+        <v>1.64</v>
+      </c>
+      <c r="AS163">
+        <v>1.72</v>
+      </c>
+      <c r="AT163">
+        <v>3.36</v>
+      </c>
+      <c r="AU163">
+        <v>12</v>
+      </c>
+      <c r="AV163">
+        <v>11</v>
+      </c>
+      <c r="AW163">
+        <v>11</v>
+      </c>
+      <c r="AX163">
+        <v>9</v>
+      </c>
+      <c r="AY163">
+        <v>27</v>
+      </c>
+      <c r="AZ163">
+        <v>23</v>
+      </c>
+      <c r="BA163">
+        <v>4</v>
+      </c>
+      <c r="BB163">
+        <v>7</v>
+      </c>
+      <c r="BC163">
+        <v>11</v>
+      </c>
+      <c r="BD163">
+        <v>2.02</v>
+      </c>
+      <c r="BE163">
+        <v>6.55</v>
+      </c>
+      <c r="BF163">
+        <v>2.14</v>
+      </c>
+      <c r="BG163">
+        <v>1.24</v>
+      </c>
+      <c r="BH163">
+        <v>3.8</v>
+      </c>
+      <c r="BI163">
+        <v>1.39</v>
+      </c>
+      <c r="BJ163">
+        <v>2.67</v>
+      </c>
+      <c r="BK163">
+        <v>1.7</v>
+      </c>
+      <c r="BL163">
+        <v>2.03</v>
+      </c>
+      <c r="BM163">
+        <v>2.12</v>
+      </c>
+      <c r="BN163">
+        <v>1.65</v>
+      </c>
+      <c r="BO163">
+        <v>3</v>
+      </c>
+      <c r="BP163">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -34614,10 +34614,10 @@
         <v>4</v>
       </c>
       <c r="BB162">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC162">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD162">
         <v>1.64</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1281,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2445,7 +2445,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ6">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ10">
         <v>0.92</v>
@@ -4917,7 +4917,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ18">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ22">
         <v>1.43</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ30">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR30">
         <v>1.16</v>
@@ -9655,7 +9655,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ41">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR41">
         <v>1.87</v>
@@ -10064,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ43">
         <v>0.77</v>
@@ -11918,7 +11918,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ52">
         <v>1.14</v>
@@ -12333,7 +12333,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ54">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -13775,7 +13775,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ61">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.74</v>
@@ -14390,7 +14390,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ64">
         <v>0.64</v>
@@ -16247,7 +16247,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ73">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -17480,7 +17480,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ79">
         <v>0.85</v>
@@ -18101,7 +18101,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ82">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR82">
         <v>1.78</v>
@@ -20570,7 +20570,7 @@
         <v>0.14</v>
       </c>
       <c r="AP94">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ94">
         <v>0.54</v>
@@ -20779,7 +20779,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ95">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
         <v>1.38</v>
@@ -23454,7 +23454,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ108">
         <v>1.46</v>
@@ -24281,7 +24281,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ112">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR112">
         <v>1.42</v>
@@ -25102,7 +25102,7 @@
         <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ116">
         <v>0.93</v>
@@ -27368,10 +27368,10 @@
         <v>1.3</v>
       </c>
       <c r="AP127">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ127">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AR127">
         <v>1.45</v>
@@ -29637,7 +29637,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ138">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AR138">
         <v>1.7</v>
@@ -29843,7 +29843,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ139">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.77</v>
@@ -30046,7 +30046,7 @@
         <v>1.96</v>
       </c>
       <c r="AP140">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
         <v>1.81</v>
@@ -31076,7 +31076,7 @@
         <v>1.7</v>
       </c>
       <c r="AP145">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AQ145">
         <v>1.48</v>
@@ -31491,7 +31491,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ147">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AR147">
         <v>1.77</v>
@@ -32109,7 +32109,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ150">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -33136,7 +33136,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
         <v>1.48</v>
@@ -33548,7 +33548,7 @@
         <v>1.52</v>
       </c>
       <c r="AP157">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AQ157">
         <v>1.56</v>
@@ -34372,10 +34372,10 @@
         <v>1.58</v>
       </c>
       <c r="AP161">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AQ161">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -34863,6 +34863,212 @@
       </c>
       <c r="BP163">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7861631</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45772.58333333334</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>80</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>87</v>
+      </c>
+      <c r="P164" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q164">
+        <v>3.72</v>
+      </c>
+      <c r="R164">
+        <v>2.4</v>
+      </c>
+      <c r="S164">
+        <v>2.7</v>
+      </c>
+      <c r="T164">
+        <v>1.29</v>
+      </c>
+      <c r="U164">
+        <v>3.23</v>
+      </c>
+      <c r="V164">
+        <v>2.35</v>
+      </c>
+      <c r="W164">
+        <v>1.52</v>
+      </c>
+      <c r="X164">
+        <v>5.15</v>
+      </c>
+      <c r="Y164">
+        <v>1.13</v>
+      </c>
+      <c r="Z164">
+        <v>2.81</v>
+      </c>
+      <c r="AA164">
+        <v>3.76</v>
+      </c>
+      <c r="AB164">
+        <v>2.23</v>
+      </c>
+      <c r="AC164">
+        <v>1.01</v>
+      </c>
+      <c r="AD164">
+        <v>14</v>
+      </c>
+      <c r="AE164">
+        <v>1.2</v>
+      </c>
+      <c r="AF164">
+        <v>4.2</v>
+      </c>
+      <c r="AG164">
+        <v>1.55</v>
+      </c>
+      <c r="AH164">
+        <v>2.2</v>
+      </c>
+      <c r="AI164">
+        <v>1.52</v>
+      </c>
+      <c r="AJ164">
+        <v>2.3</v>
+      </c>
+      <c r="AK164">
+        <v>1.26</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>1.33</v>
+      </c>
+      <c r="AN164">
+        <v>1.52</v>
+      </c>
+      <c r="AO164">
+        <v>1.7</v>
+      </c>
+      <c r="AP164">
+        <v>1.5</v>
+      </c>
+      <c r="AQ164">
+        <v>1.68</v>
+      </c>
+      <c r="AR164">
+        <v>1.35</v>
+      </c>
+      <c r="AS164">
+        <v>1.76</v>
+      </c>
+      <c r="AT164">
+        <v>3.11</v>
+      </c>
+      <c r="AU164">
+        <v>2</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>10</v>
+      </c>
+      <c r="AX164">
+        <v>8</v>
+      </c>
+      <c r="AY164">
+        <v>17</v>
+      </c>
+      <c r="AZ164">
+        <v>13</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>10</v>
+      </c>
+      <c r="BC164">
+        <v>15</v>
+      </c>
+      <c r="BD164">
+        <v>1.91</v>
+      </c>
+      <c r="BE164">
+        <v>8</v>
+      </c>
+      <c r="BF164">
+        <v>2.08</v>
+      </c>
+      <c r="BG164">
+        <v>1.15</v>
+      </c>
+      <c r="BH164">
+        <v>4.2</v>
+      </c>
+      <c r="BI164">
+        <v>1.32</v>
+      </c>
+      <c r="BJ164">
+        <v>3</v>
+      </c>
+      <c r="BK164">
+        <v>1.81</v>
+      </c>
+      <c r="BL164">
+        <v>2.21</v>
+      </c>
+      <c r="BM164">
+        <v>1.9</v>
+      </c>
+      <c r="BN164">
+        <v>1.79</v>
+      </c>
+      <c r="BO164">
+        <v>2.65</v>
+      </c>
+      <c r="BP164">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,18 @@
     <t>['3', '66', '81']</t>
   </si>
   <si>
+    <t>['19', '67']</t>
+  </si>
+  <si>
+    <t>['3', '11']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['20', '33', '41', '44', '76']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -920,6 +932,12 @@
   </si>
   <si>
     <t>['31', '87']</t>
+  </si>
+  <si>
+    <t>['73', '83']</t>
+  </si>
+  <si>
+    <t>['43', '84', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ2">
         <v>1.14</v>
@@ -2158,7 +2176,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2364,7 +2382,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2570,7 +2588,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2648,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2854,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8">
         <v>0.64</v>
@@ -2982,7 +3000,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3269,7 +3287,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ10">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3394,7 +3412,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3475,7 +3493,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3600,7 +3618,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4090,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4296,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ15">
         <v>0.77</v>
@@ -4505,7 +4523,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ16">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR16">
         <v>1.37</v>
@@ -4630,7 +4648,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4836,7 +4854,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4914,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -5042,7 +5060,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5123,7 +5141,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ19">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR19">
         <v>1.07</v>
@@ -5326,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ20">
         <v>0.54</v>
@@ -5660,7 +5678,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5741,7 +5759,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -5866,7 +5884,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6072,7 +6090,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6150,10 +6168,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6278,7 +6296,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6484,7 +6502,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6562,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.14</v>
@@ -6690,7 +6708,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6896,7 +6914,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6977,7 +6995,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ28">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR28">
         <v>1.19</v>
@@ -7102,7 +7120,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7183,7 +7201,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ29">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -7308,7 +7326,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7592,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ31">
         <v>0.54</v>
@@ -7720,7 +7738,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7926,7 +7944,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8004,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8132,7 +8150,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8213,7 +8231,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ34">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -8338,7 +8356,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8419,7 +8437,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ35">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR35">
         <v>1.81</v>
@@ -8544,7 +8562,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -9034,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0.54</v>
@@ -9162,7 +9180,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9240,10 +9258,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ39">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR39">
         <v>1.84</v>
@@ -9368,7 +9386,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9446,10 +9464,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ40">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR40">
         <v>1.35</v>
@@ -9574,7 +9592,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9780,7 +9798,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10192,7 +10210,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10398,7 +10416,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10476,10 +10494,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ45">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR45">
         <v>1.88</v>
@@ -10604,7 +10622,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10682,10 +10700,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10810,7 +10828,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10891,7 +10909,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ47">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -11428,7 +11446,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11509,7 +11527,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ50">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR50">
         <v>1.51</v>
@@ -11712,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51">
         <v>0.54</v>
@@ -11840,7 +11858,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12124,7 +12142,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>0.93</v>
@@ -12252,7 +12270,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12664,7 +12682,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12742,7 +12760,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ56">
         <v>1.21</v>
@@ -12948,10 +12966,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ57">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR57">
         <v>1.87</v>
@@ -13282,7 +13300,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13360,10 +13378,10 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.04</v>
@@ -13488,7 +13506,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13569,7 +13587,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ60">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR60">
         <v>1.56</v>
@@ -13694,7 +13712,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13900,7 +13918,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14106,7 +14124,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14184,10 +14202,10 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14312,7 +14330,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14518,7 +14536,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14930,7 +14948,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15011,7 +15029,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ67">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -15420,10 +15438,10 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR69">
         <v>1.17</v>
@@ -15548,7 +15566,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15835,7 +15853,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -15960,7 +15978,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16038,7 +16056,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16244,7 +16262,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ73">
         <v>1.43</v>
@@ -16659,7 +16677,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ75">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR75">
         <v>1.81</v>
@@ -16990,7 +17008,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17274,7 +17292,7 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ78">
         <v>0.93</v>
@@ -17483,7 +17501,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ79">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17608,7 +17626,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17686,7 +17704,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ80">
         <v>1.21</v>
@@ -17814,7 +17832,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17895,7 +17913,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ81">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR81">
         <v>1.65</v>
@@ -18020,7 +18038,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18098,7 +18116,7 @@
         <v>1.14</v>
       </c>
       <c r="AP82">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ82">
         <v>1.43</v>
@@ -18226,7 +18244,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18304,7 +18322,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ83">
         <v>0.64</v>
@@ -18432,7 +18450,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18638,7 +18656,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18719,7 +18737,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ85">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
         <v>1.76</v>
@@ -19256,7 +19274,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19334,7 +19352,7 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>0.77</v>
@@ -19668,7 +19686,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19746,10 +19764,10 @@
         <v>1.57</v>
       </c>
       <c r="AP90">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ90">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR90">
         <v>1.66</v>
@@ -19874,7 +19892,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -19955,7 +19973,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ91">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR91">
         <v>1.65</v>
@@ -20367,7 +20385,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ93">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR93">
         <v>1.41</v>
@@ -20698,7 +20716,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20776,7 +20794,7 @@
         <v>1.38</v>
       </c>
       <c r="AP95">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ95">
         <v>1.43</v>
@@ -20904,7 +20922,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21188,10 +21206,10 @@
         <v>1.43</v>
       </c>
       <c r="AP97">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ97">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR97">
         <v>1.78</v>
@@ -21522,7 +21540,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21600,7 +21618,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21728,7 +21746,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21934,7 +21952,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22140,7 +22158,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22427,7 +22445,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ103">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR103">
         <v>2.05</v>
@@ -22552,7 +22570,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22633,7 +22651,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ104">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR104">
         <v>1.62</v>
@@ -22758,7 +22776,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22964,7 +22982,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23042,7 +23060,7 @@
         <v>1.13</v>
       </c>
       <c r="AP106">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ106">
         <v>0.93</v>
@@ -23248,7 +23266,7 @@
         <v>0.38</v>
       </c>
       <c r="AP107">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ107">
         <v>0.64</v>
@@ -23376,7 +23394,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -23457,7 +23475,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ108">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR108">
         <v>1.51</v>
@@ -23660,7 +23678,7 @@
         <v>1.78</v>
       </c>
       <c r="AP109">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>1.21</v>
@@ -23866,7 +23884,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ110">
         <v>0.77</v>
@@ -23994,7 +24012,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24200,7 +24218,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24612,7 +24630,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24693,7 +24711,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ114">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR114">
         <v>1.41</v>
@@ -24818,7 +24836,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24899,7 +24917,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ115">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR115">
         <v>1.35</v>
@@ -25024,7 +25042,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25230,7 +25248,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25308,10 +25326,10 @@
         <v>1.44</v>
       </c>
       <c r="AP117">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ117">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR117">
         <v>1.38</v>
@@ -25436,7 +25454,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25642,7 +25660,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25720,10 +25738,10 @@
         <v>1.11</v>
       </c>
       <c r="AP119">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ119">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -25929,7 +25947,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ120">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR120">
         <v>1.35</v>
@@ -26466,7 +26484,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26672,7 +26690,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26878,7 +26896,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -26956,10 +26974,10 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ125">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR125">
         <v>1.82</v>
@@ -27084,7 +27102,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27290,7 +27308,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27496,7 +27514,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27577,7 +27595,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ128">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
         <v>1.76</v>
@@ -27702,7 +27720,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -27780,7 +27798,7 @@
         <v>1.7</v>
       </c>
       <c r="AP129">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ129">
         <v>1.21</v>
@@ -27986,10 +28004,10 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR130">
         <v>1.23</v>
@@ -28114,7 +28132,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28320,7 +28338,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28401,7 +28419,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ132">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR132">
         <v>1.38</v>
@@ -28526,7 +28544,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28604,7 +28622,7 @@
         <v>0.6</v>
       </c>
       <c r="AP133">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ133">
         <v>0.77</v>
@@ -28732,7 +28750,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28813,7 +28831,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ134">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29019,7 +29037,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ135">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29144,7 +29162,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29222,7 +29240,7 @@
         <v>0.59</v>
       </c>
       <c r="AP136">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="AQ136">
         <v>0.67</v>
@@ -29428,10 +29446,10 @@
         <v>1.59</v>
       </c>
       <c r="AP137">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ137">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.6</v>
@@ -29556,7 +29574,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -29634,7 +29652,7 @@
         <v>1.5</v>
       </c>
       <c r="AP138">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AQ138">
         <v>1.68</v>
@@ -29840,7 +29858,7 @@
         <v>1.59</v>
       </c>
       <c r="AP139">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AQ139">
         <v>1.5</v>
@@ -30049,7 +30067,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -30174,7 +30192,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30252,10 +30270,10 @@
         <v>0.78</v>
       </c>
       <c r="AP141">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ141">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30380,7 +30398,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30458,7 +30476,7 @@
         <v>0.87</v>
       </c>
       <c r="AP142">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AQ142">
         <v>1.07</v>
@@ -30586,7 +30604,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30870,10 +30888,10 @@
         <v>1.91</v>
       </c>
       <c r="AP144">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AR144">
         <v>1.67</v>
@@ -30998,7 +31016,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31079,7 +31097,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ145">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31204,7 +31222,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31285,7 +31303,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ146">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31410,7 +31428,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31488,7 +31506,7 @@
         <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AQ147">
         <v>1.68</v>
@@ -31694,10 +31712,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AQ148">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31822,7 +31840,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -31900,10 +31918,10 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AQ149">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AR149">
         <v>1.59</v>
@@ -32028,7 +32046,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32106,7 +32124,7 @@
         <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.5</v>
@@ -32518,7 +32536,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152">
         <v>0.85</v>
@@ -32646,7 +32664,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32727,7 +32745,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ153">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR153">
         <v>1.29</v>
@@ -32852,7 +32870,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -32930,7 +32948,7 @@
         <v>0.92</v>
       </c>
       <c r="AP154">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -33058,7 +33076,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33139,7 +33157,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR155">
         <v>1.35</v>
@@ -33264,7 +33282,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33342,10 +33360,10 @@
         <v>1.88</v>
       </c>
       <c r="AP156">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AQ156">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -33551,7 +33569,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ157">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33676,7 +33694,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -33960,10 +33978,10 @@
         <v>0.73</v>
       </c>
       <c r="AP159">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AQ159">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="AR159">
         <v>1.45</v>
@@ -34088,7 +34106,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34169,7 +34187,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ160">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34294,7 +34312,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34500,7 +34518,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34578,10 +34596,10 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AQ162">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AR162">
         <v>1.79</v>
@@ -34706,7 +34724,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -34784,10 +34802,10 @@
         <v>1.88</v>
       </c>
       <c r="AP163">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AR163">
         <v>1.64</v>
@@ -35069,6 +35087,830 @@
       </c>
       <c r="BP164">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7861659</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45774.375</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>75</v>
+      </c>
+      <c r="H165" t="s">
+        <v>72</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>207</v>
+      </c>
+      <c r="P165" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q165">
+        <v>3.4</v>
+      </c>
+      <c r="R165">
+        <v>2.15</v>
+      </c>
+      <c r="S165">
+        <v>2.7</v>
+      </c>
+      <c r="T165">
+        <v>1.37</v>
+      </c>
+      <c r="U165">
+        <v>2.9</v>
+      </c>
+      <c r="V165">
+        <v>2.62</v>
+      </c>
+      <c r="W165">
+        <v>1.42</v>
+      </c>
+      <c r="X165">
+        <v>5.8</v>
+      </c>
+      <c r="Y165">
+        <v>1.09</v>
+      </c>
+      <c r="Z165">
+        <v>2.82</v>
+      </c>
+      <c r="AA165">
+        <v>3.77</v>
+      </c>
+      <c r="AB165">
+        <v>2.22</v>
+      </c>
+      <c r="AC165">
+        <v>1.02</v>
+      </c>
+      <c r="AD165">
+        <v>10</v>
+      </c>
+      <c r="AE165">
+        <v>1.25</v>
+      </c>
+      <c r="AF165">
+        <v>3.75</v>
+      </c>
+      <c r="AG165">
+        <v>1.73</v>
+      </c>
+      <c r="AH165">
+        <v>1.91</v>
+      </c>
+      <c r="AI165">
+        <v>1.68</v>
+      </c>
+      <c r="AJ165">
+        <v>2.05</v>
+      </c>
+      <c r="AK165">
+        <v>1.73</v>
+      </c>
+      <c r="AL165">
+        <v>1.22</v>
+      </c>
+      <c r="AM165">
+        <v>1.33</v>
+      </c>
+      <c r="AN165">
+        <v>0.74</v>
+      </c>
+      <c r="AO165">
+        <v>1.56</v>
+      </c>
+      <c r="AP165">
+        <v>0.82</v>
+      </c>
+      <c r="AQ165">
+        <v>1.5</v>
+      </c>
+      <c r="AR165">
+        <v>1.21</v>
+      </c>
+      <c r="AS165">
+        <v>1.48</v>
+      </c>
+      <c r="AT165">
+        <v>2.69</v>
+      </c>
+      <c r="AU165">
+        <v>5</v>
+      </c>
+      <c r="AV165">
+        <v>3</v>
+      </c>
+      <c r="AW165">
+        <v>7</v>
+      </c>
+      <c r="AX165">
+        <v>8</v>
+      </c>
+      <c r="AY165">
+        <v>13</v>
+      </c>
+      <c r="AZ165">
+        <v>14</v>
+      </c>
+      <c r="BA165">
+        <v>4</v>
+      </c>
+      <c r="BB165">
+        <v>7</v>
+      </c>
+      <c r="BC165">
+        <v>11</v>
+      </c>
+      <c r="BD165">
+        <v>2.33</v>
+      </c>
+      <c r="BE165">
+        <v>6.4</v>
+      </c>
+      <c r="BF165">
+        <v>1.73</v>
+      </c>
+      <c r="BG165">
+        <v>1.37</v>
+      </c>
+      <c r="BH165">
+        <v>2.85</v>
+      </c>
+      <c r="BI165">
+        <v>1.6</v>
+      </c>
+      <c r="BJ165">
+        <v>2.2</v>
+      </c>
+      <c r="BK165">
+        <v>1.97</v>
+      </c>
+      <c r="BL165">
+        <v>1.75</v>
+      </c>
+      <c r="BM165">
+        <v>2.3</v>
+      </c>
+      <c r="BN165">
+        <v>1.55</v>
+      </c>
+      <c r="BO165">
+        <v>3.4</v>
+      </c>
+      <c r="BP165">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7861658</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45774.375</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>76</v>
+      </c>
+      <c r="H166" t="s">
+        <v>74</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>208</v>
+      </c>
+      <c r="P166" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q166">
+        <v>3.4</v>
+      </c>
+      <c r="R166">
+        <v>2</v>
+      </c>
+      <c r="S166">
+        <v>2.9</v>
+      </c>
+      <c r="T166">
+        <v>1.3</v>
+      </c>
+      <c r="U166">
+        <v>3.2</v>
+      </c>
+      <c r="V166">
+        <v>2.4</v>
+      </c>
+      <c r="W166">
+        <v>1.5</v>
+      </c>
+      <c r="X166">
+        <v>5.25</v>
+      </c>
+      <c r="Y166">
+        <v>1.12</v>
+      </c>
+      <c r="Z166">
+        <v>3.09</v>
+      </c>
+      <c r="AA166">
+        <v>3.5</v>
+      </c>
+      <c r="AB166">
+        <v>2.17</v>
+      </c>
+      <c r="AC166">
+        <v>1.04</v>
+      </c>
+      <c r="AD166">
+        <v>11</v>
+      </c>
+      <c r="AE166">
+        <v>1.2</v>
+      </c>
+      <c r="AF166">
+        <v>4.2</v>
+      </c>
+      <c r="AG166">
+        <v>1.61</v>
+      </c>
+      <c r="AH166">
+        <v>2.1</v>
+      </c>
+      <c r="AI166">
+        <v>1.57</v>
+      </c>
+      <c r="AJ166">
+        <v>2.25</v>
+      </c>
+      <c r="AK166">
+        <v>1.22</v>
+      </c>
+      <c r="AL166">
+        <v>1.22</v>
+      </c>
+      <c r="AM166">
+        <v>1.4</v>
+      </c>
+      <c r="AN166">
+        <v>1.07</v>
+      </c>
+      <c r="AO166">
+        <v>1.44</v>
+      </c>
+      <c r="AP166">
+        <v>1.07</v>
+      </c>
+      <c r="AQ166">
+        <v>1.43</v>
+      </c>
+      <c r="AR166">
+        <v>1.33</v>
+      </c>
+      <c r="AS166">
+        <v>1.46</v>
+      </c>
+      <c r="AT166">
+        <v>2.79</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>7</v>
+      </c>
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
+        <v>9</v>
+      </c>
+      <c r="AY166">
+        <v>12</v>
+      </c>
+      <c r="AZ166">
+        <v>18</v>
+      </c>
+      <c r="BA166">
+        <v>3</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>6</v>
+      </c>
+      <c r="BD166">
+        <v>2.12</v>
+      </c>
+      <c r="BE166">
+        <v>7.4</v>
+      </c>
+      <c r="BF166">
+        <v>2.05</v>
+      </c>
+      <c r="BG166">
+        <v>1.16</v>
+      </c>
+      <c r="BH166">
+        <v>3.45</v>
+      </c>
+      <c r="BI166">
+        <v>1.34</v>
+      </c>
+      <c r="BJ166">
+        <v>2.9</v>
+      </c>
+      <c r="BK166">
+        <v>1.61</v>
+      </c>
+      <c r="BL166">
+        <v>2.15</v>
+      </c>
+      <c r="BM166">
+        <v>2.07</v>
+      </c>
+      <c r="BN166">
+        <v>1.72</v>
+      </c>
+      <c r="BO166">
+        <v>2.67</v>
+      </c>
+      <c r="BP166">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7861632</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45774.45833333334</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>70</v>
+      </c>
+      <c r="H167" t="s">
+        <v>79</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>3</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167" t="s">
+        <v>209</v>
+      </c>
+      <c r="P167" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q167">
+        <v>3.5</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>2.68</v>
+      </c>
+      <c r="T167">
+        <v>1.44</v>
+      </c>
+      <c r="U167">
+        <v>2.6</v>
+      </c>
+      <c r="V167">
+        <v>3</v>
+      </c>
+      <c r="W167">
+        <v>1.32</v>
+      </c>
+      <c r="X167">
+        <v>8.25</v>
+      </c>
+      <c r="Y167">
+        <v>1.05</v>
+      </c>
+      <c r="Z167">
+        <v>3</v>
+      </c>
+      <c r="AA167">
+        <v>3.41</v>
+      </c>
+      <c r="AB167">
+        <v>2.26</v>
+      </c>
+      <c r="AC167">
+        <v>1.05</v>
+      </c>
+      <c r="AD167">
+        <v>8</v>
+      </c>
+      <c r="AE167">
+        <v>1.37</v>
+      </c>
+      <c r="AF167">
+        <v>2.9</v>
+      </c>
+      <c r="AG167">
+        <v>2.1</v>
+      </c>
+      <c r="AH167">
+        <v>1.65</v>
+      </c>
+      <c r="AI167">
+        <v>1.85</v>
+      </c>
+      <c r="AJ167">
+        <v>1.85</v>
+      </c>
+      <c r="AK167">
+        <v>1.62</v>
+      </c>
+      <c r="AL167">
+        <v>1.25</v>
+      </c>
+      <c r="AM167">
+        <v>1.33</v>
+      </c>
+      <c r="AN167">
+        <v>1.48</v>
+      </c>
+      <c r="AO167">
+        <v>1.85</v>
+      </c>
+      <c r="AP167">
+        <v>1.43</v>
+      </c>
+      <c r="AQ167">
+        <v>1.89</v>
+      </c>
+      <c r="AR167">
+        <v>1.57</v>
+      </c>
+      <c r="AS167">
+        <v>1.77</v>
+      </c>
+      <c r="AT167">
+        <v>3.34</v>
+      </c>
+      <c r="AU167">
+        <v>6</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>6</v>
+      </c>
+      <c r="AX167">
+        <v>3</v>
+      </c>
+      <c r="AY167">
+        <v>15</v>
+      </c>
+      <c r="AZ167">
+        <v>9</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>6</v>
+      </c>
+      <c r="BD167">
+        <v>1.91</v>
+      </c>
+      <c r="BE167">
+        <v>6.4</v>
+      </c>
+      <c r="BF167">
+        <v>2.08</v>
+      </c>
+      <c r="BG167">
+        <v>1.23</v>
+      </c>
+      <c r="BH167">
+        <v>3.42</v>
+      </c>
+      <c r="BI167">
+        <v>1.47</v>
+      </c>
+      <c r="BJ167">
+        <v>2.45</v>
+      </c>
+      <c r="BK167">
+        <v>2.09</v>
+      </c>
+      <c r="BL167">
+        <v>1.93</v>
+      </c>
+      <c r="BM167">
+        <v>2.3</v>
+      </c>
+      <c r="BN167">
+        <v>1.55</v>
+      </c>
+      <c r="BO167">
+        <v>2.88</v>
+      </c>
+      <c r="BP167">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7861633</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45774.54166666666</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H168" t="s">
+        <v>71</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>4</v>
+      </c>
+      <c r="L168">
+        <v>5</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168" t="s">
+        <v>210</v>
+      </c>
+      <c r="P168" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q168">
+        <v>2.61</v>
+      </c>
+      <c r="R168">
+        <v>2.41</v>
+      </c>
+      <c r="S168">
+        <v>3.5</v>
+      </c>
+      <c r="T168">
+        <v>1.22</v>
+      </c>
+      <c r="U168">
+        <v>3.6</v>
+      </c>
+      <c r="V168">
+        <v>2.19</v>
+      </c>
+      <c r="W168">
+        <v>1.62</v>
+      </c>
+      <c r="X168">
+        <v>4.4</v>
+      </c>
+      <c r="Y168">
+        <v>1.15</v>
+      </c>
+      <c r="Z168">
+        <v>2.16</v>
+      </c>
+      <c r="AA168">
+        <v>3.98</v>
+      </c>
+      <c r="AB168">
+        <v>3</v>
+      </c>
+      <c r="AC168">
+        <v>1.02</v>
+      </c>
+      <c r="AD168">
+        <v>12.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.11</v>
+      </c>
+      <c r="AF168">
+        <v>6</v>
+      </c>
+      <c r="AG168">
+        <v>1.53</v>
+      </c>
+      <c r="AH168">
+        <v>2.38</v>
+      </c>
+      <c r="AI168">
+        <v>1.4</v>
+      </c>
+      <c r="AJ168">
+        <v>2.45</v>
+      </c>
+      <c r="AK168">
+        <v>1.25</v>
+      </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
+      <c r="AM168">
+        <v>1.67</v>
+      </c>
+      <c r="AN168">
+        <v>1.81</v>
+      </c>
+      <c r="AO168">
+        <v>1.56</v>
+      </c>
+      <c r="AP168">
+        <v>1.86</v>
+      </c>
+      <c r="AQ168">
+        <v>1.5</v>
+      </c>
+      <c r="AR168">
+        <v>1.74</v>
+      </c>
+      <c r="AS168">
+        <v>1.68</v>
+      </c>
+      <c r="AT168">
+        <v>3.42</v>
+      </c>
+      <c r="AU168">
+        <v>11</v>
+      </c>
+      <c r="AV168">
+        <v>7</v>
+      </c>
+      <c r="AW168">
+        <v>13</v>
+      </c>
+      <c r="AX168">
+        <v>5</v>
+      </c>
+      <c r="AY168">
+        <v>29</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>8</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>10</v>
+      </c>
+      <c r="BD168">
+        <v>1.58</v>
+      </c>
+      <c r="BE168">
+        <v>9</v>
+      </c>
+      <c r="BF168">
+        <v>2.86</v>
+      </c>
+      <c r="BG168">
+        <v>1.21</v>
+      </c>
+      <c r="BH168">
+        <v>4.05</v>
+      </c>
+      <c r="BI168">
+        <v>1.41</v>
+      </c>
+      <c r="BJ168">
+        <v>2.55</v>
+      </c>
+      <c r="BK168">
+        <v>1.9</v>
+      </c>
+      <c r="BL168">
+        <v>2.12</v>
+      </c>
+      <c r="BM168">
+        <v>2.1</v>
+      </c>
+      <c r="BN168">
+        <v>1.7</v>
+      </c>
+      <c r="BO168">
+        <v>2.65</v>
+      </c>
+      <c r="BP168">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1299,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3905,7 +3905,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ13">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ20">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>1.75</v>
@@ -7404,7 +7404,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ30">
         <v>1.43</v>
@@ -7613,7 +7613,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ31">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR31">
         <v>1.74</v>
@@ -7816,7 +7816,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ32">
         <v>0.93</v>
@@ -9055,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR38">
         <v>1.09</v>
@@ -10288,7 +10288,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ44">
         <v>0.64</v>
@@ -11733,7 +11733,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ51">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -13172,7 +13172,7 @@
         <v>0.6</v>
       </c>
       <c r="AP58">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -15235,7 +15235,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ68">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR68">
         <v>1.76</v>
@@ -15644,7 +15644,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ70">
         <v>1.21</v>
@@ -18528,10 +18528,10 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ84">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR84">
         <v>1.31</v>
@@ -20382,7 +20382,7 @@
         <v>0.75</v>
       </c>
       <c r="AP93">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ93">
         <v>0.93</v>
@@ -20591,7 +20591,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ94">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR94">
         <v>1.44</v>
@@ -22857,7 +22857,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ105">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -24914,7 +24914,7 @@
         <v>0.88</v>
       </c>
       <c r="AP115">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ115">
         <v>0.79</v>
@@ -25535,7 +25535,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ118">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR118">
         <v>1.35</v>
@@ -25944,7 +25944,7 @@
         <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ120">
         <v>1.57</v>
@@ -26359,7 +26359,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ122">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR122">
         <v>1.71</v>
@@ -26768,7 +26768,7 @@
         <v>1.2</v>
       </c>
       <c r="AP124">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ124">
         <v>1.14</v>
@@ -28828,7 +28828,7 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AQ134">
         <v>1.43</v>
@@ -29243,7 +29243,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ136">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -30682,10 +30682,10 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ143">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR143">
         <v>1.28</v>
@@ -31300,7 +31300,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AQ146">
         <v>0.82</v>
@@ -32333,7 +32333,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ151">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR151">
         <v>1.3</v>
@@ -32539,7 +32539,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32742,7 +32742,7 @@
         <v>1.48</v>
       </c>
       <c r="AP153">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ153">
         <v>1.43</v>
@@ -33772,7 +33772,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AQ158">
         <v>1.07</v>
@@ -34184,7 +34184,7 @@
         <v>1.5</v>
       </c>
       <c r="AP160">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ160">
         <v>1.5</v>
@@ -35250,10 +35250,10 @@
         <v>4</v>
       </c>
       <c r="BB165">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC165">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD165">
         <v>2.33</v>
@@ -35911,6 +35911,212 @@
       </c>
       <c r="BP168">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7861660</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45775.58333333334</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>87</v>
+      </c>
+      <c r="P169" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q169">
+        <v>2.92</v>
+      </c>
+      <c r="R169">
+        <v>2.17</v>
+      </c>
+      <c r="S169">
+        <v>3.35</v>
+      </c>
+      <c r="T169">
+        <v>1.32</v>
+      </c>
+      <c r="U169">
+        <v>3.1</v>
+      </c>
+      <c r="V169">
+        <v>2.6</v>
+      </c>
+      <c r="W169">
+        <v>1.44</v>
+      </c>
+      <c r="X169">
+        <v>5.8</v>
+      </c>
+      <c r="Y169">
+        <v>1.11</v>
+      </c>
+      <c r="Z169">
+        <v>2.4</v>
+      </c>
+      <c r="AA169">
+        <v>3.25</v>
+      </c>
+      <c r="AB169">
+        <v>2.92</v>
+      </c>
+      <c r="AC169">
+        <v>1.04</v>
+      </c>
+      <c r="AD169">
+        <v>12</v>
+      </c>
+      <c r="AE169">
+        <v>1.22</v>
+      </c>
+      <c r="AF169">
+        <v>3.74</v>
+      </c>
+      <c r="AG169">
+        <v>1.73</v>
+      </c>
+      <c r="AH169">
+        <v>2.12</v>
+      </c>
+      <c r="AI169">
+        <v>1.55</v>
+      </c>
+      <c r="AJ169">
+        <v>2.2</v>
+      </c>
+      <c r="AK169">
+        <v>1.3</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>1.62</v>
+      </c>
+      <c r="AN169">
+        <v>0.85</v>
+      </c>
+      <c r="AO169">
+        <v>0.67</v>
+      </c>
+      <c r="AP169">
+        <v>0.82</v>
+      </c>
+      <c r="AQ169">
+        <v>0.75</v>
+      </c>
+      <c r="AR169">
+        <v>1.3</v>
+      </c>
+      <c r="AS169">
+        <v>1.35</v>
+      </c>
+      <c r="AT169">
+        <v>2.65</v>
+      </c>
+      <c r="AU169">
+        <v>3</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>13</v>
+      </c>
+      <c r="AX169">
+        <v>3</v>
+      </c>
+      <c r="AY169">
+        <v>17</v>
+      </c>
+      <c r="AZ169">
+        <v>9</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>8</v>
+      </c>
+      <c r="BC169">
+        <v>13</v>
+      </c>
+      <c r="BD169">
+        <v>1.65</v>
+      </c>
+      <c r="BE169">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF169">
+        <v>2.5</v>
+      </c>
+      <c r="BG169">
+        <v>1.18</v>
+      </c>
+      <c r="BH169">
+        <v>4.05</v>
+      </c>
+      <c r="BI169">
+        <v>1.37</v>
+      </c>
+      <c r="BJ169">
+        <v>2.87</v>
+      </c>
+      <c r="BK169">
+        <v>1.61</v>
+      </c>
+      <c r="BL169">
+        <v>2.23</v>
+      </c>
+      <c r="BM169">
+        <v>1.97</v>
+      </c>
+      <c r="BN169">
+        <v>1.78</v>
+      </c>
+      <c r="BO169">
+        <v>2.45</v>
+      </c>
+      <c r="BP169">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['20', '33', '41', '44', '76']</t>
   </si>
   <si>
+    <t>['20', '45+2', '82']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -938,6 +941,9 @@
   </si>
   <si>
     <t>['43', '84', '90+5']</t>
+  </si>
+  <si>
+    <t>['37', '72']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2176,7 +2182,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2382,7 +2388,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2588,7 +2594,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3000,7 +3006,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3284,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ10">
         <v>0.93</v>
@@ -3412,7 +3418,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3618,7 +3624,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4648,7 +4654,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4854,7 +4860,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5060,7 +5066,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5141,7 +5147,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ19">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR19">
         <v>1.07</v>
@@ -5678,7 +5684,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5756,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5884,7 +5890,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6090,7 +6096,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6296,7 +6302,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6502,7 +6508,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6708,7 +6714,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6786,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6914,7 +6920,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6995,7 +7001,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ28">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR28">
         <v>1.19</v>
@@ -7120,7 +7126,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7326,7 +7332,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7738,7 +7744,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7944,7 +7950,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8150,7 +8156,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8356,7 +8362,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8562,7 +8568,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -9180,7 +9186,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9261,7 +9267,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ39">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR39">
         <v>1.84</v>
@@ -9386,7 +9392,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9592,7 +9598,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9798,7 +9804,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10082,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ43">
         <v>0.77</v>
@@ -10210,7 +10216,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10416,7 +10422,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10622,7 +10628,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10828,7 +10834,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11446,7 +11452,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11527,7 +11533,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ50">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR50">
         <v>1.51</v>
@@ -11858,7 +11864,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11936,7 +11942,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ52">
         <v>1.14</v>
@@ -12270,7 +12276,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12682,7 +12688,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13300,7 +13306,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13506,7 +13512,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13712,7 +13718,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13918,7 +13924,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14124,7 +14130,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14205,7 +14211,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ63">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14330,7 +14336,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14408,7 +14414,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ64">
         <v>0.64</v>
@@ -14536,7 +14542,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14948,7 +14954,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15566,7 +15572,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15978,7 +15984,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -17008,7 +17014,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17498,10 +17504,10 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ79">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17626,7 +17632,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17832,7 +17838,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18038,7 +18044,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18244,7 +18250,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18450,7 +18456,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18656,7 +18662,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -19274,7 +19280,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19686,7 +19692,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19892,7 +19898,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -19973,7 +19979,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ91">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR91">
         <v>1.65</v>
@@ -20588,7 +20594,7 @@
         <v>0.14</v>
       </c>
       <c r="AP94">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ94">
         <v>0.71</v>
@@ -20716,7 +20722,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20922,7 +20928,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21540,7 +21546,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21746,7 +21752,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21952,7 +21958,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22158,7 +22164,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22445,7 +22451,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ103">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
         <v>2.05</v>
@@ -22570,7 +22576,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22776,7 +22782,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22982,7 +22988,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23394,7 +23400,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -23472,7 +23478,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ108">
         <v>1.57</v>
@@ -24012,7 +24018,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24218,7 +24224,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24630,7 +24636,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24836,7 +24842,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24917,7 +24923,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ115">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR115">
         <v>1.35</v>
@@ -25042,7 +25048,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25120,7 +25126,7 @@
         <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ116">
         <v>0.93</v>
@@ -25248,7 +25254,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25454,7 +25460,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25660,7 +25666,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25741,7 +25747,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ119">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -26484,7 +26490,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26690,7 +26696,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26896,7 +26902,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27102,7 +27108,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27308,7 +27314,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27386,7 +27392,7 @@
         <v>1.3</v>
       </c>
       <c r="AP127">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ127">
         <v>1.43</v>
@@ -27514,7 +27520,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27720,7 +27726,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -28007,7 +28013,7 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR130">
         <v>1.23</v>
@@ -28132,7 +28138,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28338,7 +28344,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28544,7 +28550,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28750,7 +28756,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29162,7 +29168,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29449,7 +29455,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR137">
         <v>1.6</v>
@@ -29574,7 +29580,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -29861,7 +29867,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR139">
         <v>1.77</v>
@@ -30064,7 +30070,7 @@
         <v>1.96</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ140">
         <v>1.86</v>
@@ -30192,7 +30198,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30398,7 +30404,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30604,7 +30610,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30888,7 +30894,7 @@
         <v>1.91</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ144">
         <v>1.89</v>
@@ -31016,7 +31022,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31222,7 +31228,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31428,7 +31434,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31840,7 +31846,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -32046,7 +32052,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32124,10 +32130,10 @@
         <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -32664,7 +32670,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32870,7 +32876,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -33076,7 +33082,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33154,7 +33160,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ155">
         <v>1.43</v>
@@ -33282,7 +33288,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33569,7 +33575,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33694,7 +33700,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -34106,7 +34112,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34312,7 +34318,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34393,7 +34399,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ161">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -34518,7 +34524,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34724,7 +34730,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -34802,7 +34808,7 @@
         <v>1.88</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ163">
         <v>1.86</v>
@@ -35008,7 +35014,7 @@
         <v>1.7</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ164">
         <v>1.68</v>
@@ -35342,7 +35348,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35548,7 +35554,7 @@
         <v>209</v>
       </c>
       <c r="P167" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -35835,7 +35841,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR168">
         <v>1.74</v>
@@ -36117,6 +36123,212 @@
       </c>
       <c r="BP169">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7861634</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45779.58333333334</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>77</v>
+      </c>
+      <c r="H170" t="s">
+        <v>71</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>3</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>5</v>
+      </c>
+      <c r="O170" t="s">
+        <v>211</v>
+      </c>
+      <c r="P170" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q170">
+        <v>2.78</v>
+      </c>
+      <c r="R170">
+        <v>2.3</v>
+      </c>
+      <c r="S170">
+        <v>3.1</v>
+      </c>
+      <c r="T170">
+        <v>1.29</v>
+      </c>
+      <c r="U170">
+        <v>3.3</v>
+      </c>
+      <c r="V170">
+        <v>2.3</v>
+      </c>
+      <c r="W170">
+        <v>1.55</v>
+      </c>
+      <c r="X170">
+        <v>4.95</v>
+      </c>
+      <c r="Y170">
+        <v>1.12</v>
+      </c>
+      <c r="Z170">
+        <v>2.52</v>
+      </c>
+      <c r="AA170">
+        <v>3.87</v>
+      </c>
+      <c r="AB170">
+        <v>2.41</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>11</v>
+      </c>
+      <c r="AE170">
+        <v>1.18</v>
+      </c>
+      <c r="AF170">
+        <v>4.33</v>
+      </c>
+      <c r="AG170">
+        <v>1.58</v>
+      </c>
+      <c r="AH170">
+        <v>2.29</v>
+      </c>
+      <c r="AI170">
+        <v>1.55</v>
+      </c>
+      <c r="AJ170">
+        <v>2.3</v>
+      </c>
+      <c r="AK170">
+        <v>1.26</v>
+      </c>
+      <c r="AL170">
+        <v>1.26</v>
+      </c>
+      <c r="AM170">
+        <v>1.53</v>
+      </c>
+      <c r="AN170">
+        <v>1.5</v>
+      </c>
+      <c r="AO170">
+        <v>1.5</v>
+      </c>
+      <c r="AP170">
+        <v>1.55</v>
+      </c>
+      <c r="AQ170">
+        <v>1.45</v>
+      </c>
+      <c r="AR170">
+        <v>1.34</v>
+      </c>
+      <c r="AS170">
+        <v>1.67</v>
+      </c>
+      <c r="AT170">
+        <v>3.01</v>
+      </c>
+      <c r="AU170">
+        <v>9</v>
+      </c>
+      <c r="AV170">
+        <v>10</v>
+      </c>
+      <c r="AW170">
+        <v>12</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>22</v>
+      </c>
+      <c r="AZ170">
+        <v>15</v>
+      </c>
+      <c r="BA170">
+        <v>3</v>
+      </c>
+      <c r="BB170">
+        <v>4</v>
+      </c>
+      <c r="BC170">
+        <v>7</v>
+      </c>
+      <c r="BD170">
+        <v>1.9</v>
+      </c>
+      <c r="BE170">
+        <v>6.5</v>
+      </c>
+      <c r="BF170">
+        <v>2.27</v>
+      </c>
+      <c r="BG170">
+        <v>1.22</v>
+      </c>
+      <c r="BH170">
+        <v>3.65</v>
+      </c>
+      <c r="BI170">
+        <v>1.38</v>
+      </c>
+      <c r="BJ170">
+        <v>2.75</v>
+      </c>
+      <c r="BK170">
+        <v>1.7</v>
+      </c>
+      <c r="BL170">
+        <v>2.05</v>
+      </c>
+      <c r="BM170">
+        <v>2.05</v>
+      </c>
+      <c r="BN170">
+        <v>1.67</v>
+      </c>
+      <c r="BO170">
+        <v>2.65</v>
+      </c>
+      <c r="BP170">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,12 @@
     <t>['20', '45+2', '82']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['22', '83', '88']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -944,6 +950,12 @@
   </si>
   <si>
     <t>['37', '72']</t>
+  </si>
+  <si>
+    <t>['37', '63', '81']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2054,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2182,7 +2194,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2388,7 +2400,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2594,7 +2606,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2675,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3006,7 +3018,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3418,7 +3430,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3624,7 +3636,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3705,7 +3717,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ12">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3908,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4320,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15">
         <v>0.77</v>
@@ -4526,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ16">
         <v>0.93</v>
@@ -4654,7 +4666,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4860,7 +4872,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5066,7 +5078,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5350,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR20">
         <v>1.75</v>
@@ -5684,7 +5696,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5890,7 +5902,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5968,10 +5980,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR23">
         <v>1.53</v>
@@ -6096,7 +6108,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6177,7 +6189,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6302,7 +6314,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6508,7 +6520,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6714,7 +6726,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6920,7 +6932,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6998,7 +7010,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28">
         <v>0.73</v>
@@ -7126,7 +7138,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7332,7 +7344,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7619,7 +7631,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR31">
         <v>1.74</v>
@@ -7744,7 +7756,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7825,7 +7837,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ32">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7950,7 +7962,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8028,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8156,7 +8168,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8362,7 +8374,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8443,7 +8455,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ35">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>1.81</v>
@@ -8568,7 +8580,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8646,7 +8658,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
         <v>1.21</v>
@@ -9061,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR38">
         <v>1.09</v>
@@ -9186,7 +9198,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9392,7 +9404,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9598,7 +9610,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9804,7 +9816,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9882,7 +9894,7 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ42">
         <v>1.14</v>
@@ -10216,7 +10228,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10422,7 +10434,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10500,10 +10512,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ45">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.88</v>
@@ -10628,7 +10640,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10834,7 +10846,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11118,7 +11130,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11452,7 +11464,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11739,7 +11751,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11864,7 +11876,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12151,7 +12163,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR53">
         <v>1.13</v>
@@ -12276,7 +12288,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12354,7 +12366,7 @@
         <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ54">
         <v>1.43</v>
@@ -12688,7 +12700,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12972,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ57">
         <v>0.93</v>
@@ -13306,7 +13318,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13512,7 +13524,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13593,7 +13605,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ60">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.56</v>
@@ -13718,7 +13730,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13924,7 +13936,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14130,7 +14142,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14336,7 +14348,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14542,7 +14554,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14623,7 +14635,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ65">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14826,7 +14838,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -14954,7 +14966,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15032,10 +15044,10 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ67">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -15241,7 +15253,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR68">
         <v>1.76</v>
@@ -15572,7 +15584,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15984,7 +15996,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16474,7 +16486,7 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ74">
         <v>0.77</v>
@@ -16680,10 +16692,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ75">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR75">
         <v>1.81</v>
@@ -17014,7 +17026,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17298,10 +17310,10 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ78">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR78">
         <v>1.92</v>
@@ -17632,7 +17644,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17838,7 +17850,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18044,7 +18056,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18122,7 +18134,7 @@
         <v>1.14</v>
       </c>
       <c r="AP82">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ82">
         <v>1.43</v>
@@ -18250,7 +18262,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18456,7 +18468,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18537,7 +18549,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR84">
         <v>1.31</v>
@@ -18662,7 +18674,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -19152,7 +19164,7 @@
         <v>1.86</v>
       </c>
       <c r="AP87">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ87">
         <v>1.21</v>
@@ -19280,7 +19292,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19692,7 +19704,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19773,7 +19785,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ90">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR90">
         <v>1.66</v>
@@ -19898,7 +19910,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -19976,7 +19988,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ91">
         <v>0.73</v>
@@ -20185,7 +20197,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ92">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR92">
         <v>1.68</v>
@@ -20597,7 +20609,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ94">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR94">
         <v>1.44</v>
@@ -20722,7 +20734,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20928,7 +20940,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21212,7 +21224,7 @@
         <v>1.43</v>
       </c>
       <c r="AP97">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21418,7 +21430,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ98">
         <v>0.77</v>
@@ -21546,7 +21558,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21752,7 +21764,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21958,7 +21970,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22164,7 +22176,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22242,10 +22254,10 @@
         <v>1.14</v>
       </c>
       <c r="AP102">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ102">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR102">
         <v>1.25</v>
@@ -22576,7 +22588,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22654,7 +22666,7 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104">
         <v>0.93</v>
@@ -22782,7 +22794,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22860,10 +22872,10 @@
         <v>0.13</v>
       </c>
       <c r="AP105">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ105">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -22988,7 +23000,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23069,7 +23081,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ106">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR106">
         <v>1.4</v>
@@ -23272,7 +23284,7 @@
         <v>0.38</v>
       </c>
       <c r="AP107">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ107">
         <v>0.64</v>
@@ -23400,7 +23412,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -23481,7 +23493,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ108">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR108">
         <v>1.51</v>
@@ -24018,7 +24030,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24224,7 +24236,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24636,7 +24648,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24842,7 +24854,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25048,7 +25060,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25129,7 +25141,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ116">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR116">
         <v>1.48</v>
@@ -25254,7 +25266,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25460,7 +25472,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25541,7 +25553,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ118">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR118">
         <v>1.35</v>
@@ -25666,7 +25678,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25744,7 +25756,7 @@
         <v>1.11</v>
       </c>
       <c r="AP119">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ119">
         <v>0.73</v>
@@ -25953,7 +25965,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ120">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR120">
         <v>1.35</v>
@@ -26156,7 +26168,7 @@
         <v>0.33</v>
       </c>
       <c r="AP121">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ121">
         <v>0.64</v>
@@ -26365,7 +26377,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ122">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AR122">
         <v>1.71</v>
@@ -26490,7 +26502,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26568,7 +26580,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ123">
         <v>0.64</v>
@@ -26696,7 +26708,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26902,7 +26914,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27108,7 +27120,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27314,7 +27326,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27520,7 +27532,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27598,7 +27610,7 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ128">
         <v>1.33</v>
@@ -27726,7 +27738,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -27804,7 +27816,7 @@
         <v>1.7</v>
       </c>
       <c r="AP129">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AQ129">
         <v>1.21</v>
@@ -28138,7 +28150,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28219,7 +28231,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ131">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR131">
         <v>1.4</v>
@@ -28344,7 +28356,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28425,7 +28437,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ132">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR132">
         <v>1.38</v>
@@ -28550,7 +28562,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28756,7 +28768,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28837,7 +28849,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ134">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29043,7 +29055,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29168,7 +29180,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29246,10 +29258,10 @@
         <v>0.59</v>
       </c>
       <c r="AP136">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ136">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29452,7 +29464,7 @@
         <v>1.59</v>
       </c>
       <c r="AP137">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ137">
         <v>1.45</v>
@@ -29580,7 +29592,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -29658,10 +29670,10 @@
         <v>1.5</v>
       </c>
       <c r="AP138">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AQ138">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AR138">
         <v>1.7</v>
@@ -29864,7 +29876,7 @@
         <v>1.59</v>
       </c>
       <c r="AP139">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AQ139">
         <v>1.55</v>
@@ -30073,7 +30085,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ140">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -30198,7 +30210,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30276,10 +30288,10 @@
         <v>0.78</v>
       </c>
       <c r="AP141">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ141">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30404,7 +30416,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30482,7 +30494,7 @@
         <v>0.87</v>
       </c>
       <c r="AP142">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AQ142">
         <v>1.07</v>
@@ -30610,7 +30622,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30688,7 +30700,7 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ143">
         <v>0.82</v>
@@ -30897,7 +30909,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ144">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AR144">
         <v>1.67</v>
@@ -31022,7 +31034,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31100,10 +31112,10 @@
         <v>1.7</v>
       </c>
       <c r="AP145">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AQ145">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31228,7 +31240,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31309,7 +31321,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ146">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31434,7 +31446,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31512,10 +31524,10 @@
         <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AQ147">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AR147">
         <v>1.77</v>
@@ -31718,10 +31730,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31846,7 +31858,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -31924,10 +31936,10 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AR149">
         <v>1.59</v>
@@ -32052,7 +32064,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32339,7 +32351,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ151">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR151">
         <v>1.3</v>
@@ -32542,7 +32554,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ152">
         <v>0.82</v>
@@ -32670,7 +32682,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32748,10 +32760,10 @@
         <v>1.48</v>
       </c>
       <c r="AP153">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ153">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AR153">
         <v>1.29</v>
@@ -32876,7 +32888,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -32954,7 +32966,7 @@
         <v>0.92</v>
       </c>
       <c r="AP154">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -33082,7 +33094,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33163,7 +33175,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ155">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR155">
         <v>1.35</v>
@@ -33288,7 +33300,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33366,10 +33378,10 @@
         <v>1.88</v>
       </c>
       <c r="AP156">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AQ156">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -33572,7 +33584,7 @@
         <v>1.52</v>
       </c>
       <c r="AP157">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AQ157">
         <v>1.45</v>
@@ -33700,7 +33712,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -33984,10 +33996,10 @@
         <v>0.73</v>
       </c>
       <c r="AP159">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AQ159">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR159">
         <v>1.45</v>
@@ -34112,7 +34124,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34190,10 +34202,10 @@
         <v>1.5</v>
       </c>
       <c r="AP160">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34318,7 +34330,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34396,7 +34408,7 @@
         <v>1.58</v>
       </c>
       <c r="AP161">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AQ161">
         <v>1.55</v>
@@ -34524,7 +34536,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34602,10 +34614,10 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AQ162">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR162">
         <v>1.79</v>
@@ -34730,7 +34742,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -34811,7 +34823,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ163">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AR163">
         <v>1.64</v>
@@ -35017,7 +35029,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ164">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35220,10 +35232,10 @@
         <v>1.56</v>
       </c>
       <c r="AP165">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ165">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR165">
         <v>1.21</v>
@@ -35348,7 +35360,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35429,7 +35441,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ166">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AR166">
         <v>1.33</v>
@@ -35554,7 +35566,7 @@
         <v>209</v>
       </c>
       <c r="P167" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -35632,10 +35644,10 @@
         <v>1.85</v>
       </c>
       <c r="AP167">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35838,7 +35850,7 @@
         <v>1.56</v>
       </c>
       <c r="AP168">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AQ168">
         <v>1.45</v>
@@ -36047,7 +36059,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ169">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AR169">
         <v>1.3</v>
@@ -36172,7 +36184,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q170">
         <v>2.78</v>
@@ -36329,6 +36341,830 @@
       </c>
       <c r="BP170">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7861662</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45781.375</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>75</v>
+      </c>
+      <c r="H171" t="s">
+        <v>74</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>87</v>
+      </c>
+      <c r="P171" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q171">
+        <v>3.2</v>
+      </c>
+      <c r="R171">
+        <v>2.21</v>
+      </c>
+      <c r="S171">
+        <v>2.95</v>
+      </c>
+      <c r="T171">
+        <v>1.35</v>
+      </c>
+      <c r="U171">
+        <v>3.1</v>
+      </c>
+      <c r="V171">
+        <v>2.5</v>
+      </c>
+      <c r="W171">
+        <v>1.44</v>
+      </c>
+      <c r="X171">
+        <v>5.5</v>
+      </c>
+      <c r="Y171">
+        <v>1.11</v>
+      </c>
+      <c r="Z171">
+        <v>2.76</v>
+      </c>
+      <c r="AA171">
+        <v>3.3</v>
+      </c>
+      <c r="AB171">
+        <v>2.52</v>
+      </c>
+      <c r="AC171">
+        <v>1.02</v>
+      </c>
+      <c r="AD171">
+        <v>10.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.2</v>
+      </c>
+      <c r="AF171">
+        <v>3.84</v>
+      </c>
+      <c r="AG171">
+        <v>1.84</v>
+      </c>
+      <c r="AH171">
+        <v>2.03</v>
+      </c>
+      <c r="AI171">
+        <v>1.66</v>
+      </c>
+      <c r="AJ171">
+        <v>2.32</v>
+      </c>
+      <c r="AK171">
+        <v>1.27</v>
+      </c>
+      <c r="AL171">
+        <v>1.29</v>
+      </c>
+      <c r="AM171">
+        <v>1.48</v>
+      </c>
+      <c r="AN171">
+        <v>0.82</v>
+      </c>
+      <c r="AO171">
+        <v>1.43</v>
+      </c>
+      <c r="AP171">
+        <v>0.83</v>
+      </c>
+      <c r="AQ171">
+        <v>1.41</v>
+      </c>
+      <c r="AR171">
+        <v>1.22</v>
+      </c>
+      <c r="AS171">
+        <v>1.47</v>
+      </c>
+      <c r="AT171">
+        <v>2.69</v>
+      </c>
+      <c r="AU171">
+        <v>5</v>
+      </c>
+      <c r="AV171">
+        <v>0</v>
+      </c>
+      <c r="AW171">
+        <v>17</v>
+      </c>
+      <c r="AX171">
+        <v>8</v>
+      </c>
+      <c r="AY171">
+        <v>27</v>
+      </c>
+      <c r="AZ171">
+        <v>9</v>
+      </c>
+      <c r="BA171">
+        <v>8</v>
+      </c>
+      <c r="BB171">
+        <v>9</v>
+      </c>
+      <c r="BC171">
+        <v>17</v>
+      </c>
+      <c r="BD171">
+        <v>1.87</v>
+      </c>
+      <c r="BE171">
+        <v>7.8</v>
+      </c>
+      <c r="BF171">
+        <v>2.3</v>
+      </c>
+      <c r="BG171">
+        <v>1.19</v>
+      </c>
+      <c r="BH171">
+        <v>3.65</v>
+      </c>
+      <c r="BI171">
+        <v>1.37</v>
+      </c>
+      <c r="BJ171">
+        <v>2.75</v>
+      </c>
+      <c r="BK171">
+        <v>1.66</v>
+      </c>
+      <c r="BL171">
+        <v>2</v>
+      </c>
+      <c r="BM171">
+        <v>2.15</v>
+      </c>
+      <c r="BN171">
+        <v>1.58</v>
+      </c>
+      <c r="BO171">
+        <v>2.7</v>
+      </c>
+      <c r="BP171">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7861661</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45781.375</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>72</v>
+      </c>
+      <c r="H172" t="s">
+        <v>73</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>212</v>
+      </c>
+      <c r="P172" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q172">
+        <v>2.13</v>
+      </c>
+      <c r="R172">
+        <v>2.41</v>
+      </c>
+      <c r="S172">
+        <v>4</v>
+      </c>
+      <c r="T172">
+        <v>1.28</v>
+      </c>
+      <c r="U172">
+        <v>3.63</v>
+      </c>
+      <c r="V172">
+        <v>2.38</v>
+      </c>
+      <c r="W172">
+        <v>1.62</v>
+      </c>
+      <c r="X172">
+        <v>4.75</v>
+      </c>
+      <c r="Y172">
+        <v>1.14</v>
+      </c>
+      <c r="Z172">
+        <v>1.8</v>
+      </c>
+      <c r="AA172">
+        <v>4.04</v>
+      </c>
+      <c r="AB172">
+        <v>4.06</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>12</v>
+      </c>
+      <c r="AE172">
+        <v>1.15</v>
+      </c>
+      <c r="AF172">
+        <v>4.6</v>
+      </c>
+      <c r="AG172">
+        <v>1.5</v>
+      </c>
+      <c r="AH172">
+        <v>2.31</v>
+      </c>
+      <c r="AI172">
+        <v>1.52</v>
+      </c>
+      <c r="AJ172">
+        <v>2.4</v>
+      </c>
+      <c r="AK172">
+        <v>1.18</v>
+      </c>
+      <c r="AL172">
+        <v>1.25</v>
+      </c>
+      <c r="AM172">
+        <v>2.02</v>
+      </c>
+      <c r="AN172">
+        <v>1.5</v>
+      </c>
+      <c r="AO172">
+        <v>0.75</v>
+      </c>
+      <c r="AP172">
+        <v>1.48</v>
+      </c>
+      <c r="AQ172">
+        <v>0.76</v>
+      </c>
+      <c r="AR172">
+        <v>1.47</v>
+      </c>
+      <c r="AS172">
+        <v>1.33</v>
+      </c>
+      <c r="AT172">
+        <v>2.8</v>
+      </c>
+      <c r="AU172">
+        <v>8</v>
+      </c>
+      <c r="AV172">
+        <v>4</v>
+      </c>
+      <c r="AW172">
+        <v>9</v>
+      </c>
+      <c r="AX172">
+        <v>4</v>
+      </c>
+      <c r="AY172">
+        <v>17</v>
+      </c>
+      <c r="AZ172">
+        <v>9</v>
+      </c>
+      <c r="BA172">
+        <v>6</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>10</v>
+      </c>
+      <c r="BD172">
+        <v>1.44</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>2.8</v>
+      </c>
+      <c r="BG172">
+        <v>1.27</v>
+      </c>
+      <c r="BH172">
+        <v>4.2</v>
+      </c>
+      <c r="BI172">
+        <v>1.35</v>
+      </c>
+      <c r="BJ172">
+        <v>2.56</v>
+      </c>
+      <c r="BK172">
+        <v>1.72</v>
+      </c>
+      <c r="BL172">
+        <v>1.95</v>
+      </c>
+      <c r="BM172">
+        <v>2.21</v>
+      </c>
+      <c r="BN172">
+        <v>1.59</v>
+      </c>
+      <c r="BO172">
+        <v>2.93</v>
+      </c>
+      <c r="BP172">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7861635</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45781.45833333334</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>80</v>
+      </c>
+      <c r="H173" t="s">
+        <v>79</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>87</v>
+      </c>
+      <c r="P173" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q173">
+        <v>3.2</v>
+      </c>
+      <c r="R173">
+        <v>2.05</v>
+      </c>
+      <c r="S173">
+        <v>3.1</v>
+      </c>
+      <c r="T173">
+        <v>1.4</v>
+      </c>
+      <c r="U173">
+        <v>2.67</v>
+      </c>
+      <c r="V173">
+        <v>2.84</v>
+      </c>
+      <c r="W173">
+        <v>1.38</v>
+      </c>
+      <c r="X173">
+        <v>6.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.08</v>
+      </c>
+      <c r="Z173">
+        <v>2.45</v>
+      </c>
+      <c r="AA173">
+        <v>3.1</v>
+      </c>
+      <c r="AB173">
+        <v>2.79</v>
+      </c>
+      <c r="AC173">
+        <v>1.06</v>
+      </c>
+      <c r="AD173">
+        <v>8.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.27</v>
+      </c>
+      <c r="AF173">
+        <v>3.3</v>
+      </c>
+      <c r="AG173">
+        <v>2.02</v>
+      </c>
+      <c r="AH173">
+        <v>1.79</v>
+      </c>
+      <c r="AI173">
+        <v>1.73</v>
+      </c>
+      <c r="AJ173">
+        <v>2.12</v>
+      </c>
+      <c r="AK173">
+        <v>1.32</v>
+      </c>
+      <c r="AL173">
+        <v>1.3</v>
+      </c>
+      <c r="AM173">
+        <v>1.5</v>
+      </c>
+      <c r="AN173">
+        <v>1.68</v>
+      </c>
+      <c r="AO173">
+        <v>1.89</v>
+      </c>
+      <c r="AP173">
+        <v>1.62</v>
+      </c>
+      <c r="AQ173">
+        <v>1.93</v>
+      </c>
+      <c r="AR173">
+        <v>1.75</v>
+      </c>
+      <c r="AS173">
+        <v>1.75</v>
+      </c>
+      <c r="AT173">
+        <v>3.5</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>6</v>
+      </c>
+      <c r="AW173">
+        <v>7</v>
+      </c>
+      <c r="AX173">
+        <v>4</v>
+      </c>
+      <c r="AY173">
+        <v>15</v>
+      </c>
+      <c r="AZ173">
+        <v>11</v>
+      </c>
+      <c r="BA173">
+        <v>5</v>
+      </c>
+      <c r="BB173">
+        <v>3</v>
+      </c>
+      <c r="BC173">
+        <v>8</v>
+      </c>
+      <c r="BD173">
+        <v>2.02</v>
+      </c>
+      <c r="BE173">
+        <v>6.5</v>
+      </c>
+      <c r="BF173">
+        <v>2.15</v>
+      </c>
+      <c r="BG173">
+        <v>1.19</v>
+      </c>
+      <c r="BH173">
+        <v>4</v>
+      </c>
+      <c r="BI173">
+        <v>1.37</v>
+      </c>
+      <c r="BJ173">
+        <v>2.75</v>
+      </c>
+      <c r="BK173">
+        <v>1.66</v>
+      </c>
+      <c r="BL173">
+        <v>2</v>
+      </c>
+      <c r="BM173">
+        <v>2.15</v>
+      </c>
+      <c r="BN173">
+        <v>1.58</v>
+      </c>
+      <c r="BO173">
+        <v>2.87</v>
+      </c>
+      <c r="BP173">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7861636</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45781.54166666666</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174" t="s">
+        <v>70</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>213</v>
+      </c>
+      <c r="P174" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q174">
+        <v>2.1</v>
+      </c>
+      <c r="R174">
+        <v>2.3</v>
+      </c>
+      <c r="S174">
+        <v>3.6</v>
+      </c>
+      <c r="T174">
+        <v>1.28</v>
+      </c>
+      <c r="U174">
+        <v>3.32</v>
+      </c>
+      <c r="V174">
+        <v>2.45</v>
+      </c>
+      <c r="W174">
+        <v>1.6</v>
+      </c>
+      <c r="X174">
+        <v>5.1</v>
+      </c>
+      <c r="Y174">
+        <v>1.13</v>
+      </c>
+      <c r="Z174">
+        <v>1.95</v>
+      </c>
+      <c r="AA174">
+        <v>3.62</v>
+      </c>
+      <c r="AB174">
+        <v>3.57</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE174">
+        <v>1.2</v>
+      </c>
+      <c r="AF174">
+        <v>4.5</v>
+      </c>
+      <c r="AG174">
+        <v>1.77</v>
+      </c>
+      <c r="AH174">
+        <v>1.98</v>
+      </c>
+      <c r="AI174">
+        <v>1.56</v>
+      </c>
+      <c r="AJ174">
+        <v>2.5</v>
+      </c>
+      <c r="AK174">
+        <v>1.25</v>
+      </c>
+      <c r="AL174">
+        <v>1.27</v>
+      </c>
+      <c r="AM174">
+        <v>1.91</v>
+      </c>
+      <c r="AN174">
+        <v>1.86</v>
+      </c>
+      <c r="AO174">
+        <v>1.43</v>
+      </c>
+      <c r="AP174">
+        <v>1.9</v>
+      </c>
+      <c r="AQ174">
+        <v>1.38</v>
+      </c>
+      <c r="AR174">
+        <v>1.78</v>
+      </c>
+      <c r="AS174">
+        <v>1.57</v>
+      </c>
+      <c r="AT174">
+        <v>3.35</v>
+      </c>
+      <c r="AU174">
+        <v>5</v>
+      </c>
+      <c r="AV174">
+        <v>4</v>
+      </c>
+      <c r="AW174">
+        <v>6</v>
+      </c>
+      <c r="AX174">
+        <v>9</v>
+      </c>
+      <c r="AY174">
+        <v>13</v>
+      </c>
+      <c r="AZ174">
+        <v>15</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>6</v>
+      </c>
+      <c r="BD174">
+        <v>1.62</v>
+      </c>
+      <c r="BE174">
+        <v>6.75</v>
+      </c>
+      <c r="BF174">
+        <v>2.75</v>
+      </c>
+      <c r="BG174">
+        <v>1.19</v>
+      </c>
+      <c r="BH174">
+        <v>3.95</v>
+      </c>
+      <c r="BI174">
+        <v>1.38</v>
+      </c>
+      <c r="BJ174">
+        <v>2.7</v>
+      </c>
+      <c r="BK174">
+        <v>1.64</v>
+      </c>
+      <c r="BL174">
+        <v>2.1</v>
+      </c>
+      <c r="BM174">
+        <v>2.01</v>
+      </c>
+      <c r="BN174">
+        <v>1.74</v>
+      </c>
+      <c r="BO174">
+        <v>2.54</v>
+      </c>
+      <c r="BP174">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,9 @@
     <t>['22', '83', '88']</t>
   </si>
   <si>
+    <t>['9', '81']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -956,6 +959,9 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['49', '87']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1863,7 +1869,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ3">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2194,7 +2200,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2400,7 +2406,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2606,7 +2612,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2890,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ8">
         <v>0.64</v>
@@ -3018,7 +3024,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3430,7 +3436,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3636,7 +3642,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4335,7 +4341,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ15">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4666,7 +4672,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4872,7 +4878,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5078,7 +5084,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5696,7 +5702,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5902,7 +5908,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6108,7 +6114,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6186,7 +6192,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6314,7 +6320,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6395,7 +6401,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ25">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR25">
         <v>0.91</v>
@@ -6520,7 +6526,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6726,7 +6732,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6932,7 +6938,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7138,7 +7144,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7344,7 +7350,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7756,7 +7762,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7962,7 +7968,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8168,7 +8174,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8374,7 +8380,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8580,7 +8586,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -9198,7 +9204,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9404,7 +9410,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9482,7 +9488,7 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40">
         <v>0.93</v>
@@ -9610,7 +9616,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9816,7 +9822,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10103,7 +10109,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ43">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10228,7 +10234,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10434,7 +10440,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10640,7 +10646,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10846,7 +10852,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11464,7 +11470,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11748,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
         <v>0.73</v>
@@ -11876,7 +11882,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12288,7 +12294,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12575,7 +12581,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ55">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12700,7 +12706,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13318,7 +13324,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13524,7 +13530,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13730,7 +13736,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13936,7 +13942,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14017,7 +14023,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ62">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -14142,7 +14148,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14220,7 +14226,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63">
         <v>0.73</v>
@@ -14348,7 +14354,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14554,7 +14560,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14966,7 +14972,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15584,7 +15590,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15996,7 +16002,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16074,7 +16080,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16489,7 +16495,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ74">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -17026,7 +17032,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17644,7 +17650,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17722,7 +17728,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80">
         <v>1.21</v>
@@ -17850,7 +17856,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18056,7 +18062,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18262,7 +18268,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18468,7 +18474,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18674,7 +18680,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -19292,7 +19298,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19373,7 +19379,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR88">
         <v>1.19</v>
@@ -19704,7 +19710,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19910,7 +19916,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -20734,7 +20740,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20812,7 +20818,7 @@
         <v>1.38</v>
       </c>
       <c r="AP95">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ95">
         <v>1.43</v>
@@ -20940,7 +20946,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21433,7 +21439,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ98">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
         <v>1.56</v>
@@ -21558,7 +21564,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21764,7 +21770,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21970,7 +21976,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22176,7 +22182,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22588,7 +22594,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22794,7 +22800,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -23000,7 +23006,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23078,7 +23084,7 @@
         <v>1.13</v>
       </c>
       <c r="AP106">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ106">
         <v>0.87</v>
@@ -23412,7 +23418,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -23905,7 +23911,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ110">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR110">
         <v>1.71</v>
@@ -24030,7 +24036,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24236,7 +24242,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24648,7 +24654,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24854,7 +24860,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25060,7 +25066,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25266,7 +25272,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25344,7 +25350,7 @@
         <v>1.44</v>
       </c>
       <c r="AP117">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117">
         <v>1.33</v>
@@ -25472,7 +25478,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25678,7 +25684,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26502,7 +26508,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26708,7 +26714,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26914,7 +26920,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27120,7 +27126,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27326,7 +27332,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27532,7 +27538,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27738,7 +27744,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -28150,7 +28156,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28356,7 +28362,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28562,7 +28568,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28640,10 +28646,10 @@
         <v>0.6</v>
       </c>
       <c r="AP133">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ133">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AR133">
         <v>1.44</v>
@@ -28768,7 +28774,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28846,7 +28852,7 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ134">
         <v>1.41</v>
@@ -29180,7 +29186,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29592,7 +29598,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -30210,7 +30216,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30416,7 +30422,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30622,7 +30628,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30703,7 +30709,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ143">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR143">
         <v>1.28</v>
@@ -31034,7 +31040,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31240,7 +31246,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31318,7 +31324,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ146">
         <v>0.83</v>
@@ -31446,7 +31452,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31858,7 +31864,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -32064,7 +32070,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32557,7 +32563,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ152">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32682,7 +32688,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32888,7 +32894,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -33094,7 +33100,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33300,7 +33306,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33712,7 +33718,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -33790,7 +33796,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ158">
         <v>1.07</v>
@@ -34124,7 +34130,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34330,7 +34336,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34536,7 +34542,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34742,7 +34748,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -35360,7 +35366,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35566,7 +35572,7 @@
         <v>209</v>
       </c>
       <c r="P167" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -36056,7 +36062,7 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ169">
         <v>0.76</v>
@@ -36184,7 +36190,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q170">
         <v>2.78</v>
@@ -36802,7 +36808,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -37008,7 +37014,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q174">
         <v>2.1</v>
@@ -37165,6 +37171,212 @@
       </c>
       <c r="BP174">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7861663</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45782.58333333334</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>76</v>
+      </c>
+      <c r="H175" t="s">
+        <v>78</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>214</v>
+      </c>
+      <c r="P175" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q175">
+        <v>3.08</v>
+      </c>
+      <c r="R175">
+        <v>1.97</v>
+      </c>
+      <c r="S175">
+        <v>3.5</v>
+      </c>
+      <c r="T175">
+        <v>1.33</v>
+      </c>
+      <c r="U175">
+        <v>3</v>
+      </c>
+      <c r="V175">
+        <v>2.62</v>
+      </c>
+      <c r="W175">
+        <v>1.42</v>
+      </c>
+      <c r="X175">
+        <v>6</v>
+      </c>
+      <c r="Y175">
+        <v>1.09</v>
+      </c>
+      <c r="Z175">
+        <v>2.4</v>
+      </c>
+      <c r="AA175">
+        <v>3.25</v>
+      </c>
+      <c r="AB175">
+        <v>2.85</v>
+      </c>
+      <c r="AC175">
+        <v>1</v>
+      </c>
+      <c r="AD175">
+        <v>9.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.2</v>
+      </c>
+      <c r="AF175">
+        <v>3.6</v>
+      </c>
+      <c r="AG175">
+        <v>1.83</v>
+      </c>
+      <c r="AH175">
+        <v>2.02</v>
+      </c>
+      <c r="AI175">
+        <v>1.65</v>
+      </c>
+      <c r="AJ175">
+        <v>2.2</v>
+      </c>
+      <c r="AK175">
+        <v>1.42</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.62</v>
+      </c>
+      <c r="AN175">
+        <v>1.07</v>
+      </c>
+      <c r="AO175">
+        <v>0.82</v>
+      </c>
+      <c r="AP175">
+        <v>1.07</v>
+      </c>
+      <c r="AQ175">
+        <v>0.83</v>
+      </c>
+      <c r="AR175">
+        <v>1.33</v>
+      </c>
+      <c r="AS175">
+        <v>1.31</v>
+      </c>
+      <c r="AT175">
+        <v>2.64</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>9</v>
+      </c>
+      <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>15</v>
+      </c>
+      <c r="AY175">
+        <v>12</v>
+      </c>
+      <c r="AZ175">
+        <v>26</v>
+      </c>
+      <c r="BA175">
+        <v>1</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>1.85</v>
+      </c>
+      <c r="BE175">
+        <v>6.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.33</v>
+      </c>
+      <c r="BG175">
+        <v>1.16</v>
+      </c>
+      <c r="BH175">
+        <v>3.7</v>
+      </c>
+      <c r="BI175">
+        <v>1.46</v>
+      </c>
+      <c r="BJ175">
+        <v>2.67</v>
+      </c>
+      <c r="BK175">
+        <v>1.7</v>
+      </c>
+      <c r="BL175">
+        <v>2.05</v>
+      </c>
+      <c r="BM175">
+        <v>2.1</v>
+      </c>
+      <c r="BN175">
+        <v>1.72</v>
+      </c>
+      <c r="BO175">
+        <v>2.63</v>
+      </c>
+      <c r="BP175">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="322">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,18 @@
     <t>['9', '81']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['31', '88']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['53', '75', '82']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -962,6 +974,12 @@
   </si>
   <si>
     <t>['49', '87']</t>
+  </si>
+  <si>
+    <t>['42', '69']</t>
+  </si>
+  <si>
+    <t>['24', '47', '64']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ2">
         <v>1.14</v>
@@ -1866,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ3">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2072,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2200,7 +2218,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2281,7 +2299,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ5">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2406,7 +2424,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2484,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2612,7 +2630,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3024,7 +3042,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3102,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
         <v>1.14</v>
@@ -3436,7 +3454,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3642,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4132,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -4341,7 +4359,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ15">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4544,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ16">
         <v>0.93</v>
@@ -4672,7 +4690,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4753,7 +4771,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ17">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4878,7 +4896,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4959,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -5084,7 +5102,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5574,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ21">
         <v>0.64</v>
@@ -5702,7 +5720,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5908,7 +5926,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6114,7 +6132,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6320,7 +6338,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6398,10 +6416,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR25">
         <v>0.91</v>
@@ -6526,7 +6544,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6732,7 +6750,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6813,7 +6831,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6938,7 +6956,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7016,7 +7034,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ28">
         <v>0.73</v>
@@ -7144,7 +7162,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7350,7 +7368,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7431,7 +7449,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ30">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.16</v>
@@ -7634,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
         <v>0.73</v>
@@ -7762,7 +7780,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7968,7 +7986,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8049,7 +8067,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -8174,7 +8192,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8380,7 +8398,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8458,7 +8476,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
         <v>1.67</v>
@@ -8586,7 +8604,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8667,7 +8685,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.69</v>
@@ -8870,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.64</v>
@@ -9204,7 +9222,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9282,7 +9300,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>0.73</v>
@@ -9410,7 +9428,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9616,7 +9634,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9697,7 +9715,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ41">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR41">
         <v>1.87</v>
@@ -9822,7 +9840,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9900,7 +9918,7 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ42">
         <v>1.14</v>
@@ -10109,7 +10127,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ43">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10234,7 +10252,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10440,7 +10458,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10646,7 +10664,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10724,7 +10742,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10852,7 +10870,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11139,7 +11157,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR48">
         <v>1.96</v>
@@ -11342,10 +11360,10 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11470,7 +11488,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11548,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0.73</v>
@@ -11882,7 +11900,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12294,7 +12312,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12372,10 +12390,10 @@
         <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12581,7 +12599,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ55">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12706,7 +12724,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12784,10 +12802,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -13199,7 +13217,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR58">
         <v>1.05</v>
@@ -13324,7 +13342,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13530,7 +13548,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13736,7 +13754,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13814,10 +13832,10 @@
         <v>1.6</v>
       </c>
       <c r="AP61">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
         <v>1.74</v>
@@ -13942,7 +13960,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14023,7 +14041,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ62">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -14148,7 +14166,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14354,7 +14372,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14560,7 +14578,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14638,7 +14656,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>0.87</v>
@@ -14972,7 +14990,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15050,7 +15068,7 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ67">
         <v>1.67</v>
@@ -15590,7 +15608,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15671,7 +15689,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ70">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.17</v>
@@ -15874,7 +15892,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -16002,7 +16020,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16286,10 +16304,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16492,10 +16510,10 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ74">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -17032,7 +17050,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17110,10 +17128,10 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17650,7 +17668,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17731,7 +17749,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ80">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.37</v>
@@ -17856,7 +17874,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17934,7 +17952,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ81">
         <v>0.93</v>
@@ -18062,7 +18080,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18143,7 +18161,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ82">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>1.78</v>
@@ -18268,7 +18286,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18346,7 +18364,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ83">
         <v>0.64</v>
@@ -18474,7 +18492,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18680,7 +18698,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18967,7 +18985,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19170,10 +19188,10 @@
         <v>1.86</v>
       </c>
       <c r="AP87">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ87">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19298,7 +19316,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19379,7 +19397,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR88">
         <v>1.19</v>
@@ -19582,7 +19600,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>1.14</v>
@@ -19710,7 +19728,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19788,7 +19806,7 @@
         <v>1.57</v>
       </c>
       <c r="AP90">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ90">
         <v>1.67</v>
@@ -19916,7 +19934,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -20200,7 +20218,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ92">
         <v>0.87</v>
@@ -20740,7 +20758,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20821,7 +20839,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
         <v>1.38</v>
@@ -20946,7 +20964,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21439,7 +21457,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ98">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR98">
         <v>1.56</v>
@@ -21564,7 +21582,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21645,7 +21663,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -21770,7 +21788,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21848,10 +21866,10 @@
         <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.46</v>
@@ -21976,7 +21994,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22182,7 +22200,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22260,7 +22278,7 @@
         <v>1.14</v>
       </c>
       <c r="AP102">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ102">
         <v>0.87</v>
@@ -22594,7 +22612,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22800,7 +22818,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22878,7 +22896,7 @@
         <v>0.13</v>
       </c>
       <c r="AP105">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ105">
         <v>0.73</v>
@@ -23006,7 +23024,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23418,7 +23436,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -23705,7 +23723,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.19</v>
@@ -23908,10 +23926,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ110">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR110">
         <v>1.71</v>
@@ -24036,7 +24054,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24114,10 +24132,10 @@
         <v>0.78</v>
       </c>
       <c r="AP111">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR111">
         <v>1.63</v>
@@ -24242,7 +24260,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24323,7 +24341,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ112">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR112">
         <v>1.42</v>
@@ -24654,7 +24672,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24732,7 +24750,7 @@
         <v>1.25</v>
       </c>
       <c r="AP114">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
         <v>1.33</v>
@@ -24860,7 +24878,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25066,7 +25084,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25272,7 +25290,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25478,7 +25496,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25556,7 +25574,7 @@
         <v>0.44</v>
       </c>
       <c r="AP118">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>0.73</v>
@@ -25684,7 +25702,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26380,7 +26398,7 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ122">
         <v>0.73</v>
@@ -26508,7 +26526,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26586,7 +26604,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ123">
         <v>0.64</v>
@@ -26714,7 +26732,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26920,7 +26938,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -26998,7 +27016,7 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ125">
         <v>0.93</v>
@@ -27126,7 +27144,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27207,7 +27225,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR126">
         <v>1.92</v>
@@ -27332,7 +27350,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27413,7 +27431,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ127">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR127">
         <v>1.45</v>
@@ -27538,7 +27556,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27744,7 +27762,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -27825,7 +27843,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ129">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.73</v>
@@ -28156,7 +28174,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28362,7 +28380,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28440,7 +28458,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
         <v>1.67</v>
@@ -28568,7 +28586,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28649,7 +28667,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ133">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR133">
         <v>1.44</v>
@@ -28774,7 +28792,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28852,10 +28870,10 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AQ134">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29058,10 +29076,10 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ135">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29186,7 +29204,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29470,10 +29488,10 @@
         <v>1.59</v>
       </c>
       <c r="AP137">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR137">
         <v>1.6</v>
@@ -29598,7 +29616,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -29679,7 +29697,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ138">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AR138">
         <v>1.7</v>
@@ -29885,7 +29903,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ139">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR139">
         <v>1.77</v>
@@ -30088,7 +30106,7 @@
         <v>1.96</v>
       </c>
       <c r="AP140">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ140">
         <v>1.9</v>
@@ -30216,7 +30234,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30294,7 +30312,7 @@
         <v>0.78</v>
       </c>
       <c r="AP141">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ141">
         <v>0.83</v>
@@ -30422,7 +30440,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30500,10 +30518,10 @@
         <v>0.87</v>
       </c>
       <c r="AP142">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AQ142">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR142">
         <v>1.42</v>
@@ -30628,7 +30646,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30709,7 +30727,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ143">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AR143">
         <v>1.28</v>
@@ -30912,7 +30930,7 @@
         <v>1.91</v>
       </c>
       <c r="AP144">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AQ144">
         <v>1.93</v>
@@ -31040,7 +31058,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31118,10 +31136,10 @@
         <v>1.7</v>
       </c>
       <c r="AP145">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AQ145">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31246,7 +31264,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31324,7 +31342,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AQ146">
         <v>0.83</v>
@@ -31452,7 +31470,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31533,7 +31551,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ147">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AR147">
         <v>1.77</v>
@@ -31736,10 +31754,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AQ148">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31864,7 +31882,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -31942,7 +31960,7 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ149">
         <v>1.9</v>
@@ -32070,7 +32088,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32148,10 +32166,10 @@
         <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AQ150">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -32354,7 +32372,7 @@
         <v>0.71</v>
       </c>
       <c r="AP151">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ151">
         <v>0.76</v>
@@ -32560,10 +32578,10 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ152">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32688,7 +32706,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32769,7 +32787,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ153">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AR153">
         <v>1.29</v>
@@ -32894,7 +32912,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -32975,7 +32993,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ154">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR154">
         <v>1.22</v>
@@ -33100,7 +33118,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33178,10 +33196,10 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ155">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR155">
         <v>1.35</v>
@@ -33306,7 +33324,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33590,10 +33608,10 @@
         <v>1.52</v>
       </c>
       <c r="AP157">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AQ157">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33718,7 +33736,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -33796,10 +33814,10 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AQ158">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AR158">
         <v>1.28</v>
@@ -34002,7 +34020,7 @@
         <v>0.73</v>
       </c>
       <c r="AP159">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AQ159">
         <v>0.83</v>
@@ -34130,7 +34148,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34211,7 +34229,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ160">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34336,7 +34354,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34414,10 +34432,10 @@
         <v>1.58</v>
       </c>
       <c r="AP161">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AQ161">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -34542,7 +34560,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34623,7 +34641,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ162">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR162">
         <v>1.79</v>
@@ -34748,7 +34766,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -34826,7 +34844,7 @@
         <v>1.88</v>
       </c>
       <c r="AP163">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AQ163">
         <v>1.9</v>
@@ -35032,10 +35050,10 @@
         <v>1.7</v>
       </c>
       <c r="AP164">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ164">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35241,7 +35259,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ165">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AR165">
         <v>1.21</v>
@@ -35366,7 +35384,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35444,10 +35462,10 @@
         <v>1.44</v>
       </c>
       <c r="AP166">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ166">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AR166">
         <v>1.33</v>
@@ -35572,7 +35590,7 @@
         <v>209</v>
       </c>
       <c r="P167" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -35650,7 +35668,7 @@
         <v>1.85</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ167">
         <v>1.93</v>
@@ -35859,7 +35877,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ168">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR168">
         <v>1.74</v>
@@ -36062,7 +36080,7 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AQ169">
         <v>0.76</v>
@@ -36190,7 +36208,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q170">
         <v>2.78</v>
@@ -36268,10 +36286,10 @@
         <v>1.5</v>
       </c>
       <c r="AP170">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AQ170">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR170">
         <v>1.34</v>
@@ -36477,7 +36495,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ171">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AR171">
         <v>1.22</v>
@@ -36680,7 +36698,7 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AQ172">
         <v>0.76</v>
@@ -36808,7 +36826,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36886,7 +36904,7 @@
         <v>1.89</v>
       </c>
       <c r="AP173">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AQ173">
         <v>1.93</v>
@@ -37014,7 +37032,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>2.1</v>
@@ -37095,7 +37113,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ174">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR174">
         <v>1.78</v>
@@ -37220,7 +37238,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q175">
         <v>3.08</v>
@@ -37298,10 +37316,10 @@
         <v>0.82</v>
       </c>
       <c r="AP175">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AQ175">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AR175">
         <v>1.33</v>
@@ -37377,6 +37395,830 @@
       </c>
       <c r="BP175">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7861664</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45788.375</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>72</v>
+      </c>
+      <c r="H176" t="s">
+        <v>76</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>215</v>
+      </c>
+      <c r="P176" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q176">
+        <v>2.11</v>
+      </c>
+      <c r="R176">
+        <v>2.43</v>
+      </c>
+      <c r="S176">
+        <v>4.65</v>
+      </c>
+      <c r="T176">
+        <v>1.22</v>
+      </c>
+      <c r="U176">
+        <v>3.2</v>
+      </c>
+      <c r="V176">
+        <v>2.33</v>
+      </c>
+      <c r="W176">
+        <v>1.55</v>
+      </c>
+      <c r="X176">
+        <v>5.35</v>
+      </c>
+      <c r="Y176">
+        <v>1.15</v>
+      </c>
+      <c r="Z176">
+        <v>1.6</v>
+      </c>
+      <c r="AA176">
+        <v>4.38</v>
+      </c>
+      <c r="AB176">
+        <v>5.35</v>
+      </c>
+      <c r="AC176">
+        <v>1.02</v>
+      </c>
+      <c r="AD176">
+        <v>12</v>
+      </c>
+      <c r="AE176">
+        <v>1.18</v>
+      </c>
+      <c r="AF176">
+        <v>4.9</v>
+      </c>
+      <c r="AG176">
+        <v>1.61</v>
+      </c>
+      <c r="AH176">
+        <v>2.47</v>
+      </c>
+      <c r="AI176">
+        <v>1.62</v>
+      </c>
+      <c r="AJ176">
+        <v>2</v>
+      </c>
+      <c r="AK176">
+        <v>1.17</v>
+      </c>
+      <c r="AL176">
+        <v>1.22</v>
+      </c>
+      <c r="AM176">
+        <v>2.29</v>
+      </c>
+      <c r="AN176">
+        <v>1.48</v>
+      </c>
+      <c r="AO176">
+        <v>1.07</v>
+      </c>
+      <c r="AP176">
+        <v>1.53</v>
+      </c>
+      <c r="AQ176">
+        <v>1.03</v>
+      </c>
+      <c r="AR176">
+        <v>1.5</v>
+      </c>
+      <c r="AS176">
+        <v>1.33</v>
+      </c>
+      <c r="AT176">
+        <v>2.83</v>
+      </c>
+      <c r="AU176">
+        <v>3</v>
+      </c>
+      <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>8</v>
+      </c>
+      <c r="AX176">
+        <v>3</v>
+      </c>
+      <c r="AY176">
+        <v>12</v>
+      </c>
+      <c r="AZ176">
+        <v>11</v>
+      </c>
+      <c r="BA176">
+        <v>6</v>
+      </c>
+      <c r="BB176">
+        <v>1</v>
+      </c>
+      <c r="BC176">
+        <v>7</v>
+      </c>
+      <c r="BD176">
+        <v>1.48</v>
+      </c>
+      <c r="BE176">
+        <v>9.5</v>
+      </c>
+      <c r="BF176">
+        <v>3.38</v>
+      </c>
+      <c r="BG176">
+        <v>1.24</v>
+      </c>
+      <c r="BH176">
+        <v>3.34</v>
+      </c>
+      <c r="BI176">
+        <v>1.52</v>
+      </c>
+      <c r="BJ176">
+        <v>2.32</v>
+      </c>
+      <c r="BK176">
+        <v>2.11</v>
+      </c>
+      <c r="BL176">
+        <v>1.86</v>
+      </c>
+      <c r="BM176">
+        <v>2.35</v>
+      </c>
+      <c r="BN176">
+        <v>1.55</v>
+      </c>
+      <c r="BO176">
+        <v>3.05</v>
+      </c>
+      <c r="BP176">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7861637</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45788.375</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>71</v>
+      </c>
+      <c r="H177" t="s">
+        <v>80</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>216</v>
+      </c>
+      <c r="P177" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q177">
+        <v>3.3</v>
+      </c>
+      <c r="R177">
+        <v>2.27</v>
+      </c>
+      <c r="S177">
+        <v>2.8</v>
+      </c>
+      <c r="T177">
+        <v>1.25</v>
+      </c>
+      <c r="U177">
+        <v>3.6</v>
+      </c>
+      <c r="V177">
+        <v>2.35</v>
+      </c>
+      <c r="W177">
+        <v>1.52</v>
+      </c>
+      <c r="X177">
+        <v>4.9</v>
+      </c>
+      <c r="Y177">
+        <v>1.15</v>
+      </c>
+      <c r="Z177">
+        <v>2.8</v>
+      </c>
+      <c r="AA177">
+        <v>3.95</v>
+      </c>
+      <c r="AB177">
+        <v>2.25</v>
+      </c>
+      <c r="AC177">
+        <v>1</v>
+      </c>
+      <c r="AD177">
+        <v>15</v>
+      </c>
+      <c r="AE177">
+        <v>1.17</v>
+      </c>
+      <c r="AF177">
+        <v>5</v>
+      </c>
+      <c r="AG177">
+        <v>1.58</v>
+      </c>
+      <c r="AH177">
+        <v>2.38</v>
+      </c>
+      <c r="AI177">
+        <v>1.42</v>
+      </c>
+      <c r="AJ177">
+        <v>2.5</v>
+      </c>
+      <c r="AK177">
+        <v>1.25</v>
+      </c>
+      <c r="AL177">
+        <v>1.27</v>
+      </c>
+      <c r="AM177">
+        <v>1.6</v>
+      </c>
+      <c r="AN177">
+        <v>1.45</v>
+      </c>
+      <c r="AO177">
+        <v>1.62</v>
+      </c>
+      <c r="AP177">
+        <v>1.43</v>
+      </c>
+      <c r="AQ177">
+        <v>1.6</v>
+      </c>
+      <c r="AR177">
+        <v>1.68</v>
+      </c>
+      <c r="AS177">
+        <v>1.74</v>
+      </c>
+      <c r="AT177">
+        <v>3.42</v>
+      </c>
+      <c r="AU177">
+        <v>4</v>
+      </c>
+      <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>10</v>
+      </c>
+      <c r="AX177">
+        <v>11</v>
+      </c>
+      <c r="AY177">
+        <v>17</v>
+      </c>
+      <c r="AZ177">
+        <v>21</v>
+      </c>
+      <c r="BA177">
+        <v>6</v>
+      </c>
+      <c r="BB177">
+        <v>7</v>
+      </c>
+      <c r="BC177">
+        <v>13</v>
+      </c>
+      <c r="BD177">
+        <v>1.91</v>
+      </c>
+      <c r="BE177">
+        <v>6.65</v>
+      </c>
+      <c r="BF177">
+        <v>1.92</v>
+      </c>
+      <c r="BG177">
+        <v>1.2</v>
+      </c>
+      <c r="BH177">
+        <v>3.85</v>
+      </c>
+      <c r="BI177">
+        <v>1.33</v>
+      </c>
+      <c r="BJ177">
+        <v>2.75</v>
+      </c>
+      <c r="BK177">
+        <v>1.65</v>
+      </c>
+      <c r="BL177">
+        <v>2.15</v>
+      </c>
+      <c r="BM177">
+        <v>2.04</v>
+      </c>
+      <c r="BN177">
+        <v>1.73</v>
+      </c>
+      <c r="BO177">
+        <v>2.55</v>
+      </c>
+      <c r="BP177">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7861638</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45788.45833333334</v>
+      </c>
+      <c r="F178">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>70</v>
+      </c>
+      <c r="H178" t="s">
+        <v>77</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>217</v>
+      </c>
+      <c r="P178" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q178">
+        <v>2.95</v>
+      </c>
+      <c r="R178">
+        <v>2.25</v>
+      </c>
+      <c r="S178">
+        <v>3.78</v>
+      </c>
+      <c r="T178">
+        <v>1.37</v>
+      </c>
+      <c r="U178">
+        <v>2.78</v>
+      </c>
+      <c r="V178">
+        <v>2.75</v>
+      </c>
+      <c r="W178">
+        <v>1.38</v>
+      </c>
+      <c r="X178">
+        <v>6.4</v>
+      </c>
+      <c r="Y178">
+        <v>1.05</v>
+      </c>
+      <c r="Z178">
+        <v>2.2</v>
+      </c>
+      <c r="AA178">
+        <v>3.4</v>
+      </c>
+      <c r="AB178">
+        <v>3.19</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>9</v>
+      </c>
+      <c r="AE178">
+        <v>1.29</v>
+      </c>
+      <c r="AF178">
+        <v>3.3</v>
+      </c>
+      <c r="AG178">
+        <v>2.02</v>
+      </c>
+      <c r="AH178">
+        <v>1.8</v>
+      </c>
+      <c r="AI178">
+        <v>1.75</v>
+      </c>
+      <c r="AJ178">
+        <v>1.95</v>
+      </c>
+      <c r="AK178">
+        <v>1.28</v>
+      </c>
+      <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.65</v>
+      </c>
+      <c r="AN178">
+        <v>1.38</v>
+      </c>
+      <c r="AO178">
+        <v>1.55</v>
+      </c>
+      <c r="AP178">
+        <v>1.33</v>
+      </c>
+      <c r="AQ178">
+        <v>1.6</v>
+      </c>
+      <c r="AR178">
+        <v>1.57</v>
+      </c>
+      <c r="AS178">
+        <v>1.38</v>
+      </c>
+      <c r="AT178">
+        <v>2.95</v>
+      </c>
+      <c r="AU178">
+        <v>8</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>9</v>
+      </c>
+      <c r="AX178">
+        <v>6</v>
+      </c>
+      <c r="AY178">
+        <v>18</v>
+      </c>
+      <c r="AZ178">
+        <v>13</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>5</v>
+      </c>
+      <c r="BC178">
+        <v>9</v>
+      </c>
+      <c r="BD178">
+        <v>1.7</v>
+      </c>
+      <c r="BE178">
+        <v>8.5</v>
+      </c>
+      <c r="BF178">
+        <v>2.65</v>
+      </c>
+      <c r="BG178">
+        <v>1.26</v>
+      </c>
+      <c r="BH178">
+        <v>3.4</v>
+      </c>
+      <c r="BI178">
+        <v>1.46</v>
+      </c>
+      <c r="BJ178">
+        <v>2.57</v>
+      </c>
+      <c r="BK178">
+        <v>1.75</v>
+      </c>
+      <c r="BL178">
+        <v>1.96</v>
+      </c>
+      <c r="BM178">
+        <v>2.17</v>
+      </c>
+      <c r="BN178">
+        <v>1.64</v>
+      </c>
+      <c r="BO178">
+        <v>2.7</v>
+      </c>
+      <c r="BP178">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7861665</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45788.54166666666</v>
+      </c>
+      <c r="F179">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>74</v>
+      </c>
+      <c r="H179" t="s">
+        <v>78</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>218</v>
+      </c>
+      <c r="P179" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q179">
+        <v>2.3</v>
+      </c>
+      <c r="R179">
+        <v>2.3</v>
+      </c>
+      <c r="S179">
+        <v>4.33</v>
+      </c>
+      <c r="T179">
+        <v>1.29</v>
+      </c>
+      <c r="U179">
+        <v>3.28</v>
+      </c>
+      <c r="V179">
+        <v>2.38</v>
+      </c>
+      <c r="W179">
+        <v>1.53</v>
+      </c>
+      <c r="X179">
+        <v>5.4</v>
+      </c>
+      <c r="Y179">
+        <v>1.12</v>
+      </c>
+      <c r="Z179">
+        <v>1.62</v>
+      </c>
+      <c r="AA179">
+        <v>3.94</v>
+      </c>
+      <c r="AB179">
+        <v>3.99</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>11</v>
+      </c>
+      <c r="AE179">
+        <v>1.17</v>
+      </c>
+      <c r="AF179">
+        <v>4.75</v>
+      </c>
+      <c r="AG179">
+        <v>1.56</v>
+      </c>
+      <c r="AH179">
+        <v>2.27</v>
+      </c>
+      <c r="AI179">
+        <v>1.62</v>
+      </c>
+      <c r="AJ179">
+        <v>2.38</v>
+      </c>
+      <c r="AK179">
+        <v>1.2</v>
+      </c>
+      <c r="AL179">
+        <v>1.24</v>
+      </c>
+      <c r="AM179">
+        <v>2</v>
+      </c>
+      <c r="AN179">
+        <v>1.41</v>
+      </c>
+      <c r="AO179">
+        <v>0.83</v>
+      </c>
+      <c r="AP179">
+        <v>1.47</v>
+      </c>
+      <c r="AQ179">
+        <v>0.8</v>
+      </c>
+      <c r="AR179">
+        <v>1.45</v>
+      </c>
+      <c r="AS179">
+        <v>1.35</v>
+      </c>
+      <c r="AT179">
+        <v>2.8</v>
+      </c>
+      <c r="AU179">
+        <v>7</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>13</v>
+      </c>
+      <c r="AX179">
+        <v>9</v>
+      </c>
+      <c r="AY179">
+        <v>24</v>
+      </c>
+      <c r="AZ179">
+        <v>15</v>
+      </c>
+      <c r="BA179">
+        <v>8</v>
+      </c>
+      <c r="BB179">
+        <v>8</v>
+      </c>
+      <c r="BC179">
+        <v>16</v>
+      </c>
+      <c r="BD179">
+        <v>1.72</v>
+      </c>
+      <c r="BE179">
+        <v>7</v>
+      </c>
+      <c r="BF179">
+        <v>2.38</v>
+      </c>
+      <c r="BG179">
+        <v>1.15</v>
+      </c>
+      <c r="BH179">
+        <v>4.1</v>
+      </c>
+      <c r="BI179">
+        <v>1.26</v>
+      </c>
+      <c r="BJ179">
+        <v>3.22</v>
+      </c>
+      <c r="BK179">
+        <v>1.52</v>
+      </c>
+      <c r="BL179">
+        <v>2.35</v>
+      </c>
+      <c r="BM179">
+        <v>1.85</v>
+      </c>
+      <c r="BN179">
+        <v>1.85</v>
+      </c>
+      <c r="BO179">
+        <v>2.3</v>
+      </c>
+      <c r="BP179">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>['53', '75', '82']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
   <si>
     <t>['53', '59', '90+2']</t>
@@ -1341,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1684,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2218,7 +2221,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2424,7 +2427,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2630,7 +2633,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3042,7 +3045,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3123,7 +3126,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -3454,7 +3457,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3660,7 +3663,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3738,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12">
         <v>0.87</v>
@@ -4690,7 +4693,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4768,7 +4771,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4896,7 +4899,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5102,7 +5105,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5720,7 +5723,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5926,7 +5929,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6132,7 +6135,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6338,7 +6341,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6544,7 +6547,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6625,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6750,7 +6753,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6956,7 +6959,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7162,7 +7165,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7240,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
         <v>0.93</v>
@@ -7368,7 +7371,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7780,7 +7783,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7986,7 +7989,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8192,7 +8195,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8398,7 +8401,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8604,7 +8607,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -9222,7 +9225,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9428,7 +9431,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9634,7 +9637,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9712,7 +9715,7 @@
         <v>2.33</v>
       </c>
       <c r="AP41">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -9840,7 +9843,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9921,7 +9924,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ42">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -10252,7 +10255,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10458,7 +10461,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10664,7 +10667,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10870,7 +10873,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11488,7 +11491,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11900,7 +11903,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11981,7 +11984,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ52">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.41</v>
@@ -12312,7 +12315,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12596,7 +12599,7 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ55">
         <v>0.73</v>
@@ -12724,7 +12727,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13342,7 +13345,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13548,7 +13551,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13754,7 +13757,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13960,7 +13963,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14166,7 +14169,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14372,7 +14375,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14578,7 +14581,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14865,7 +14868,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.84</v>
@@ -14990,7 +14993,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15274,7 +15277,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>0.73</v>
@@ -15608,7 +15611,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -16020,7 +16023,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16101,7 +16104,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -17050,7 +17053,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17668,7 +17671,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17874,7 +17877,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18080,7 +18083,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18286,7 +18289,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18492,7 +18495,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18698,7 +18701,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18776,7 +18779,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -19316,7 +19319,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19603,7 +19606,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19728,7 +19731,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19934,7 +19937,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -20758,7 +20761,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20964,7 +20967,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21042,7 +21045,7 @@
         <v>0.43</v>
       </c>
       <c r="AP96">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ96">
         <v>0.64</v>
@@ -21582,7 +21585,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21788,7 +21791,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21994,7 +21997,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22075,7 +22078,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ101">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR101">
         <v>1.36</v>
@@ -22200,7 +22203,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22484,7 +22487,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
         <v>0.73</v>
@@ -22612,7 +22615,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22818,7 +22821,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -23024,7 +23027,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23436,7 +23439,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -24054,7 +24057,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24260,7 +24263,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24544,10 +24547,10 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ113">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR113">
         <v>1.93</v>
@@ -24672,7 +24675,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24878,7 +24881,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25084,7 +25087,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25290,7 +25293,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25496,7 +25499,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25702,7 +25705,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26526,7 +26529,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26732,7 +26735,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26813,7 +26816,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ124">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR124">
         <v>1.31</v>
@@ -26938,7 +26941,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27144,7 +27147,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27222,7 +27225,7 @@
         <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ126">
         <v>0.93</v>
@@ -27350,7 +27353,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27556,7 +27559,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27762,7 +27765,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -28174,7 +28177,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28380,7 +28383,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28586,7 +28589,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28792,7 +28795,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29204,7 +29207,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29616,7 +29619,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -29694,7 +29697,7 @@
         <v>1.5</v>
       </c>
       <c r="AP138">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AQ138">
         <v>1.6</v>
@@ -29900,7 +29903,7 @@
         <v>1.59</v>
       </c>
       <c r="AP139">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AQ139">
         <v>1.6</v>
@@ -30109,7 +30112,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ140">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -30234,7 +30237,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30440,7 +30443,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30646,7 +30649,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30933,7 +30936,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ144">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AR144">
         <v>1.67</v>
@@ -31058,7 +31061,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31264,7 +31267,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31470,7 +31473,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31548,7 +31551,7 @@
         <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AQ147">
         <v>1.6</v>
@@ -31882,7 +31885,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -31963,7 +31966,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ149">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AR149">
         <v>1.59</v>
@@ -32088,7 +32091,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32706,7 +32709,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32912,7 +32915,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -33118,7 +33121,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33324,7 +33327,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33402,10 +33405,10 @@
         <v>1.88</v>
       </c>
       <c r="AP156">
+        <v>1.87</v>
+      </c>
+      <c r="AQ156">
         <v>1.9</v>
-      </c>
-      <c r="AQ156">
-        <v>1.93</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -33736,7 +33739,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -34148,7 +34151,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34354,7 +34357,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34560,7 +34563,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34638,7 +34641,7 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AQ162">
         <v>1.33</v>
@@ -34766,7 +34769,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -34847,7 +34850,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ163">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AR163">
         <v>1.64</v>
@@ -35384,7 +35387,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35590,7 +35593,7 @@
         <v>209</v>
       </c>
       <c r="P167" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -35671,7 +35674,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ167">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35874,7 +35877,7 @@
         <v>1.56</v>
       </c>
       <c r="AP168">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AQ168">
         <v>1.43</v>
@@ -36208,7 +36211,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q170">
         <v>2.78</v>
@@ -36826,7 +36829,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36907,7 +36910,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ173">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AR173">
         <v>1.75</v>
@@ -37032,7 +37035,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q174">
         <v>2.1</v>
@@ -37110,7 +37113,7 @@
         <v>1.43</v>
       </c>
       <c r="AP174">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AQ174">
         <v>1.33</v>
@@ -37238,7 +37241,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q175">
         <v>3.08</v>
@@ -37650,7 +37653,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>3.3</v>
@@ -37856,7 +37859,7 @@
         <v>217</v>
       </c>
       <c r="P178" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q178">
         <v>2.95</v>
@@ -38219,6 +38222,212 @@
       </c>
       <c r="BP179">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7861639</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45788.625</v>
+      </c>
+      <c r="F180">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>79</v>
+      </c>
+      <c r="H180" t="s">
+        <v>81</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>219</v>
+      </c>
+      <c r="P180" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q180">
+        <v>2.45</v>
+      </c>
+      <c r="R180">
+        <v>2.3</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>1.3</v>
+      </c>
+      <c r="U180">
+        <v>3.2</v>
+      </c>
+      <c r="V180">
+        <v>2.5</v>
+      </c>
+      <c r="W180">
+        <v>1.47</v>
+      </c>
+      <c r="X180">
+        <v>5.6</v>
+      </c>
+      <c r="Y180">
+        <v>1.1</v>
+      </c>
+      <c r="Z180">
+        <v>1.81</v>
+      </c>
+      <c r="AA180">
+        <v>3.41</v>
+      </c>
+      <c r="AB180">
+        <v>3.64</v>
+      </c>
+      <c r="AC180">
+        <v>1.01</v>
+      </c>
+      <c r="AD180">
+        <v>14</v>
+      </c>
+      <c r="AE180">
+        <v>1.22</v>
+      </c>
+      <c r="AF180">
+        <v>3.8</v>
+      </c>
+      <c r="AG180">
+        <v>1.77</v>
+      </c>
+      <c r="AH180">
+        <v>1.93</v>
+      </c>
+      <c r="AI180">
+        <v>1.62</v>
+      </c>
+      <c r="AJ180">
+        <v>2.3</v>
+      </c>
+      <c r="AK180">
+        <v>1.3</v>
+      </c>
+      <c r="AL180">
+        <v>1.27</v>
+      </c>
+      <c r="AM180">
+        <v>1.75</v>
+      </c>
+      <c r="AN180">
+        <v>1.93</v>
+      </c>
+      <c r="AO180">
+        <v>1.9</v>
+      </c>
+      <c r="AP180">
+        <v>1.9</v>
+      </c>
+      <c r="AQ180">
+        <v>1.87</v>
+      </c>
+      <c r="AR180">
+        <v>1.74</v>
+      </c>
+      <c r="AS180">
+        <v>1.77</v>
+      </c>
+      <c r="AT180">
+        <v>3.51</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>2</v>
+      </c>
+      <c r="AW180">
+        <v>13</v>
+      </c>
+      <c r="AX180">
+        <v>7</v>
+      </c>
+      <c r="AY180">
+        <v>21</v>
+      </c>
+      <c r="AZ180">
+        <v>13</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>5</v>
+      </c>
+      <c r="BD180">
+        <v>1.9</v>
+      </c>
+      <c r="BE180">
+        <v>7.4</v>
+      </c>
+      <c r="BF180">
+        <v>2.42</v>
+      </c>
+      <c r="BG180">
+        <v>1.33</v>
+      </c>
+      <c r="BH180">
+        <v>3.07</v>
+      </c>
+      <c r="BI180">
+        <v>1.58</v>
+      </c>
+      <c r="BJ180">
+        <v>2.29</v>
+      </c>
+      <c r="BK180">
+        <v>2.27</v>
+      </c>
+      <c r="BL180">
+        <v>1.8</v>
+      </c>
+      <c r="BM180">
+        <v>2.51</v>
+      </c>
+      <c r="BN180">
+        <v>1.48</v>
+      </c>
+      <c r="BO180">
+        <v>3.2</v>
+      </c>
+      <c r="BP180">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['7', '90+5']</t>
   </si>
   <si>
     <t>['53', '59', '90+2']</t>
@@ -1344,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2221,7 +2224,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2299,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2427,7 +2430,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2633,7 +2636,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2920,7 +2923,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ8">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3045,7 +3048,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3457,7 +3460,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3663,7 +3666,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4693,7 +4696,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4899,7 +4902,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5105,7 +5108,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5183,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ19">
         <v>0.73</v>
@@ -5598,7 +5601,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ21">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
         <v>1.44</v>
@@ -5723,7 +5726,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5929,7 +5932,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6135,7 +6138,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6341,7 +6344,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6547,7 +6550,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6753,7 +6756,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6959,7 +6962,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7165,7 +7168,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7371,7 +7374,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7783,7 +7786,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7989,7 +7992,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8195,7 +8198,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8273,7 +8276,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ34">
         <v>1.33</v>
@@ -8401,7 +8404,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8607,7 +8610,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8894,7 +8897,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR37">
         <v>1.54</v>
@@ -9225,7 +9228,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9431,7 +9434,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9637,7 +9640,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9843,7 +9846,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10255,7 +10258,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10336,7 +10339,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ44">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>0.9</v>
@@ -10461,7 +10464,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10667,7 +10670,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10873,7 +10876,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10951,7 +10954,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ47">
         <v>0.93</v>
@@ -11491,7 +11494,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11903,7 +11906,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12315,7 +12318,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12727,7 +12730,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13345,7 +13348,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13551,7 +13554,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13629,7 +13632,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13757,7 +13760,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13963,7 +13966,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14041,7 +14044,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ62">
         <v>0.73</v>
@@ -14169,7 +14172,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14375,7 +14378,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14456,7 +14459,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ64">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR64">
         <v>1.45</v>
@@ -14581,7 +14584,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14993,7 +14996,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15611,7 +15614,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -16023,7 +16026,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16925,10 +16928,10 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ76">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR76">
         <v>1.38</v>
@@ -17053,7 +17056,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17671,7 +17674,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17877,7 +17880,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18083,7 +18086,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18289,7 +18292,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18370,7 +18373,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ83">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18495,7 +18498,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18701,7 +18704,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18985,7 +18988,7 @@
         <v>0.43</v>
       </c>
       <c r="AP86">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ86">
         <v>0.93</v>
@@ -19319,7 +19322,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19731,7 +19734,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19937,7 +19940,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -20761,7 +20764,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20967,7 +20970,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21048,7 +21051,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ96">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR96">
         <v>1.89</v>
@@ -21585,7 +21588,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21791,7 +21794,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21997,7 +22000,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22075,7 +22078,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ101">
         <v>1.13</v>
@@ -22203,7 +22206,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22615,7 +22618,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22821,7 +22824,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -23027,7 +23030,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23314,7 +23317,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ107">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR107">
         <v>1.68</v>
@@ -23439,7 +23442,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -24057,7 +24060,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24263,7 +24266,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24341,7 +24344,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ112">
         <v>1.4</v>
@@ -24675,7 +24678,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24881,7 +24884,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25087,7 +25090,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25293,7 +25296,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25499,7 +25502,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25705,7 +25708,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26198,7 +26201,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ121">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26529,7 +26532,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26610,7 +26613,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ123">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26735,7 +26738,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26941,7 +26944,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27147,7 +27150,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27353,7 +27356,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27559,7 +27562,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27765,7 +27768,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -28177,7 +28180,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28255,7 +28258,7 @@
         <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ131">
         <v>0.87</v>
@@ -28383,7 +28386,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28589,7 +28592,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28795,7 +28798,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29207,7 +29210,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29285,10 +29288,10 @@
         <v>0.59</v>
       </c>
       <c r="AP136">
+        <v>0.8</v>
+      </c>
+      <c r="AQ136">
         <v>0.83</v>
-      </c>
-      <c r="AQ136">
-        <v>0.76</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29619,7 +29622,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -30237,7 +30240,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30318,7 +30321,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ141">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30443,7 +30446,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30649,7 +30652,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30727,7 +30730,7 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AQ143">
         <v>0.8</v>
@@ -31061,7 +31064,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31267,7 +31270,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31348,7 +31351,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ146">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31473,7 +31476,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31885,7 +31888,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -32091,7 +32094,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32378,7 +32381,7 @@
         <v>1.03</v>
       </c>
       <c r="AQ151">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AR151">
         <v>1.3</v>
@@ -32709,7 +32712,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32787,7 +32790,7 @@
         <v>1.48</v>
       </c>
       <c r="AP153">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AQ153">
         <v>1.47</v>
@@ -32915,7 +32918,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -32993,7 +32996,7 @@
         <v>0.92</v>
       </c>
       <c r="AP154">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AQ154">
         <v>1.03</v>
@@ -33121,7 +33124,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33327,7 +33330,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33739,7 +33742,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -34026,7 +34029,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ159">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AR159">
         <v>1.45</v>
@@ -34151,7 +34154,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34229,7 +34232,7 @@
         <v>1.5</v>
       </c>
       <c r="AP160">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AQ160">
         <v>1.53</v>
@@ -34357,7 +34360,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34563,7 +34566,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34769,7 +34772,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -35259,7 +35262,7 @@
         <v>1.56</v>
       </c>
       <c r="AP165">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AQ165">
         <v>1.53</v>
@@ -35387,7 +35390,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35593,7 +35596,7 @@
         <v>209</v>
       </c>
       <c r="P167" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -36086,7 +36089,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ169">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AR169">
         <v>1.3</v>
@@ -36211,7 +36214,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q170">
         <v>2.78</v>
@@ -36495,7 +36498,7 @@
         <v>1.43</v>
       </c>
       <c r="AP171">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AQ171">
         <v>1.47</v>
@@ -36704,7 +36707,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ172">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AR172">
         <v>1.47</v>
@@ -36829,7 +36832,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -37035,7 +37038,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>2.1</v>
@@ -37241,7 +37244,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q175">
         <v>3.08</v>
@@ -37653,7 +37656,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q177">
         <v>3.3</v>
@@ -37859,7 +37862,7 @@
         <v>217</v>
       </c>
       <c r="P178" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>2.95</v>
@@ -38271,7 +38274,7 @@
         <v>219</v>
       </c>
       <c r="P180" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q180">
         <v>2.45</v>
@@ -38428,6 +38431,212 @@
       </c>
       <c r="BP180">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7861666</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45789.58333333334</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>220</v>
+      </c>
+      <c r="P181" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q181">
+        <v>2.72</v>
+      </c>
+      <c r="R181">
+        <v>2.13</v>
+      </c>
+      <c r="S181">
+        <v>3.8</v>
+      </c>
+      <c r="T181">
+        <v>1.42</v>
+      </c>
+      <c r="U181">
+        <v>2.7</v>
+      </c>
+      <c r="V181">
+        <v>2.75</v>
+      </c>
+      <c r="W181">
+        <v>1.4</v>
+      </c>
+      <c r="X181">
+        <v>6.25</v>
+      </c>
+      <c r="Y181">
+        <v>1.08</v>
+      </c>
+      <c r="Z181">
+        <v>2.15</v>
+      </c>
+      <c r="AA181">
+        <v>3.15</v>
+      </c>
+      <c r="AB181">
+        <v>3.45</v>
+      </c>
+      <c r="AC181">
+        <v>1.02</v>
+      </c>
+      <c r="AD181">
+        <v>8.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.3</v>
+      </c>
+      <c r="AF181">
+        <v>3.4</v>
+      </c>
+      <c r="AG181">
+        <v>2</v>
+      </c>
+      <c r="AH181">
+        <v>1.96</v>
+      </c>
+      <c r="AI181">
+        <v>1.75</v>
+      </c>
+      <c r="AJ181">
+        <v>1.95</v>
+      </c>
+      <c r="AK181">
+        <v>1.33</v>
+      </c>
+      <c r="AL181">
+        <v>1.25</v>
+      </c>
+      <c r="AM181">
+        <v>1.67</v>
+      </c>
+      <c r="AN181">
+        <v>0.76</v>
+      </c>
+      <c r="AO181">
+        <v>0.83</v>
+      </c>
+      <c r="AP181">
+        <v>0.83</v>
+      </c>
+      <c r="AQ181">
+        <v>0.8</v>
+      </c>
+      <c r="AR181">
+        <v>1.32</v>
+      </c>
+      <c r="AS181">
+        <v>1.25</v>
+      </c>
+      <c r="AT181">
+        <v>2.57</v>
+      </c>
+      <c r="AU181">
+        <v>4</v>
+      </c>
+      <c r="AV181">
+        <v>3</v>
+      </c>
+      <c r="AW181">
+        <v>9</v>
+      </c>
+      <c r="AX181">
+        <v>8</v>
+      </c>
+      <c r="AY181">
+        <v>13</v>
+      </c>
+      <c r="AZ181">
+        <v>12</v>
+      </c>
+      <c r="BA181">
+        <v>1</v>
+      </c>
+      <c r="BB181">
+        <v>4</v>
+      </c>
+      <c r="BC181">
+        <v>5</v>
+      </c>
+      <c r="BD181">
+        <v>1.75</v>
+      </c>
+      <c r="BE181">
+        <v>8.5</v>
+      </c>
+      <c r="BF181">
+        <v>2.3</v>
+      </c>
+      <c r="BG181">
+        <v>1.16</v>
+      </c>
+      <c r="BH181">
+        <v>3.9</v>
+      </c>
+      <c r="BI181">
+        <v>1.33</v>
+      </c>
+      <c r="BJ181">
+        <v>2.7</v>
+      </c>
+      <c r="BK181">
+        <v>1.65</v>
+      </c>
+      <c r="BL181">
+        <v>2.1</v>
+      </c>
+      <c r="BM181">
+        <v>2</v>
+      </c>
+      <c r="BN181">
+        <v>1.83</v>
+      </c>
+      <c r="BO181">
+        <v>2.3</v>
+      </c>
+      <c r="BP181">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>['7', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+6', '82']</t>
   </si>
   <si>
     <t>['53', '59', '90+2']</t>
@@ -1347,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ3">
         <v>0.73</v>
@@ -2224,7 +2227,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2430,7 +2433,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2636,7 +2639,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3048,7 +3051,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3126,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ9">
         <v>1.13</v>
@@ -3460,7 +3463,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3666,7 +3669,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3747,7 +3750,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ12">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4696,7 +4699,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4902,7 +4905,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5108,7 +5111,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5598,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ21">
         <v>0.6</v>
@@ -5726,7 +5729,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5932,7 +5935,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6013,7 +6016,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ23">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR23">
         <v>1.53</v>
@@ -6138,7 +6141,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6344,7 +6347,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6550,7 +6553,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6756,7 +6759,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6962,7 +6965,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7168,7 +7171,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7374,7 +7377,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7786,7 +7789,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7867,7 +7870,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ32">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7992,7 +7995,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8198,7 +8201,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8404,7 +8407,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8482,7 +8485,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ35">
         <v>1.67</v>
@@ -8610,7 +8613,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -9228,7 +9231,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9434,7 +9437,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9640,7 +9643,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9846,7 +9849,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10258,7 +10261,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10464,7 +10467,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10670,7 +10673,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10876,7 +10879,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11366,7 +11369,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -11494,7 +11497,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11906,7 +11909,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12193,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR53">
         <v>1.13</v>
@@ -12318,7 +12321,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12730,7 +12733,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13348,7 +13351,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13554,7 +13557,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13760,7 +13763,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13838,7 +13841,7 @@
         <v>1.6</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ61">
         <v>1.4</v>
@@ -13966,7 +13969,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14172,7 +14175,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14378,7 +14381,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14584,7 +14587,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14665,7 +14668,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14996,7 +14999,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15614,7 +15617,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15898,7 +15901,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -16026,7 +16029,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -17056,7 +17059,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17343,7 +17346,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ78">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR78">
         <v>1.92</v>
@@ -17674,7 +17677,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17880,7 +17883,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17958,7 +17961,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ81">
         <v>0.93</v>
@@ -18086,7 +18089,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18292,7 +18295,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18498,7 +18501,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18704,7 +18707,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -19322,7 +19325,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19734,7 +19737,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19940,7 +19943,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -20224,10 +20227,10 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ92">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
         <v>1.68</v>
@@ -20764,7 +20767,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20970,7 +20973,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21588,7 +21591,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21794,7 +21797,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22000,7 +22003,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22206,7 +22209,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22287,7 +22290,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ102">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR102">
         <v>1.25</v>
@@ -22618,7 +22621,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22824,7 +22827,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -23030,7 +23033,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23111,7 +23114,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR106">
         <v>1.4</v>
@@ -23442,7 +23445,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -24060,7 +24063,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24138,7 +24141,7 @@
         <v>0.78</v>
       </c>
       <c r="AP111">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ111">
         <v>0.93</v>
@@ -24266,7 +24269,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24678,7 +24681,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24884,7 +24887,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25090,7 +25093,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25171,7 +25174,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ116">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR116">
         <v>1.48</v>
@@ -25296,7 +25299,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25502,7 +25505,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25708,7 +25711,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -26404,7 +26407,7 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ122">
         <v>0.73</v>
@@ -26532,7 +26535,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26738,7 +26741,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26944,7 +26947,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27150,7 +27153,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27356,7 +27359,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27562,7 +27565,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27768,7 +27771,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -28180,7 +28183,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28261,7 +28264,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ131">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR131">
         <v>1.4</v>
@@ -28386,7 +28389,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28592,7 +28595,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28798,7 +28801,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29210,7 +29213,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29494,10 +29497,10 @@
         <v>1.59</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR137">
         <v>1.6</v>
@@ -29622,7 +29625,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -30240,7 +30243,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30446,7 +30449,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30652,7 +30655,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30936,7 +30939,7 @@
         <v>1.91</v>
       </c>
       <c r="AP144">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ144">
         <v>1.9</v>
@@ -31064,7 +31067,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31145,7 +31148,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ145">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31270,7 +31273,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31476,7 +31479,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31888,7 +31891,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -31966,7 +31969,7 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ149">
         <v>1.87</v>
@@ -32094,7 +32097,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32172,7 +32175,7 @@
         <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ150">
         <v>1.6</v>
@@ -32712,7 +32715,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32918,7 +32921,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -33124,7 +33127,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33205,7 +33208,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ155">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR155">
         <v>1.35</v>
@@ -33330,7 +33333,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33617,7 +33620,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ157">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33742,7 +33745,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -34154,7 +34157,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34360,7 +34363,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34566,7 +34569,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34647,7 +34650,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ162">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR162">
         <v>1.79</v>
@@ -34772,7 +34775,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -34850,7 +34853,7 @@
         <v>1.88</v>
       </c>
       <c r="AP163">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ163">
         <v>1.87</v>
@@ -35390,7 +35393,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35596,7 +35599,7 @@
         <v>209</v>
       </c>
       <c r="P167" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -35674,7 +35677,7 @@
         <v>1.85</v>
       </c>
       <c r="AP167">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ167">
         <v>1.9</v>
@@ -35883,7 +35886,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ168">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR168">
         <v>1.74</v>
@@ -36214,7 +36217,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q170">
         <v>2.78</v>
@@ -36295,7 +36298,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ170">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AR170">
         <v>1.34</v>
@@ -36832,7 +36835,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -37038,7 +37041,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q174">
         <v>2.1</v>
@@ -37119,7 +37122,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ174">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR174">
         <v>1.78</v>
@@ -37244,7 +37247,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q175">
         <v>3.08</v>
@@ -37656,7 +37659,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q177">
         <v>3.3</v>
@@ -37734,7 +37737,7 @@
         <v>1.62</v>
       </c>
       <c r="AP177">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AQ177">
         <v>1.6</v>
@@ -37862,7 +37865,7 @@
         <v>217</v>
       </c>
       <c r="P178" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q178">
         <v>2.95</v>
@@ -37940,7 +37943,7 @@
         <v>1.55</v>
       </c>
       <c r="AP178">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ178">
         <v>1.6</v>
@@ -38274,7 +38277,7 @@
         <v>219</v>
       </c>
       <c r="P180" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q180">
         <v>2.45</v>
@@ -38637,6 +38640,212 @@
       </c>
       <c r="BP181">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7861640</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>71</v>
+      </c>
+      <c r="H182" t="s">
+        <v>70</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>221</v>
+      </c>
+      <c r="P182" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q182">
+        <v>2.49</v>
+      </c>
+      <c r="R182">
+        <v>2.35</v>
+      </c>
+      <c r="S182">
+        <v>4.2</v>
+      </c>
+      <c r="T182">
+        <v>1.32</v>
+      </c>
+      <c r="U182">
+        <v>3.29</v>
+      </c>
+      <c r="V182">
+        <v>2.2</v>
+      </c>
+      <c r="W182">
+        <v>1.6</v>
+      </c>
+      <c r="X182">
+        <v>4.75</v>
+      </c>
+      <c r="Y182">
+        <v>1.12</v>
+      </c>
+      <c r="Z182">
+        <v>1.98</v>
+      </c>
+      <c r="AA182">
+        <v>3.75</v>
+      </c>
+      <c r="AB182">
+        <v>3.65</v>
+      </c>
+      <c r="AC182">
+        <v>1.03</v>
+      </c>
+      <c r="AD182">
+        <v>11</v>
+      </c>
+      <c r="AE182">
+        <v>1.17</v>
+      </c>
+      <c r="AF182">
+        <v>5</v>
+      </c>
+      <c r="AG182">
+        <v>1.5</v>
+      </c>
+      <c r="AH182">
+        <v>2.5</v>
+      </c>
+      <c r="AI182">
+        <v>1.54</v>
+      </c>
+      <c r="AJ182">
+        <v>2.5</v>
+      </c>
+      <c r="AK182">
+        <v>1.25</v>
+      </c>
+      <c r="AL182">
+        <v>1.22</v>
+      </c>
+      <c r="AM182">
+        <v>1.91</v>
+      </c>
+      <c r="AN182">
+        <v>1.43</v>
+      </c>
+      <c r="AO182">
+        <v>1.33</v>
+      </c>
+      <c r="AP182">
+        <v>1.48</v>
+      </c>
+      <c r="AQ182">
+        <v>1.29</v>
+      </c>
+      <c r="AR182">
+        <v>1.68</v>
+      </c>
+      <c r="AS182">
+        <v>1.58</v>
+      </c>
+      <c r="AT182">
+        <v>3.26</v>
+      </c>
+      <c r="AU182">
+        <v>8</v>
+      </c>
+      <c r="AV182">
+        <v>2</v>
+      </c>
+      <c r="AW182">
+        <v>13</v>
+      </c>
+      <c r="AX182">
+        <v>6</v>
+      </c>
+      <c r="AY182">
+        <v>27</v>
+      </c>
+      <c r="AZ182">
+        <v>10</v>
+      </c>
+      <c r="BA182">
+        <v>3</v>
+      </c>
+      <c r="BB182">
+        <v>1</v>
+      </c>
+      <c r="BC182">
+        <v>4</v>
+      </c>
+      <c r="BD182">
+        <v>2</v>
+      </c>
+      <c r="BE182">
+        <v>6.4</v>
+      </c>
+      <c r="BF182">
+        <v>2.23</v>
+      </c>
+      <c r="BG182">
+        <v>1.28</v>
+      </c>
+      <c r="BH182">
+        <v>3.28</v>
+      </c>
+      <c r="BI182">
+        <v>1.52</v>
+      </c>
+      <c r="BJ182">
+        <v>2.4</v>
+      </c>
+      <c r="BK182">
+        <v>1.93</v>
+      </c>
+      <c r="BL182">
+        <v>1.87</v>
+      </c>
+      <c r="BM182">
+        <v>2.39</v>
+      </c>
+      <c r="BN182">
+        <v>1.55</v>
+      </c>
+      <c r="BO182">
+        <v>3.2</v>
+      </c>
+      <c r="BP182">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,12 @@
     <t>['45+6', '82']</t>
   </si>
   <si>
+    <t>['36', '61']</t>
+  </si>
+  <si>
+    <t>['7', '24', '42', '66', '84']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -989,6 +995,15 @@
   </si>
   <si>
     <t>['24', '47', '64']</t>
+  </si>
+  <si>
+    <t>['45+5', '90', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2227,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2433,7 +2448,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2511,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
         <v>1.4</v>
@@ -2639,7 +2654,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2923,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3051,7 +3066,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3463,7 +3478,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3541,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3669,7 +3684,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3956,7 +3971,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4699,7 +4714,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4905,7 +4920,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5111,7 +5126,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5398,7 +5413,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
         <v>1.75</v>
@@ -5604,7 +5619,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ21">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR21">
         <v>1.44</v>
@@ -5729,7 +5744,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5810,7 +5825,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>1.14</v>
@@ -5935,7 +5950,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6141,7 +6156,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6219,7 +6234,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6347,7 +6362,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6425,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25">
         <v>0.73</v>
@@ -6553,7 +6568,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6759,7 +6774,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6965,7 +6980,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7171,7 +7186,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7377,7 +7392,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7455,7 +7470,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7664,7 +7679,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
         <v>1.74</v>
@@ -7789,7 +7804,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7867,7 +7882,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ32">
         <v>0.8100000000000001</v>
@@ -7995,7 +8010,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8201,7 +8216,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8282,7 +8297,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -8407,7 +8422,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8613,7 +8628,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8897,10 +8912,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ37">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR37">
         <v>1.54</v>
@@ -9106,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
         <v>1.09</v>
@@ -9231,7 +9246,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9437,7 +9452,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9515,7 +9530,7 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
         <v>0.93</v>
@@ -9643,7 +9658,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9849,7 +9864,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10261,7 +10276,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10339,10 +10354,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR44">
         <v>0.9</v>
@@ -10467,7 +10482,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10673,7 +10688,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10754,7 +10769,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10879,7 +10894,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11497,7 +11512,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11575,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50">
         <v>0.73</v>
@@ -11781,10 +11796,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11909,7 +11924,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12321,7 +12336,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12733,7 +12748,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13223,7 +13238,7 @@
         <v>0.6</v>
       </c>
       <c r="AP58">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ58">
         <v>0.93</v>
@@ -13351,7 +13366,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13432,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR59">
         <v>1.04</v>
@@ -13557,7 +13572,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13763,7 +13778,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13969,7 +13984,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14175,7 +14190,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14253,7 +14268,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63">
         <v>0.73</v>
@@ -14381,7 +14396,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14462,7 +14477,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR64">
         <v>1.45</v>
@@ -14587,7 +14602,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14665,7 +14680,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
         <v>0.8100000000000001</v>
@@ -14999,7 +15014,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15286,7 +15301,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.76</v>
@@ -15617,7 +15632,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15695,7 +15710,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -15904,7 +15919,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -16029,7 +16044,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16107,7 +16122,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -16934,7 +16949,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ76">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR76">
         <v>1.38</v>
@@ -17059,7 +17074,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17137,7 +17152,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77">
         <v>0.93</v>
@@ -17677,7 +17692,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17755,7 +17770,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -17883,7 +17898,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18089,7 +18104,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18295,7 +18310,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18376,7 +18391,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR83">
         <v>1.59</v>
@@ -18501,7 +18516,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18579,10 +18594,10 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ84">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
         <v>1.31</v>
@@ -18707,7 +18722,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18788,7 +18803,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR85">
         <v>1.76</v>
@@ -19325,7 +19340,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19609,7 +19624,7 @@
         <v>1.29</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ89">
         <v>1.13</v>
@@ -19737,7 +19752,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19943,7 +19958,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -20433,7 +20448,7 @@
         <v>0.75</v>
       </c>
       <c r="AP93">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ93">
         <v>0.93</v>
@@ -20642,7 +20657,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ94">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.44</v>
@@ -20767,7 +20782,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20845,7 +20860,7 @@
         <v>1.38</v>
       </c>
       <c r="AP95">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
         <v>1.4</v>
@@ -20973,7 +20988,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21054,7 +21069,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ96">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR96">
         <v>1.89</v>
@@ -21260,7 +21275,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.78</v>
@@ -21591,7 +21606,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21797,7 +21812,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21875,7 +21890,7 @@
         <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ100">
         <v>1.33</v>
@@ -22003,7 +22018,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22209,7 +22224,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22621,7 +22636,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22827,7 +22842,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22908,7 +22923,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ105">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -23033,7 +23048,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23111,7 +23126,7 @@
         <v>1.13</v>
       </c>
       <c r="AP106">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106">
         <v>0.8100000000000001</v>
@@ -23320,7 +23335,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ107">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR107">
         <v>1.68</v>
@@ -23445,7 +23460,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -24063,7 +24078,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24269,7 +24284,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24681,7 +24696,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24759,10 +24774,10 @@
         <v>1.25</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ114">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR114">
         <v>1.41</v>
@@ -24887,7 +24902,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24965,7 +24980,7 @@
         <v>0.88</v>
       </c>
       <c r="AP115">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ115">
         <v>0.73</v>
@@ -25093,7 +25108,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25299,7 +25314,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25377,10 +25392,10 @@
         <v>1.44</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ117">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR117">
         <v>1.38</v>
@@ -25505,7 +25520,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25583,10 +25598,10 @@
         <v>0.44</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR118">
         <v>1.35</v>
@@ -25711,7 +25726,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25995,7 +26010,7 @@
         <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ120">
         <v>1.67</v>
@@ -26204,7 +26219,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ121">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26410,7 +26425,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ122">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR122">
         <v>1.71</v>
@@ -26535,7 +26550,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26616,7 +26631,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ123">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26741,7 +26756,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26819,7 +26834,7 @@
         <v>1.2</v>
       </c>
       <c r="AP124">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ124">
         <v>1.13</v>
@@ -26947,7 +26962,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27153,7 +27168,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27359,7 +27374,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27565,7 +27580,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27646,7 +27661,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ128">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR128">
         <v>1.76</v>
@@ -27771,7 +27786,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -28183,7 +28198,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28389,7 +28404,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28467,7 +28482,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ132">
         <v>1.67</v>
@@ -28595,7 +28610,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28673,7 +28688,7 @@
         <v>0.6</v>
       </c>
       <c r="AP133">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133">
         <v>0.73</v>
@@ -28801,7 +28816,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28879,10 +28894,10 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AQ134">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29085,10 +29100,10 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AQ135">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29213,7 +29228,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29291,10 +29306,10 @@
         <v>0.59</v>
       </c>
       <c r="AP136">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AQ136">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29625,7 +29640,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -30243,7 +30258,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30321,10 +30336,10 @@
         <v>0.78</v>
       </c>
       <c r="AP141">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ141">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30449,7 +30464,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30527,10 +30542,10 @@
         <v>0.87</v>
       </c>
       <c r="AP142">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ142">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AR142">
         <v>1.42</v>
@@ -30655,7 +30670,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30733,10 +30748,10 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AQ143">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AR143">
         <v>1.28</v>
@@ -31067,7 +31082,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31273,7 +31288,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31351,10 +31366,10 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AQ146">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31479,7 +31494,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31763,10 +31778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ148">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31891,7 +31906,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -32097,7 +32112,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32381,10 +32396,10 @@
         <v>0.71</v>
       </c>
       <c r="AP151">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AQ151">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AR151">
         <v>1.3</v>
@@ -32587,10 +32602,10 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ152">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32715,7 +32730,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32793,10 +32808,10 @@
         <v>1.48</v>
       </c>
       <c r="AP153">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AQ153">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR153">
         <v>1.29</v>
@@ -32921,7 +32936,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -32999,10 +33014,10 @@
         <v>0.92</v>
       </c>
       <c r="AP154">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AQ154">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AR154">
         <v>1.22</v>
@@ -33127,7 +33142,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33333,7 +33348,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33745,7 +33760,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -33823,10 +33838,10 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AQ158">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AR158">
         <v>1.28</v>
@@ -34029,10 +34044,10 @@
         <v>0.73</v>
       </c>
       <c r="AP159">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ159">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AR159">
         <v>1.45</v>
@@ -34157,7 +34172,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34235,10 +34250,10 @@
         <v>1.5</v>
       </c>
       <c r="AP160">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AQ160">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34363,7 +34378,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34569,7 +34584,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34775,7 +34790,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -35265,10 +35280,10 @@
         <v>1.56</v>
       </c>
       <c r="AP165">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AQ165">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR165">
         <v>1.21</v>
@@ -35393,7 +35408,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35471,10 +35486,10 @@
         <v>1.44</v>
       </c>
       <c r="AP166">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AQ166">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR166">
         <v>1.33</v>
@@ -35599,7 +35614,7 @@
         <v>209</v>
       </c>
       <c r="P167" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -36089,10 +36104,10 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AQ169">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AR169">
         <v>1.3</v>
@@ -36217,7 +36232,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q170">
         <v>2.78</v>
@@ -36501,10 +36516,10 @@
         <v>1.43</v>
       </c>
       <c r="AP171">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AQ171">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AR171">
         <v>1.22</v>
@@ -36707,10 +36722,10 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ172">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AR172">
         <v>1.47</v>
@@ -36835,7 +36850,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -37041,7 +37056,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q174">
         <v>2.1</v>
@@ -37247,7 +37262,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>3.08</v>
@@ -37325,10 +37340,10 @@
         <v>0.82</v>
       </c>
       <c r="AP175">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AQ175">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AR175">
         <v>1.33</v>
@@ -37531,10 +37546,10 @@
         <v>1.07</v>
       </c>
       <c r="AP176">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ176">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AR176">
         <v>1.5</v>
@@ -37659,7 +37674,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>3.3</v>
@@ -37865,7 +37880,7 @@
         <v>217</v>
       </c>
       <c r="P178" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q178">
         <v>2.95</v>
@@ -38149,10 +38164,10 @@
         <v>0.83</v>
       </c>
       <c r="AP179">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ179">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AR179">
         <v>1.45</v>
@@ -38277,7 +38292,7 @@
         <v>219</v>
       </c>
       <c r="P180" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q180">
         <v>2.45</v>
@@ -38561,10 +38576,10 @@
         <v>0.83</v>
       </c>
       <c r="AP181">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="AQ181">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AR181">
         <v>1.32</v>
@@ -38846,6 +38861,624 @@
       </c>
       <c r="BP182">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7861667</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45795.375</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" t="s">
+        <v>72</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>3</v>
+      </c>
+      <c r="N183">
+        <v>5</v>
+      </c>
+      <c r="O183" t="s">
+        <v>222</v>
+      </c>
+      <c r="P183" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q183">
+        <v>3.02</v>
+      </c>
+      <c r="R183">
+        <v>2.36</v>
+      </c>
+      <c r="S183">
+        <v>2.76</v>
+      </c>
+      <c r="T183">
+        <v>1.27</v>
+      </c>
+      <c r="U183">
+        <v>3.7</v>
+      </c>
+      <c r="V183">
+        <v>2.39</v>
+      </c>
+      <c r="W183">
+        <v>1.55</v>
+      </c>
+      <c r="X183">
+        <v>5.15</v>
+      </c>
+      <c r="Y183">
+        <v>1.14</v>
+      </c>
+      <c r="Z183">
+        <v>2.86</v>
+      </c>
+      <c r="AA183">
+        <v>3.7</v>
+      </c>
+      <c r="AB183">
+        <v>2.25</v>
+      </c>
+      <c r="AC183">
+        <v>1.03</v>
+      </c>
+      <c r="AD183">
+        <v>11</v>
+      </c>
+      <c r="AE183">
+        <v>1.1</v>
+      </c>
+      <c r="AF183">
+        <v>4.9</v>
+      </c>
+      <c r="AG183">
+        <v>1.53</v>
+      </c>
+      <c r="AH183">
+        <v>2.35</v>
+      </c>
+      <c r="AI183">
+        <v>1.5</v>
+      </c>
+      <c r="AJ183">
+        <v>2.68</v>
+      </c>
+      <c r="AK183">
+        <v>1.29</v>
+      </c>
+      <c r="AL183">
+        <v>1.22</v>
+      </c>
+      <c r="AM183">
+        <v>1.45</v>
+      </c>
+      <c r="AN183">
+        <v>0.8</v>
+      </c>
+      <c r="AO183">
+        <v>1.53</v>
+      </c>
+      <c r="AP183">
+        <v>0.77</v>
+      </c>
+      <c r="AQ183">
+        <v>1.58</v>
+      </c>
+      <c r="AR183">
+        <v>1.35</v>
+      </c>
+      <c r="AS183">
+        <v>1.5</v>
+      </c>
+      <c r="AT183">
+        <v>2.85</v>
+      </c>
+      <c r="AU183">
+        <v>3</v>
+      </c>
+      <c r="AV183">
+        <v>6</v>
+      </c>
+      <c r="AW183">
+        <v>4</v>
+      </c>
+      <c r="AX183">
+        <v>9</v>
+      </c>
+      <c r="AY183">
+        <v>7</v>
+      </c>
+      <c r="AZ183">
+        <v>18</v>
+      </c>
+      <c r="BA183">
+        <v>1</v>
+      </c>
+      <c r="BB183">
+        <v>8</v>
+      </c>
+      <c r="BC183">
+        <v>9</v>
+      </c>
+      <c r="BD183">
+        <v>2.28</v>
+      </c>
+      <c r="BE183">
+        <v>7.3</v>
+      </c>
+      <c r="BF183">
+        <v>1.85</v>
+      </c>
+      <c r="BG183">
+        <v>1.19</v>
+      </c>
+      <c r="BH183">
+        <v>3.58</v>
+      </c>
+      <c r="BI183">
+        <v>1.43</v>
+      </c>
+      <c r="BJ183">
+        <v>2.6</v>
+      </c>
+      <c r="BK183">
+        <v>1.93</v>
+      </c>
+      <c r="BL183">
+        <v>2.04</v>
+      </c>
+      <c r="BM183">
+        <v>2.08</v>
+      </c>
+      <c r="BN183">
+        <v>1.66</v>
+      </c>
+      <c r="BO183">
+        <v>2.7</v>
+      </c>
+      <c r="BP183">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7861668</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45795.375</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>74</v>
+      </c>
+      <c r="H184" t="s">
+        <v>73</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>87</v>
+      </c>
+      <c r="P184" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q184">
+        <v>2.21</v>
+      </c>
+      <c r="R184">
+        <v>2.63</v>
+      </c>
+      <c r="S184">
+        <v>4.1</v>
+      </c>
+      <c r="T184">
+        <v>1.25</v>
+      </c>
+      <c r="U184">
+        <v>3.6</v>
+      </c>
+      <c r="V184">
+        <v>2.25</v>
+      </c>
+      <c r="W184">
+        <v>1.6</v>
+      </c>
+      <c r="X184">
+        <v>4.75</v>
+      </c>
+      <c r="Y184">
+        <v>1.15</v>
+      </c>
+      <c r="Z184">
+        <v>1.6</v>
+      </c>
+      <c r="AA184">
+        <v>3.7</v>
+      </c>
+      <c r="AB184">
+        <v>4</v>
+      </c>
+      <c r="AC184">
+        <v>1.03</v>
+      </c>
+      <c r="AD184">
+        <v>17</v>
+      </c>
+      <c r="AE184">
+        <v>1.15</v>
+      </c>
+      <c r="AF184">
+        <v>4.75</v>
+      </c>
+      <c r="AG184">
+        <v>1.47</v>
+      </c>
+      <c r="AH184">
+        <v>2.5</v>
+      </c>
+      <c r="AI184">
+        <v>1.55</v>
+      </c>
+      <c r="AJ184">
+        <v>2.4</v>
+      </c>
+      <c r="AK184">
+        <v>1.26</v>
+      </c>
+      <c r="AL184">
+        <v>1.18</v>
+      </c>
+      <c r="AM184">
+        <v>2.26</v>
+      </c>
+      <c r="AN184">
+        <v>1.47</v>
+      </c>
+      <c r="AO184">
+        <v>0.83</v>
+      </c>
+      <c r="AP184">
+        <v>1.42</v>
+      </c>
+      <c r="AQ184">
+        <v>0.9</v>
+      </c>
+      <c r="AR184">
+        <v>1.47</v>
+      </c>
+      <c r="AS184">
+        <v>1.32</v>
+      </c>
+      <c r="AT184">
+        <v>2.79</v>
+      </c>
+      <c r="AU184">
+        <v>10</v>
+      </c>
+      <c r="AV184">
+        <v>6</v>
+      </c>
+      <c r="AW184">
+        <v>13</v>
+      </c>
+      <c r="AX184">
+        <v>4</v>
+      </c>
+      <c r="AY184">
+        <v>25</v>
+      </c>
+      <c r="AZ184">
+        <v>11</v>
+      </c>
+      <c r="BA184">
+        <v>14</v>
+      </c>
+      <c r="BB184">
+        <v>3</v>
+      </c>
+      <c r="BC184">
+        <v>17</v>
+      </c>
+      <c r="BD184">
+        <v>1.55</v>
+      </c>
+      <c r="BE184">
+        <v>7</v>
+      </c>
+      <c r="BF184">
+        <v>2.65</v>
+      </c>
+      <c r="BG184">
+        <v>1.14</v>
+      </c>
+      <c r="BH184">
+        <v>4.45</v>
+      </c>
+      <c r="BI184">
+        <v>1.29</v>
+      </c>
+      <c r="BJ184">
+        <v>3.04</v>
+      </c>
+      <c r="BK184">
+        <v>1.73</v>
+      </c>
+      <c r="BL184">
+        <v>2.2</v>
+      </c>
+      <c r="BM184">
+        <v>1.95</v>
+      </c>
+      <c r="BN184">
+        <v>1.77</v>
+      </c>
+      <c r="BO184">
+        <v>2.4</v>
+      </c>
+      <c r="BP184">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7861669</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45795.45833333334</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>76</v>
+      </c>
+      <c r="H185" t="s">
+        <v>75</v>
+      </c>
+      <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>3</v>
+      </c>
+      <c r="L185">
+        <v>5</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>6</v>
+      </c>
+      <c r="O185" t="s">
+        <v>223</v>
+      </c>
+      <c r="P185" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q185">
+        <v>3.3</v>
+      </c>
+      <c r="R185">
+        <v>2.25</v>
+      </c>
+      <c r="S185">
+        <v>3</v>
+      </c>
+      <c r="T185">
+        <v>1.34</v>
+      </c>
+      <c r="U185">
+        <v>2.88</v>
+      </c>
+      <c r="V185">
+        <v>2.73</v>
+      </c>
+      <c r="W185">
+        <v>1.42</v>
+      </c>
+      <c r="X185">
+        <v>5.95</v>
+      </c>
+      <c r="Y185">
+        <v>1.07</v>
+      </c>
+      <c r="Z185">
+        <v>2.62</v>
+      </c>
+      <c r="AA185">
+        <v>3.2</v>
+      </c>
+      <c r="AB185">
+        <v>2.3</v>
+      </c>
+      <c r="AC185">
+        <v>1</v>
+      </c>
+      <c r="AD185">
+        <v>11</v>
+      </c>
+      <c r="AE185">
+        <v>1.25</v>
+      </c>
+      <c r="AF185">
+        <v>3.7</v>
+      </c>
+      <c r="AG185">
+        <v>1.82</v>
+      </c>
+      <c r="AH185">
+        <v>1.93</v>
+      </c>
+      <c r="AI185">
+        <v>1.6</v>
+      </c>
+      <c r="AJ185">
+        <v>2.2</v>
+      </c>
+      <c r="AK185">
+        <v>1.47</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.4</v>
+      </c>
+      <c r="AN185">
+        <v>1.03</v>
+      </c>
+      <c r="AO185">
+        <v>0.8</v>
+      </c>
+      <c r="AP185">
+        <v>1.1</v>
+      </c>
+      <c r="AQ185">
+        <v>0.77</v>
+      </c>
+      <c r="AR185">
+        <v>1.33</v>
+      </c>
+      <c r="AS185">
+        <v>1.26</v>
+      </c>
+      <c r="AT185">
+        <v>2.59</v>
+      </c>
+      <c r="AU185">
+        <v>7</v>
+      </c>
+      <c r="AV185">
+        <v>6</v>
+      </c>
+      <c r="AW185">
+        <v>3</v>
+      </c>
+      <c r="AX185">
+        <v>16</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>25</v>
+      </c>
+      <c r="BA185">
+        <v>3</v>
+      </c>
+      <c r="BB185">
+        <v>9</v>
+      </c>
+      <c r="BC185">
+        <v>12</v>
+      </c>
+      <c r="BD185">
+        <v>2.16</v>
+      </c>
+      <c r="BE185">
+        <v>7.8</v>
+      </c>
+      <c r="BF185">
+        <v>1.9</v>
+      </c>
+      <c r="BG185">
+        <v>1.22</v>
+      </c>
+      <c r="BH185">
+        <v>3.55</v>
+      </c>
+      <c r="BI185">
+        <v>1.48</v>
+      </c>
+      <c r="BJ185">
+        <v>2.46</v>
+      </c>
+      <c r="BK185">
+        <v>2.09</v>
+      </c>
+      <c r="BL185">
+        <v>1.92</v>
+      </c>
+      <c r="BM185">
+        <v>2.31</v>
+      </c>
+      <c r="BN185">
+        <v>1.56</v>
+      </c>
+      <c r="BO185">
+        <v>2.65</v>
+      </c>
+      <c r="BP185">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1005,6 +1005,12 @@
   <si>
     <t>['79']</t>
   </si>
+  <si>
+    <t>['11', '44', '63', '74']</t>
+  </si>
+  <si>
+    <t>['47', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1365,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1711,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ2">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2735,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3147,7 +3153,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -3350,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>0.93</v>
@@ -3968,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ13">
         <v>0.88</v>
@@ -5822,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1.44</v>
@@ -6028,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ23">
         <v>0.8100000000000001</v>
@@ -6237,7 +6243,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -6649,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6852,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>0.93</v>
@@ -8503,7 +8509,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR35">
         <v>1.81</v>
@@ -8706,7 +8712,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -9945,7 +9951,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -10148,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
         <v>0.73</v>
@@ -10563,7 +10569,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
         <v>1.88</v>
@@ -11178,7 +11184,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ48">
         <v>0.93</v>
@@ -12002,10 +12008,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.41</v>
@@ -13653,7 +13659,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
         <v>1.56</v>
@@ -14474,7 +14480,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
         <v>0.5600000000000001</v>
@@ -14886,10 +14892,10 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>1.84</v>
@@ -15095,7 +15101,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -16125,7 +16131,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -16740,10 +16746,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR75">
         <v>1.81</v>
@@ -17564,7 +17570,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
         <v>0.73</v>
@@ -19627,7 +19633,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19833,7 +19839,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR90">
         <v>1.66</v>
@@ -20036,7 +20042,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ91">
         <v>0.73</v>
@@ -20654,7 +20660,7 @@
         <v>0.14</v>
       </c>
       <c r="AP94">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ94">
         <v>0.88</v>
@@ -21478,7 +21484,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ98">
         <v>0.73</v>
@@ -22099,7 +22105,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ101">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR101">
         <v>1.36</v>
@@ -22714,7 +22720,7 @@
         <v>0.78</v>
       </c>
       <c r="AP104">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ104">
         <v>0.93</v>
@@ -23538,10 +23544,10 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR108">
         <v>1.51</v>
@@ -24571,7 +24577,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.93</v>
@@ -25186,7 +25192,7 @@
         <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116">
         <v>0.8100000000000001</v>
@@ -26013,7 +26019,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ120">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR120">
         <v>1.35</v>
@@ -26216,7 +26222,7 @@
         <v>0.33</v>
       </c>
       <c r="AP121">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ121">
         <v>0.5600000000000001</v>
@@ -26837,7 +26843,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ124">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR124">
         <v>1.31</v>
@@ -27452,7 +27458,7 @@
         <v>1.3</v>
       </c>
       <c r="AP127">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127">
         <v>1.4</v>
@@ -27658,7 +27664,7 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ128">
         <v>1.44</v>
@@ -28485,7 +28491,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ132">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR132">
         <v>1.38</v>
@@ -29718,10 +29724,10 @@
         <v>1.5</v>
       </c>
       <c r="AP138">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AQ138">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR138">
         <v>1.7</v>
@@ -29924,10 +29930,10 @@
         <v>1.59</v>
       </c>
       <c r="AP139">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AQ139">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR139">
         <v>1.77</v>
@@ -30130,10 +30136,10 @@
         <v>1.96</v>
       </c>
       <c r="AP140">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ140">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -30957,7 +30963,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ144">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AR144">
         <v>1.67</v>
@@ -31160,7 +31166,7 @@
         <v>1.7</v>
       </c>
       <c r="AP145">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ145">
         <v>1.29</v>
@@ -31572,10 +31578,10 @@
         <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AQ147">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR147">
         <v>1.77</v>
@@ -31987,7 +31993,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ149">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AR149">
         <v>1.59</v>
@@ -32193,7 +32199,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ150">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -33220,7 +33226,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ155">
         <v>1.29</v>
@@ -33426,10 +33432,10 @@
         <v>1.88</v>
       </c>
       <c r="AP156">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AQ156">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -33632,7 +33638,7 @@
         <v>1.52</v>
       </c>
       <c r="AP157">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ157">
         <v>1.48</v>
@@ -34456,10 +34462,10 @@
         <v>1.58</v>
       </c>
       <c r="AP161">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ161">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -34662,7 +34668,7 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AQ162">
         <v>1.29</v>
@@ -34871,7 +34877,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ163">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AR163">
         <v>1.64</v>
@@ -35074,10 +35080,10 @@
         <v>1.7</v>
       </c>
       <c r="AP164">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ164">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35695,7 +35701,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ167">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35898,7 +35904,7 @@
         <v>1.56</v>
       </c>
       <c r="AP168">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AQ168">
         <v>1.48</v>
@@ -36310,7 +36316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP170">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ170">
         <v>1.48</v>
@@ -36928,10 +36934,10 @@
         <v>1.89</v>
       </c>
       <c r="AP173">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ173">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AR173">
         <v>1.75</v>
@@ -37134,7 +37140,7 @@
         <v>1.43</v>
       </c>
       <c r="AP174">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AQ174">
         <v>1.29</v>
@@ -37755,7 +37761,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ177">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR177">
         <v>1.68</v>
@@ -37961,7 +37967,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ178">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -38370,10 +38376,10 @@
         <v>1.9</v>
       </c>
       <c r="AP180">
+        <v>1.94</v>
+      </c>
+      <c r="AQ180">
         <v>1.9</v>
-      </c>
-      <c r="AQ180">
-        <v>1.87</v>
       </c>
       <c r="AR180">
         <v>1.74</v>
@@ -39479,6 +39485,418 @@
       </c>
       <c r="BP185">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7861641</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>77</v>
+      </c>
+      <c r="H186" t="s">
+        <v>79</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>4</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186" t="s">
+        <v>87</v>
+      </c>
+      <c r="P186" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q186">
+        <v>3.8</v>
+      </c>
+      <c r="R186">
+        <v>2.25</v>
+      </c>
+      <c r="S186">
+        <v>2.55</v>
+      </c>
+      <c r="T186">
+        <v>1.33</v>
+      </c>
+      <c r="U186">
+        <v>2.93</v>
+      </c>
+      <c r="V186">
+        <v>2.9</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>7</v>
+      </c>
+      <c r="Y186">
+        <v>1.09</v>
+      </c>
+      <c r="Z186">
+        <v>3.61</v>
+      </c>
+      <c r="AA186">
+        <v>3.55</v>
+      </c>
+      <c r="AB186">
+        <v>1.96</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>9.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.23</v>
+      </c>
+      <c r="AF186">
+        <v>3.5</v>
+      </c>
+      <c r="AG186">
+        <v>1.91</v>
+      </c>
+      <c r="AH186">
+        <v>1.91</v>
+      </c>
+      <c r="AI186">
+        <v>1.65</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.28</v>
+      </c>
+      <c r="AL186">
+        <v>1.22</v>
+      </c>
+      <c r="AM186">
+        <v>1.3</v>
+      </c>
+      <c r="AN186">
+        <v>1.6</v>
+      </c>
+      <c r="AO186">
+        <v>1.9</v>
+      </c>
+      <c r="AP186">
+        <v>1.55</v>
+      </c>
+      <c r="AQ186">
+        <v>1.94</v>
+      </c>
+      <c r="AR186">
+        <v>1.37</v>
+      </c>
+      <c r="AS186">
+        <v>1.74</v>
+      </c>
+      <c r="AT186">
+        <v>3.11</v>
+      </c>
+      <c r="AU186">
+        <v>2</v>
+      </c>
+      <c r="AV186">
+        <v>10</v>
+      </c>
+      <c r="AW186">
+        <v>5</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>10</v>
+      </c>
+      <c r="AZ186">
+        <v>16</v>
+      </c>
+      <c r="BA186">
+        <v>3</v>
+      </c>
+      <c r="BB186">
+        <v>4</v>
+      </c>
+      <c r="BC186">
+        <v>7</v>
+      </c>
+      <c r="BD186">
+        <v>2.68</v>
+      </c>
+      <c r="BE186">
+        <v>7.4</v>
+      </c>
+      <c r="BF186">
+        <v>1.8</v>
+      </c>
+      <c r="BG186">
+        <v>1.26</v>
+      </c>
+      <c r="BH186">
+        <v>3.22</v>
+      </c>
+      <c r="BI186">
+        <v>1.53</v>
+      </c>
+      <c r="BJ186">
+        <v>2.35</v>
+      </c>
+      <c r="BK186">
+        <v>1.96</v>
+      </c>
+      <c r="BL186">
+        <v>1.73</v>
+      </c>
+      <c r="BM186">
+        <v>2.48</v>
+      </c>
+      <c r="BN186">
+        <v>1.5</v>
+      </c>
+      <c r="BO186">
+        <v>3.2</v>
+      </c>
+      <c r="BP186">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7861642</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45796.58333333334</v>
+      </c>
+      <c r="F187">
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>80</v>
+      </c>
+      <c r="H187" t="s">
+        <v>81</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>182</v>
+      </c>
+      <c r="P187" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q187">
+        <v>2.85</v>
+      </c>
+      <c r="R187">
+        <v>2.43</v>
+      </c>
+      <c r="S187">
+        <v>2.96</v>
+      </c>
+      <c r="T187">
+        <v>1.27</v>
+      </c>
+      <c r="U187">
+        <v>3.4</v>
+      </c>
+      <c r="V187">
+        <v>2.26</v>
+      </c>
+      <c r="W187">
+        <v>1.69</v>
+      </c>
+      <c r="X187">
+        <v>4.4</v>
+      </c>
+      <c r="Y187">
+        <v>1.16</v>
+      </c>
+      <c r="Z187">
+        <v>2.1</v>
+      </c>
+      <c r="AA187">
+        <v>3.95</v>
+      </c>
+      <c r="AB187">
+        <v>2.94</v>
+      </c>
+      <c r="AC187">
+        <v>1.02</v>
+      </c>
+      <c r="AD187">
+        <v>10</v>
+      </c>
+      <c r="AE187">
+        <v>1.12</v>
+      </c>
+      <c r="AF187">
+        <v>5.2</v>
+      </c>
+      <c r="AG187">
+        <v>1.47</v>
+      </c>
+      <c r="AH187">
+        <v>2.7</v>
+      </c>
+      <c r="AI187">
+        <v>1.41</v>
+      </c>
+      <c r="AJ187">
+        <v>2.81</v>
+      </c>
+      <c r="AK187">
+        <v>1.29</v>
+      </c>
+      <c r="AL187">
+        <v>1.22</v>
+      </c>
+      <c r="AM187">
+        <v>1.65</v>
+      </c>
+      <c r="AN187">
+        <v>1.6</v>
+      </c>
+      <c r="AO187">
+        <v>1.87</v>
+      </c>
+      <c r="AP187">
+        <v>1.55</v>
+      </c>
+      <c r="AQ187">
+        <v>1.9</v>
+      </c>
+      <c r="AR187">
+        <v>1.74</v>
+      </c>
+      <c r="AS187">
+        <v>1.74</v>
+      </c>
+      <c r="AT187">
+        <v>3.48</v>
+      </c>
+      <c r="AU187">
+        <v>9</v>
+      </c>
+      <c r="AV187">
+        <v>5</v>
+      </c>
+      <c r="AW187">
+        <v>16</v>
+      </c>
+      <c r="AX187">
+        <v>6</v>
+      </c>
+      <c r="AY187">
+        <v>25</v>
+      </c>
+      <c r="AZ187">
+        <v>11</v>
+      </c>
+      <c r="BA187">
+        <v>10</v>
+      </c>
+      <c r="BB187">
+        <v>3</v>
+      </c>
+      <c r="BC187">
+        <v>13</v>
+      </c>
+      <c r="BD187">
+        <v>1.83</v>
+      </c>
+      <c r="BE187">
+        <v>6.5</v>
+      </c>
+      <c r="BF187">
+        <v>2.24</v>
+      </c>
+      <c r="BG187">
+        <v>1.15</v>
+      </c>
+      <c r="BH187">
+        <v>4.2</v>
+      </c>
+      <c r="BI187">
+        <v>1.34</v>
+      </c>
+      <c r="BJ187">
+        <v>2.98</v>
+      </c>
+      <c r="BK187">
+        <v>1.71</v>
+      </c>
+      <c r="BL187">
+        <v>2.25</v>
+      </c>
+      <c r="BM187">
+        <v>1.93</v>
+      </c>
+      <c r="BN187">
+        <v>1.75</v>
+      </c>
+      <c r="BO187">
+        <v>2.4</v>
+      </c>
+      <c r="BP187">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -39845,7 +39845,7 @@
         <v>6</v>
       </c>
       <c r="AY187">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AZ187">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,24 @@
     <t>['7', '24', '42', '66', '84']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['27', '62', '76']</t>
+  </si>
+  <si>
+    <t>['55', '90']</t>
+  </si>
+  <si>
+    <t>['2', '48', '59']</t>
+  </si>
+  <si>
+    <t>['13', '84', '90']</t>
+  </si>
+  <si>
+    <t>['13', '31']</t>
+  </si>
+  <si>
     <t>['53', '59', '90+2']</t>
   </si>
   <si>
@@ -1010,6 +1028,18 @@
   </si>
   <si>
     <t>['47', '70']</t>
+  </si>
+  <si>
+    <t>['23', '30']</t>
+  </si>
+  <si>
+    <t>['62', '66', '83']</t>
+  </si>
+  <si>
+    <t>['37', '73']</t>
+  </si>
+  <si>
+    <t>['9', '44', '52']</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1917,7 +1947,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ3">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2120,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2248,7 +2278,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2326,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2454,7 +2484,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2535,7 +2565,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2660,7 +2690,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2738,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -3072,7 +3102,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3359,7 +3389,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3484,7 +3514,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3690,7 +3720,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3768,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ12">
         <v>0.8100000000000001</v>
@@ -4180,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ14">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -4386,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ15">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4592,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR16">
         <v>1.37</v>
@@ -4720,7 +4750,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4798,10 +4828,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4926,7 +4956,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -5004,10 +5034,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -5132,7 +5162,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5210,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR19">
         <v>1.07</v>
@@ -5416,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ20">
         <v>0.88</v>
@@ -5750,7 +5780,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5956,7 +5986,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6162,7 +6192,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6368,7 +6398,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6449,7 +6479,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR25">
         <v>0.91</v>
@@ -6574,7 +6604,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6652,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
         <v>1.25</v>
@@ -6780,7 +6810,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6861,7 +6891,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6986,7 +7016,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7064,10 +7094,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ28">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR28">
         <v>1.19</v>
@@ -7192,7 +7222,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7270,10 +7300,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ29">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -7398,7 +7428,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7479,7 +7509,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.16</v>
@@ -7682,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ31">
         <v>0.88</v>
@@ -7810,7 +7840,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8016,7 +8046,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8094,10 +8124,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ33">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -8222,7 +8252,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8300,7 +8330,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ34">
         <v>1.44</v>
@@ -8428,7 +8458,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8634,7 +8664,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8715,7 +8745,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.69</v>
@@ -9124,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
         <v>0.88</v>
@@ -9252,7 +9282,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9330,10 +9360,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ39">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR39">
         <v>1.84</v>
@@ -9458,7 +9488,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9539,7 +9569,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
         <v>1.35</v>
@@ -9664,7 +9694,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -9742,10 +9772,10 @@
         <v>2.33</v>
       </c>
       <c r="AP41">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.87</v>
@@ -9870,7 +9900,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9948,7 +9978,7 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
         <v>1.25</v>
@@ -10157,7 +10187,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10282,7 +10312,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10488,7 +10518,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10566,7 +10596,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ45">
         <v>1.75</v>
@@ -10694,7 +10724,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10772,7 +10802,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ46">
         <v>1.44</v>
@@ -10900,7 +10930,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10978,10 +11008,10 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ47">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -11187,7 +11217,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ48">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR48">
         <v>1.96</v>
@@ -11393,7 +11423,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11518,7 +11548,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11599,7 +11629,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ50">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR50">
         <v>1.51</v>
@@ -11930,7 +11960,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12214,7 +12244,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
         <v>0.8100000000000001</v>
@@ -12342,7 +12372,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12420,10 +12450,10 @@
         <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ54">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12626,10 +12656,10 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ55">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12754,7 +12784,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12832,10 +12862,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -13038,10 +13068,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ57">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR57">
         <v>1.87</v>
@@ -13247,7 +13277,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ58">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR58">
         <v>1.05</v>
@@ -13372,7 +13402,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13450,7 +13480,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
         <v>1.44</v>
@@ -13578,7 +13608,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13656,7 +13686,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60">
         <v>1.75</v>
@@ -13784,7 +13814,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13865,7 +13895,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ61">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.74</v>
@@ -13990,7 +14020,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -14068,10 +14098,10 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ62">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -14196,7 +14226,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14277,7 +14307,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14402,7 +14432,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14608,7 +14638,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15020,7 +15050,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15098,7 +15128,7 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67">
         <v>1.75</v>
@@ -15304,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ68">
         <v>0.88</v>
@@ -15510,10 +15540,10 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR69">
         <v>1.17</v>
@@ -15638,7 +15668,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15719,7 +15749,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.17</v>
@@ -16050,7 +16080,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16334,10 +16364,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16540,10 +16570,10 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ74">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -16952,7 +16982,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ76">
         <v>0.5600000000000001</v>
@@ -17080,7 +17110,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17161,7 +17191,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ77">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17364,7 +17394,7 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ78">
         <v>0.8100000000000001</v>
@@ -17573,7 +17603,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR79">
         <v>1.38</v>
@@ -17698,7 +17728,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17779,7 +17809,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.37</v>
@@ -17904,7 +17934,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17985,7 +18015,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR81">
         <v>1.65</v>
@@ -18110,7 +18140,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -18188,10 +18218,10 @@
         <v>1.14</v>
       </c>
       <c r="AP82">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.78</v>
@@ -18316,7 +18346,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18394,7 +18424,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ83">
         <v>0.5600000000000001</v>
@@ -18522,7 +18552,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18728,7 +18758,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18806,7 +18836,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ85">
         <v>1.44</v>
@@ -19012,10 +19042,10 @@
         <v>0.43</v>
       </c>
       <c r="AP86">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ86">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19218,10 +19248,10 @@
         <v>1.86</v>
       </c>
       <c r="AP87">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19346,7 +19376,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -19424,10 +19454,10 @@
         <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR88">
         <v>1.19</v>
@@ -19758,7 +19788,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19836,7 +19866,7 @@
         <v>1.57</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ90">
         <v>1.75</v>
@@ -19964,7 +19994,7 @@
         <v>140</v>
       </c>
       <c r="P91" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q91">
         <v>2.5</v>
@@ -20045,7 +20075,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ91">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR91">
         <v>1.65</v>
@@ -20457,7 +20487,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ93">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR93">
         <v>1.41</v>
@@ -20788,7 +20818,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20869,7 +20899,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR95">
         <v>1.38</v>
@@ -20994,7 +21024,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q96">
         <v>1.73</v>
@@ -21072,7 +21102,7 @@
         <v>0.43</v>
       </c>
       <c r="AP96">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ96">
         <v>0.5600000000000001</v>
@@ -21278,7 +21308,7 @@
         <v>1.43</v>
       </c>
       <c r="AP97">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ97">
         <v>1.44</v>
@@ -21487,7 +21517,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ98">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR98">
         <v>1.56</v>
@@ -21612,7 +21642,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21690,10 +21720,10 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ99">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -21818,7 +21848,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -21899,7 +21929,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR100">
         <v>1.46</v>
@@ -22024,7 +22054,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22102,7 +22132,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ101">
         <v>1.25</v>
@@ -22230,7 +22260,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q102">
         <v>4.33</v>
@@ -22308,7 +22338,7 @@
         <v>1.14</v>
       </c>
       <c r="AP102">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
         <v>0.8100000000000001</v>
@@ -22514,10 +22544,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ103">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR103">
         <v>2.05</v>
@@ -22642,7 +22672,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <v>2.05</v>
@@ -22723,7 +22753,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ104">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR104">
         <v>1.62</v>
@@ -22848,7 +22878,7 @@
         <v>87</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>2.3</v>
@@ -22926,7 +22956,7 @@
         <v>0.13</v>
       </c>
       <c r="AP105">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ105">
         <v>0.88</v>
@@ -23054,7 +23084,7 @@
         <v>160</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -23338,7 +23368,7 @@
         <v>0.38</v>
       </c>
       <c r="AP107">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ107">
         <v>0.5600000000000001</v>
@@ -23466,7 +23496,7 @@
         <v>129</v>
       </c>
       <c r="P108" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q108">
         <v>3.6</v>
@@ -23750,10 +23780,10 @@
         <v>1.78</v>
       </c>
       <c r="AP109">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
         <v>1.19</v>
@@ -23956,10 +23986,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ110">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110">
         <v>1.71</v>
@@ -24084,7 +24114,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24165,7 +24195,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ111">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR111">
         <v>1.63</v>
@@ -24290,7 +24320,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24368,10 +24398,10 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ112">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.42</v>
@@ -24574,7 +24604,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ113">
         <v>1.25</v>
@@ -24702,7 +24732,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24908,7 +24938,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -24989,7 +25019,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ115">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR115">
         <v>1.35</v>
@@ -25114,7 +25144,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25320,7 +25350,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25526,7 +25556,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>2.38</v>
@@ -25732,7 +25762,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25810,10 +25840,10 @@
         <v>1.11</v>
       </c>
       <c r="AP119">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ119">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -26556,7 +26586,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26634,7 +26664,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ123">
         <v>0.5600000000000001</v>
@@ -26762,7 +26792,7 @@
         <v>177</v>
       </c>
       <c r="P124" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26968,7 +26998,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>2.25</v>
@@ -27046,10 +27076,10 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ125">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
         <v>1.82</v>
@@ -27174,7 +27204,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>1.73</v>
@@ -27252,10 +27282,10 @@
         <v>0.7</v>
       </c>
       <c r="AP126">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ126">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
         <v>1.92</v>
@@ -27380,7 +27410,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>3.5</v>
@@ -27461,7 +27491,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ127">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.45</v>
@@ -27586,7 +27616,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>2.25</v>
@@ -27792,7 +27822,7 @@
         <v>181</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>2.25</v>
@@ -27870,10 +27900,10 @@
         <v>1.7</v>
       </c>
       <c r="AP129">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR129">
         <v>1.73</v>
@@ -28076,10 +28106,10 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR130">
         <v>1.23</v>
@@ -28204,7 +28234,7 @@
         <v>183</v>
       </c>
       <c r="P131" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28282,7 +28312,7 @@
         <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ131">
         <v>0.8100000000000001</v>
@@ -28410,7 +28440,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28616,7 +28646,7 @@
         <v>87</v>
       </c>
       <c r="P133" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28697,7 +28727,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ133">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR133">
         <v>1.44</v>
@@ -28822,7 +28852,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28900,10 +28930,10 @@
         <v>1.27</v>
       </c>
       <c r="AP134">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AQ134">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29106,10 +29136,10 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ135">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29234,7 +29264,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29312,10 +29342,10 @@
         <v>0.59</v>
       </c>
       <c r="AP136">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AQ136">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29518,10 +29548,10 @@
         <v>1.59</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.6</v>
@@ -29646,7 +29676,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q138">
         <v>2.75</v>
@@ -29724,10 +29754,10 @@
         <v>1.5</v>
       </c>
       <c r="AP138">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AQ138">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AR138">
         <v>1.7</v>
@@ -29930,10 +29960,10 @@
         <v>1.59</v>
       </c>
       <c r="AP139">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ139">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.77</v>
@@ -30136,10 +30166,10 @@
         <v>1.96</v>
       </c>
       <c r="AP140">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -30264,7 +30294,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30342,10 +30372,10 @@
         <v>0.78</v>
       </c>
       <c r="AP141">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AQ141">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30470,7 +30500,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -30548,10 +30578,10 @@
         <v>0.87</v>
       </c>
       <c r="AP142">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AQ142">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AR142">
         <v>1.42</v>
@@ -30676,7 +30706,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30754,10 +30784,10 @@
         <v>0.91</v>
       </c>
       <c r="AP143">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AQ143">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AR143">
         <v>1.28</v>
@@ -30960,10 +30990,10 @@
         <v>1.91</v>
       </c>
       <c r="AP144">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ144">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR144">
         <v>1.67</v>
@@ -31088,7 +31118,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31166,10 +31196,10 @@
         <v>1.7</v>
       </c>
       <c r="AP145">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AQ145">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31294,7 +31324,7 @@
         <v>194</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>2.9</v>
@@ -31372,10 +31402,10 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AQ146">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31500,7 +31530,7 @@
         <v>109</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31578,10 +31608,10 @@
         <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ147">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AR147">
         <v>1.77</v>
@@ -31784,10 +31814,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AQ148">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -31912,7 +31942,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>2.72</v>
@@ -31990,10 +32020,10 @@
         <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ149">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AR149">
         <v>1.59</v>
@@ -32118,7 +32148,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32196,10 +32226,10 @@
         <v>1.58</v>
       </c>
       <c r="AP150">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ150">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -32402,10 +32432,10 @@
         <v>0.71</v>
       </c>
       <c r="AP151">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ151">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AR151">
         <v>1.3</v>
@@ -32608,10 +32638,10 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AQ152">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32736,7 +32766,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32814,10 +32844,10 @@
         <v>1.48</v>
       </c>
       <c r="AP153">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AQ153">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AR153">
         <v>1.29</v>
@@ -32942,7 +32972,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q154">
         <v>2.7</v>
@@ -33020,10 +33050,10 @@
         <v>0.92</v>
       </c>
       <c r="AP154">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AQ154">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AR154">
         <v>1.22</v>
@@ -33148,7 +33178,7 @@
         <v>201</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q155">
         <v>3.88</v>
@@ -33226,10 +33256,10 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR155">
         <v>1.35</v>
@@ -33354,7 +33384,7 @@
         <v>202</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q156">
         <v>2.9</v>
@@ -33432,10 +33462,10 @@
         <v>1.88</v>
       </c>
       <c r="AP156">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AQ156">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -33638,10 +33668,10 @@
         <v>1.52</v>
       </c>
       <c r="AP157">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AQ157">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR157">
         <v>1.74</v>
@@ -33766,7 +33796,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q158">
         <v>2.96</v>
@@ -33844,10 +33874,10 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AQ158">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AR158">
         <v>1.28</v>
@@ -34050,10 +34080,10 @@
         <v>0.73</v>
       </c>
       <c r="AP159">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AQ159">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AR159">
         <v>1.45</v>
@@ -34178,7 +34208,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34256,10 +34286,10 @@
         <v>1.5</v>
       </c>
       <c r="AP160">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AQ160">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34384,7 +34414,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q161">
         <v>2.26</v>
@@ -34462,10 +34492,10 @@
         <v>1.58</v>
       </c>
       <c r="AP161">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AQ161">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -34590,7 +34620,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34668,10 +34698,10 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AQ162">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR162">
         <v>1.79</v>
@@ -34796,7 +34826,7 @@
         <v>206</v>
       </c>
       <c r="P163" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q163">
         <v>2.94</v>
@@ -34874,10 +34904,10 @@
         <v>1.88</v>
       </c>
       <c r="AP163">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ163">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AR163">
         <v>1.64</v>
@@ -35080,10 +35110,10 @@
         <v>1.7</v>
       </c>
       <c r="AP164">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35286,10 +35316,10 @@
         <v>1.56</v>
       </c>
       <c r="AP165">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AQ165">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AR165">
         <v>1.21</v>
@@ -35414,7 +35444,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35492,10 +35522,10 @@
         <v>1.44</v>
       </c>
       <c r="AP166">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ166">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AR166">
         <v>1.33</v>
@@ -35620,7 +35650,7 @@
         <v>209</v>
       </c>
       <c r="P167" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q167">
         <v>3.5</v>
@@ -35698,10 +35728,10 @@
         <v>1.85</v>
       </c>
       <c r="AP167">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ167">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35904,10 +35934,10 @@
         <v>1.56</v>
       </c>
       <c r="AP168">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AQ168">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR168">
         <v>1.74</v>
@@ -36110,10 +36140,10 @@
         <v>0.67</v>
       </c>
       <c r="AP169">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AQ169">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AR169">
         <v>1.3</v>
@@ -36238,7 +36268,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q170">
         <v>2.78</v>
@@ -36316,10 +36346,10 @@
         <v>1.5</v>
       </c>
       <c r="AP170">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AR170">
         <v>1.34</v>
@@ -36522,10 +36552,10 @@
         <v>1.43</v>
       </c>
       <c r="AP171">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AQ171">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AR171">
         <v>1.22</v>
@@ -36728,10 +36758,10 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AQ172">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AR172">
         <v>1.47</v>
@@ -36856,7 +36886,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>3.2</v>
@@ -36934,10 +36964,10 @@
         <v>1.89</v>
       </c>
       <c r="AP173">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AQ173">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR173">
         <v>1.75</v>
@@ -37062,7 +37092,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q174">
         <v>2.1</v>
@@ -37140,10 +37170,10 @@
         <v>1.43</v>
       </c>
       <c r="AP174">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR174">
         <v>1.78</v>
@@ -37268,7 +37298,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q175">
         <v>3.08</v>
@@ -37346,10 +37376,10 @@
         <v>0.82</v>
       </c>
       <c r="AP175">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ175">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AR175">
         <v>1.33</v>
@@ -37552,10 +37582,10 @@
         <v>1.07</v>
       </c>
       <c r="AP176">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AQ176">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AR176">
         <v>1.5</v>
@@ -37680,7 +37710,7 @@
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>3.3</v>
@@ -37758,10 +37788,10 @@
         <v>1.62</v>
       </c>
       <c r="AP177">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ177">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AR177">
         <v>1.68</v>
@@ -37886,7 +37916,7 @@
         <v>217</v>
       </c>
       <c r="P178" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q178">
         <v>2.95</v>
@@ -37964,10 +37994,10 @@
         <v>1.55</v>
       </c>
       <c r="AP178">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ178">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -38170,10 +38200,10 @@
         <v>0.83</v>
       </c>
       <c r="AP179">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AQ179">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AR179">
         <v>1.45</v>
@@ -38298,7 +38328,7 @@
         <v>219</v>
       </c>
       <c r="P180" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q180">
         <v>2.45</v>
@@ -38376,10 +38406,10 @@
         <v>1.9</v>
       </c>
       <c r="AP180">
+        <v>1.97</v>
+      </c>
+      <c r="AQ180">
         <v>1.94</v>
-      </c>
-      <c r="AQ180">
-        <v>1.9</v>
       </c>
       <c r="AR180">
         <v>1.74</v>
@@ -38582,10 +38612,10 @@
         <v>0.83</v>
       </c>
       <c r="AP181">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AQ181">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AR181">
         <v>1.32</v>
@@ -38788,10 +38818,10 @@
         <v>1.33</v>
       </c>
       <c r="AP182">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AQ182">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR182">
         <v>1.68</v>
@@ -38916,7 +38946,7 @@
         <v>222</v>
       </c>
       <c r="P183" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q183">
         <v>3.02</v>
@@ -38994,10 +39024,10 @@
         <v>1.53</v>
       </c>
       <c r="AP183">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AQ183">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39122,7 +39152,7 @@
         <v>87</v>
       </c>
       <c r="P184" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q184">
         <v>2.21</v>
@@ -39200,10 +39230,10 @@
         <v>0.83</v>
       </c>
       <c r="AP184">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AR184">
         <v>1.47</v>
@@ -39328,7 +39358,7 @@
         <v>223</v>
       </c>
       <c r="P185" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q185">
         <v>3.3</v>
@@ -39406,10 +39436,10 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ185">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="AR185">
         <v>1.33</v>
@@ -39534,7 +39564,7 @@
         <v>87</v>
       </c>
       <c r="P186" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q186">
         <v>3.8</v>
@@ -39612,10 +39642,10 @@
         <v>1.9</v>
       </c>
       <c r="AP186">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ186">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR186">
         <v>1.37</v>
@@ -39740,7 +39770,7 @@
         <v>182</v>
       </c>
       <c r="P187" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>2.85</v>
@@ -39818,10 +39848,10 @@
         <v>1.87</v>
       </c>
       <c r="AP187">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AQ187">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
         <v>1.74</v>
@@ -39897,6 +39927,1242 @@
       </c>
       <c r="BP187">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7861670</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45801.41666666666</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>72</v>
+      </c>
+      <c r="H188" t="s">
+        <v>74</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>3</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>224</v>
+      </c>
+      <c r="P188" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>2.36</v>
+      </c>
+      <c r="S188">
+        <v>2.81</v>
+      </c>
+      <c r="T188">
+        <v>1.25</v>
+      </c>
+      <c r="U188">
+        <v>3.5</v>
+      </c>
+      <c r="V188">
+        <v>2.14</v>
+      </c>
+      <c r="W188">
+        <v>1.65</v>
+      </c>
+      <c r="X188">
+        <v>5</v>
+      </c>
+      <c r="Y188">
+        <v>1.16</v>
+      </c>
+      <c r="Z188">
+        <v>2.75</v>
+      </c>
+      <c r="AA188">
+        <v>3.75</v>
+      </c>
+      <c r="AB188">
+        <v>2.3</v>
+      </c>
+      <c r="AC188">
+        <v>1.03</v>
+      </c>
+      <c r="AD188">
+        <v>11</v>
+      </c>
+      <c r="AE188">
+        <v>1.14</v>
+      </c>
+      <c r="AF188">
+        <v>5</v>
+      </c>
+      <c r="AG188">
+        <v>1.42</v>
+      </c>
+      <c r="AH188">
+        <v>2.5</v>
+      </c>
+      <c r="AI188">
+        <v>1.47</v>
+      </c>
+      <c r="AJ188">
+        <v>2.5</v>
+      </c>
+      <c r="AK188">
+        <v>1.25</v>
+      </c>
+      <c r="AL188">
+        <v>1.22</v>
+      </c>
+      <c r="AM188">
+        <v>1.44</v>
+      </c>
+      <c r="AN188">
+        <v>1.58</v>
+      </c>
+      <c r="AO188">
+        <v>1.42</v>
+      </c>
+      <c r="AP188">
+        <v>1.53</v>
+      </c>
+      <c r="AQ188">
+        <v>1.47</v>
+      </c>
+      <c r="AR188">
+        <v>1.51</v>
+      </c>
+      <c r="AS188">
+        <v>1.51</v>
+      </c>
+      <c r="AT188">
+        <v>3.02</v>
+      </c>
+      <c r="AU188">
+        <v>7</v>
+      </c>
+      <c r="AV188">
+        <v>7</v>
+      </c>
+      <c r="AW188">
+        <v>9</v>
+      </c>
+      <c r="AX188">
+        <v>5</v>
+      </c>
+      <c r="AY188">
+        <v>23</v>
+      </c>
+      <c r="AZ188">
+        <v>14</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>3</v>
+      </c>
+      <c r="BC188">
+        <v>8</v>
+      </c>
+      <c r="BD188">
+        <v>1.98</v>
+      </c>
+      <c r="BE188">
+        <v>7.8</v>
+      </c>
+      <c r="BF188">
+        <v>2.25</v>
+      </c>
+      <c r="BG188">
+        <v>1.22</v>
+      </c>
+      <c r="BH188">
+        <v>3.65</v>
+      </c>
+      <c r="BI188">
+        <v>1.4</v>
+      </c>
+      <c r="BJ188">
+        <v>2.63</v>
+      </c>
+      <c r="BK188">
+        <v>1.89</v>
+      </c>
+      <c r="BL188">
+        <v>2.07</v>
+      </c>
+      <c r="BM188">
+        <v>2.12</v>
+      </c>
+      <c r="BN188">
+        <v>1.67</v>
+      </c>
+      <c r="BO188">
+        <v>2.65</v>
+      </c>
+      <c r="BP188">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7861671</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45801.41666666666</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>75</v>
+      </c>
+      <c r="H189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189" t="s">
+        <v>225</v>
+      </c>
+      <c r="P189" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q189">
+        <v>2.72</v>
+      </c>
+      <c r="R189">
+        <v>2.05</v>
+      </c>
+      <c r="S189">
+        <v>3.3</v>
+      </c>
+      <c r="T189">
+        <v>1.27</v>
+      </c>
+      <c r="U189">
+        <v>3.27</v>
+      </c>
+      <c r="V189">
+        <v>2.3</v>
+      </c>
+      <c r="W189">
+        <v>1.52</v>
+      </c>
+      <c r="X189">
+        <v>4.7</v>
+      </c>
+      <c r="Y189">
+        <v>1.14</v>
+      </c>
+      <c r="Z189">
+        <v>2.2</v>
+      </c>
+      <c r="AA189">
+        <v>3.8</v>
+      </c>
+      <c r="AB189">
+        <v>2.87</v>
+      </c>
+      <c r="AC189">
+        <v>1</v>
+      </c>
+      <c r="AD189">
+        <v>14</v>
+      </c>
+      <c r="AE189">
+        <v>1.18</v>
+      </c>
+      <c r="AF189">
+        <v>4.4</v>
+      </c>
+      <c r="AG189">
+        <v>1.62</v>
+      </c>
+      <c r="AH189">
+        <v>2.25</v>
+      </c>
+      <c r="AI189">
+        <v>1.53</v>
+      </c>
+      <c r="AJ189">
+        <v>2.4</v>
+      </c>
+      <c r="AK189">
+        <v>1.25</v>
+      </c>
+      <c r="AL189">
+        <v>1.22</v>
+      </c>
+      <c r="AM189">
+        <v>1.65</v>
+      </c>
+      <c r="AN189">
+        <v>0.77</v>
+      </c>
+      <c r="AO189">
+        <v>0.77</v>
+      </c>
+      <c r="AP189">
+        <v>0.84</v>
+      </c>
+      <c r="AQ189">
+        <v>0.75</v>
+      </c>
+      <c r="AR189">
+        <v>1.29</v>
+      </c>
+      <c r="AS189">
+        <v>1.33</v>
+      </c>
+      <c r="AT189">
+        <v>2.62</v>
+      </c>
+      <c r="AU189">
+        <v>4</v>
+      </c>
+      <c r="AV189">
+        <v>4</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>10</v>
+      </c>
+      <c r="AY189">
+        <v>10</v>
+      </c>
+      <c r="AZ189">
+        <v>17</v>
+      </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>2</v>
+      </c>
+      <c r="BC189">
+        <v>2</v>
+      </c>
+      <c r="BD189">
+        <v>1.95</v>
+      </c>
+      <c r="BE189">
+        <v>7.5</v>
+      </c>
+      <c r="BF189">
+        <v>2.1</v>
+      </c>
+      <c r="BG189">
+        <v>1.18</v>
+      </c>
+      <c r="BH189">
+        <v>4.05</v>
+      </c>
+      <c r="BI189">
+        <v>1.37</v>
+      </c>
+      <c r="BJ189">
+        <v>2.87</v>
+      </c>
+      <c r="BK189">
+        <v>1.76</v>
+      </c>
+      <c r="BL189">
+        <v>2.2</v>
+      </c>
+      <c r="BM189">
+        <v>1.97</v>
+      </c>
+      <c r="BN189">
+        <v>1.78</v>
+      </c>
+      <c r="BO189">
+        <v>2.45</v>
+      </c>
+      <c r="BP189">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7861672</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45801.41666666666</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>73</v>
+      </c>
+      <c r="H190" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+      <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190" t="s">
+        <v>226</v>
+      </c>
+      <c r="P190" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q190">
+        <v>2.69</v>
+      </c>
+      <c r="R190">
+        <v>2.39</v>
+      </c>
+      <c r="S190">
+        <v>3.4</v>
+      </c>
+      <c r="T190">
+        <v>1.33</v>
+      </c>
+      <c r="U190">
+        <v>3.4</v>
+      </c>
+      <c r="V190">
+        <v>2.17</v>
+      </c>
+      <c r="W190">
+        <v>1.69</v>
+      </c>
+      <c r="X190">
+        <v>4.6</v>
+      </c>
+      <c r="Y190">
+        <v>1.16</v>
+      </c>
+      <c r="Z190">
+        <v>2.2</v>
+      </c>
+      <c r="AA190">
+        <v>3.7</v>
+      </c>
+      <c r="AB190">
+        <v>2.75</v>
+      </c>
+      <c r="AC190">
+        <v>1.02</v>
+      </c>
+      <c r="AD190">
+        <v>14</v>
+      </c>
+      <c r="AE190">
+        <v>1.09</v>
+      </c>
+      <c r="AF190">
+        <v>5</v>
+      </c>
+      <c r="AG190">
+        <v>1.5</v>
+      </c>
+      <c r="AH190">
+        <v>2.5</v>
+      </c>
+      <c r="AI190">
+        <v>1.44</v>
+      </c>
+      <c r="AJ190">
+        <v>2.63</v>
+      </c>
+      <c r="AK190">
+        <v>1.41</v>
+      </c>
+      <c r="AL190">
+        <v>1.22</v>
+      </c>
+      <c r="AM190">
+        <v>1.67</v>
+      </c>
+      <c r="AN190">
+        <v>0.9</v>
+      </c>
+      <c r="AO190">
+        <v>1.1</v>
+      </c>
+      <c r="AP190">
+        <v>0.88</v>
+      </c>
+      <c r="AQ190">
+        <v>1.16</v>
+      </c>
+      <c r="AR190">
+        <v>1.32</v>
+      </c>
+      <c r="AS190">
+        <v>1.33</v>
+      </c>
+      <c r="AT190">
+        <v>2.65</v>
+      </c>
+      <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
+        <v>6</v>
+      </c>
+      <c r="AW190">
+        <v>6</v>
+      </c>
+      <c r="AX190">
+        <v>3</v>
+      </c>
+      <c r="AY190">
+        <v>13</v>
+      </c>
+      <c r="AZ190">
+        <v>9</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>7</v>
+      </c>
+      <c r="BC190">
+        <v>11</v>
+      </c>
+      <c r="BD190">
+        <v>1.95</v>
+      </c>
+      <c r="BE190">
+        <v>6.7</v>
+      </c>
+      <c r="BF190">
+        <v>2.32</v>
+      </c>
+      <c r="BG190">
+        <v>1.17</v>
+      </c>
+      <c r="BH190">
+        <v>4</v>
+      </c>
+      <c r="BI190">
+        <v>1.3</v>
+      </c>
+      <c r="BJ190">
+        <v>2.85</v>
+      </c>
+      <c r="BK190">
+        <v>1.61</v>
+      </c>
+      <c r="BL190">
+        <v>2.2</v>
+      </c>
+      <c r="BM190">
+        <v>1.97</v>
+      </c>
+      <c r="BN190">
+        <v>1.75</v>
+      </c>
+      <c r="BO190">
+        <v>2.4</v>
+      </c>
+      <c r="BP190">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7861644</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>79</v>
+      </c>
+      <c r="H191" t="s">
+        <v>71</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191" t="s">
+        <v>227</v>
+      </c>
+      <c r="P191" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q191">
+        <v>1.8</v>
+      </c>
+      <c r="R191">
+        <v>2.65</v>
+      </c>
+      <c r="S191">
+        <v>5.7</v>
+      </c>
+      <c r="T191">
+        <v>1.18</v>
+      </c>
+      <c r="U191">
+        <v>4.1</v>
+      </c>
+      <c r="V191">
+        <v>1.91</v>
+      </c>
+      <c r="W191">
+        <v>1.86</v>
+      </c>
+      <c r="X191">
+        <v>3.88</v>
+      </c>
+      <c r="Y191">
+        <v>1.18</v>
+      </c>
+      <c r="Z191">
+        <v>1.43</v>
+      </c>
+      <c r="AA191">
+        <v>5.1</v>
+      </c>
+      <c r="AB191">
+        <v>6.64</v>
+      </c>
+      <c r="AC191">
+        <v>1</v>
+      </c>
+      <c r="AD191">
+        <v>20</v>
+      </c>
+      <c r="AE191">
+        <v>1.07</v>
+      </c>
+      <c r="AF191">
+        <v>7.14</v>
+      </c>
+      <c r="AG191">
+        <v>1.33</v>
+      </c>
+      <c r="AH191">
+        <v>2.97</v>
+      </c>
+      <c r="AI191">
+        <v>1.49</v>
+      </c>
+      <c r="AJ191">
+        <v>2.5</v>
+      </c>
+      <c r="AK191">
+        <v>1.13</v>
+      </c>
+      <c r="AL191">
+        <v>1.15</v>
+      </c>
+      <c r="AM191">
+        <v>2.78</v>
+      </c>
+      <c r="AN191">
+        <v>1.94</v>
+      </c>
+      <c r="AO191">
+        <v>1.48</v>
+      </c>
+      <c r="AP191">
+        <v>1.97</v>
+      </c>
+      <c r="AQ191">
+        <v>1.44</v>
+      </c>
+      <c r="AR191">
+        <v>1.75</v>
+      </c>
+      <c r="AS191">
+        <v>1.7</v>
+      </c>
+      <c r="AT191">
+        <v>3.45</v>
+      </c>
+      <c r="AU191">
+        <v>8</v>
+      </c>
+      <c r="AV191">
+        <v>3</v>
+      </c>
+      <c r="AW191">
+        <v>8</v>
+      </c>
+      <c r="AX191">
+        <v>8</v>
+      </c>
+      <c r="AY191">
+        <v>17</v>
+      </c>
+      <c r="AZ191">
+        <v>15</v>
+      </c>
+      <c r="BA191">
+        <v>6</v>
+      </c>
+      <c r="BB191">
+        <v>1</v>
+      </c>
+      <c r="BC191">
+        <v>7</v>
+      </c>
+      <c r="BD191">
+        <v>1.45</v>
+      </c>
+      <c r="BE191">
+        <v>7.7</v>
+      </c>
+      <c r="BF191">
+        <v>3.35</v>
+      </c>
+      <c r="BG191">
+        <v>1.23</v>
+      </c>
+      <c r="BH191">
+        <v>3.05</v>
+      </c>
+      <c r="BI191">
+        <v>1.59</v>
+      </c>
+      <c r="BJ191">
+        <v>2.27</v>
+      </c>
+      <c r="BK191">
+        <v>2.24</v>
+      </c>
+      <c r="BL191">
+        <v>1.75</v>
+      </c>
+      <c r="BM191">
+        <v>2.3</v>
+      </c>
+      <c r="BN191">
+        <v>1.55</v>
+      </c>
+      <c r="BO191">
+        <v>3.22</v>
+      </c>
+      <c r="BP191">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7861643</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>81</v>
+      </c>
+      <c r="H192" t="s">
+        <v>77</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>5</v>
+      </c>
+      <c r="O192" t="s">
+        <v>228</v>
+      </c>
+      <c r="P192" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q192">
+        <v>2.05</v>
+      </c>
+      <c r="R192">
+        <v>2.49</v>
+      </c>
+      <c r="S192">
+        <v>4</v>
+      </c>
+      <c r="T192">
+        <v>1.22</v>
+      </c>
+      <c r="U192">
+        <v>3.7</v>
+      </c>
+      <c r="V192">
+        <v>2</v>
+      </c>
+      <c r="W192">
+        <v>1.7</v>
+      </c>
+      <c r="X192">
+        <v>4.2</v>
+      </c>
+      <c r="Y192">
+        <v>1.17</v>
+      </c>
+      <c r="Z192">
+        <v>1.63</v>
+      </c>
+      <c r="AA192">
+        <v>4.48</v>
+      </c>
+      <c r="AB192">
+        <v>4.65</v>
+      </c>
+      <c r="AC192">
+        <v>1.01</v>
+      </c>
+      <c r="AD192">
+        <v>11</v>
+      </c>
+      <c r="AE192">
+        <v>1.08</v>
+      </c>
+      <c r="AF192">
+        <v>6.25</v>
+      </c>
+      <c r="AG192">
+        <v>1.41</v>
+      </c>
+      <c r="AH192">
+        <v>2.8</v>
+      </c>
+      <c r="AI192">
+        <v>1.44</v>
+      </c>
+      <c r="AJ192">
+        <v>2.6</v>
+      </c>
+      <c r="AK192">
+        <v>1.22</v>
+      </c>
+      <c r="AL192">
+        <v>1.17</v>
+      </c>
+      <c r="AM192">
+        <v>2.3</v>
+      </c>
+      <c r="AN192">
+        <v>1.9</v>
+      </c>
+      <c r="AO192">
+        <v>1.55</v>
+      </c>
+      <c r="AP192">
+        <v>1.94</v>
+      </c>
+      <c r="AQ192">
+        <v>1.5</v>
+      </c>
+      <c r="AR192">
+        <v>1.73</v>
+      </c>
+      <c r="AS192">
+        <v>1.36</v>
+      </c>
+      <c r="AT192">
+        <v>3.09</v>
+      </c>
+      <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>13</v>
+      </c>
+      <c r="AX192">
+        <v>9</v>
+      </c>
+      <c r="AY192">
+        <v>20</v>
+      </c>
+      <c r="AZ192">
+        <v>16</v>
+      </c>
+      <c r="BA192">
+        <v>6</v>
+      </c>
+      <c r="BB192">
+        <v>3</v>
+      </c>
+      <c r="BC192">
+        <v>9</v>
+      </c>
+      <c r="BD192">
+        <v>1.45</v>
+      </c>
+      <c r="BE192">
+        <v>7</v>
+      </c>
+      <c r="BF192">
+        <v>3.14</v>
+      </c>
+      <c r="BG192">
+        <v>1.2</v>
+      </c>
+      <c r="BH192">
+        <v>3.88</v>
+      </c>
+      <c r="BI192">
+        <v>1.31</v>
+      </c>
+      <c r="BJ192">
+        <v>2.92</v>
+      </c>
+      <c r="BK192">
+        <v>1.65</v>
+      </c>
+      <c r="BL192">
+        <v>2.16</v>
+      </c>
+      <c r="BM192">
+        <v>1.98</v>
+      </c>
+      <c r="BN192">
+        <v>1.7</v>
+      </c>
+      <c r="BO192">
+        <v>2.53</v>
+      </c>
+      <c r="BP192">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7861645</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>70</v>
+      </c>
+      <c r="H193" t="s">
+        <v>80</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193">
+        <v>2</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>3</v>
+      </c>
+      <c r="N193">
+        <v>5</v>
+      </c>
+      <c r="O193" t="s">
+        <v>229</v>
+      </c>
+      <c r="P193" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q193">
+        <v>4.02</v>
+      </c>
+      <c r="R193">
+        <v>2.35</v>
+      </c>
+      <c r="S193">
+        <v>2.36</v>
+      </c>
+      <c r="T193">
+        <v>1.32</v>
+      </c>
+      <c r="U193">
+        <v>3.3</v>
+      </c>
+      <c r="V193">
+        <v>2.4</v>
+      </c>
+      <c r="W193">
+        <v>1.55</v>
+      </c>
+      <c r="X193">
+        <v>4.9</v>
+      </c>
+      <c r="Y193">
+        <v>1.13</v>
+      </c>
+      <c r="Z193">
+        <v>3.67</v>
+      </c>
+      <c r="AA193">
+        <v>3.8</v>
+      </c>
+      <c r="AB193">
+        <v>1.91</v>
+      </c>
+      <c r="AC193">
+        <v>1.02</v>
+      </c>
+      <c r="AD193">
+        <v>15</v>
+      </c>
+      <c r="AE193">
+        <v>1.13</v>
+      </c>
+      <c r="AF193">
+        <v>4.7</v>
+      </c>
+      <c r="AG193">
+        <v>1.64</v>
+      </c>
+      <c r="AH193">
+        <v>2.25</v>
+      </c>
+      <c r="AI193">
+        <v>1.5</v>
+      </c>
+      <c r="AJ193">
+        <v>2.39</v>
+      </c>
+      <c r="AK193">
+        <v>1.29</v>
+      </c>
+      <c r="AL193">
+        <v>1.22</v>
+      </c>
+      <c r="AM193">
+        <v>1.3</v>
+      </c>
+      <c r="AN193">
+        <v>1.29</v>
+      </c>
+      <c r="AO193">
+        <v>1.55</v>
+      </c>
+      <c r="AP193">
+        <v>1.25</v>
+      </c>
+      <c r="AQ193">
+        <v>1.59</v>
+      </c>
+      <c r="AR193">
+        <v>1.56</v>
+      </c>
+      <c r="AS193">
+        <v>1.77</v>
+      </c>
+      <c r="AT193">
+        <v>3.33</v>
+      </c>
+      <c r="AU193">
+        <v>10</v>
+      </c>
+      <c r="AV193">
+        <v>10</v>
+      </c>
+      <c r="AW193">
+        <v>11</v>
+      </c>
+      <c r="AX193">
+        <v>4</v>
+      </c>
+      <c r="AY193">
+        <v>25</v>
+      </c>
+      <c r="AZ193">
+        <v>15</v>
+      </c>
+      <c r="BA193">
+        <v>6</v>
+      </c>
+      <c r="BB193">
+        <v>3</v>
+      </c>
+      <c r="BC193">
+        <v>9</v>
+      </c>
+      <c r="BD193">
+        <v>2.2</v>
+      </c>
+      <c r="BE193">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF193">
+        <v>1.91</v>
+      </c>
+      <c r="BG193">
+        <v>1.21</v>
+      </c>
+      <c r="BH193">
+        <v>3.78</v>
+      </c>
+      <c r="BI193">
+        <v>1.4</v>
+      </c>
+      <c r="BJ193">
+        <v>2.55</v>
+      </c>
+      <c r="BK193">
+        <v>1.65</v>
+      </c>
+      <c r="BL193">
+        <v>2.1</v>
+      </c>
+      <c r="BM193">
+        <v>2.05</v>
+      </c>
+      <c r="BN193">
+        <v>1.7</v>
+      </c>
+      <c r="BO193">
+        <v>2.58</v>
+      </c>
+      <c r="BP193">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -322,10 +322,10 @@
     <t>['74']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['33', '35', '71', '74']</t>
   </si>
   <si>
-    <t>['33', '35', '71', '74']</t>
+    <t>['24']</t>
   </si>
   <si>
     <t>['6', '22', '32', '59', '65']</t>
@@ -352,10 +352,10 @@
     <t>['10', '49', '53', '89']</t>
   </si>
   <si>
-    <t>['34', '36']</t>
+    <t>['4', '17', '75']</t>
   </si>
   <si>
-    <t>['4', '17', '75']</t>
+    <t>['34', '36']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -412,10 +412,10 @@
     <t>['24', '50']</t>
   </si>
   <si>
-    <t>['11']</t>
+    <t>['40']</t>
   </si>
   <si>
-    <t>['40']</t>
+    <t>['11']</t>
   </si>
   <si>
     <t>['26']</t>
@@ -475,10 +475,10 @@
     <t>['6']</t>
   </si>
   <si>
-    <t>['72']</t>
+    <t>['8', '89']</t>
   </si>
   <si>
-    <t>['8', '89']</t>
+    <t>['72']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -514,10 +514,10 @@
     <t>['33']</t>
   </si>
   <si>
-    <t>['20', '48', '51', '71']</t>
+    <t>['25', '27', '58']</t>
   </si>
   <si>
-    <t>['25', '27', '58']</t>
+    <t>['20', '48', '51', '71']</t>
   </si>
   <si>
     <t>['50', '77']</t>
@@ -532,10 +532,10 @@
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['35']</t>
+    <t>['14', '32', '44']</t>
   </si>
   <si>
-    <t>['14', '32', '44']</t>
+    <t>['35']</t>
   </si>
   <si>
     <t>['54', '90+2']</t>
@@ -556,7 +556,10 @@
     <t>['48', '59', '69', '90+2']</t>
   </si>
   <si>
-    <t>['26', '77']</t>
+    <t>['42', '44', '81']</t>
+  </si>
+  <si>
+    <t>['48', '60', '66']</t>
   </si>
   <si>
     <t>['5', '14', '18', '74']</t>
@@ -565,10 +568,7 @@
     <t>['63']</t>
   </si>
   <si>
-    <t>['42', '44', '81']</t>
-  </si>
-  <si>
-    <t>['48', '60', '66']</t>
+    <t>['26', '77']</t>
   </si>
   <si>
     <t>['5', '44']</t>
@@ -586,10 +586,10 @@
     <t>['15', '68']</t>
   </si>
   <si>
-    <t>['8', '15']</t>
+    <t>['18', '63']</t>
   </si>
   <si>
-    <t>['18', '63']</t>
+    <t>['8', '15']</t>
   </si>
   <si>
     <t>['45+1']</t>
@@ -661,10 +661,10 @@
     <t>['9', '81']</t>
   </si>
   <si>
-    <t>['48']</t>
+    <t>['31', '88']</t>
   </si>
   <si>
-    <t>['31', '88']</t>
+    <t>['48']</t>
   </si>
   <si>
     <t>['28']</t>
@@ -748,10 +748,10 @@
     <t>['65', '90+6']</t>
   </si>
   <si>
-    <t>['28', '48']</t>
+    <t>['31']</t>
   </si>
   <si>
-    <t>['31']</t>
+    <t>['28', '48']</t>
   </si>
   <si>
     <t>['58']</t>
@@ -778,10 +778,10 @@
     <t>['11', '16']</t>
   </si>
   <si>
-    <t>['52', '72']</t>
+    <t>['61']</t>
   </si>
   <si>
-    <t>['61']</t>
+    <t>['52', '72']</t>
   </si>
   <si>
     <t>['4', '44', '77']</t>
@@ -817,10 +817,10 @@
     <t>['55', '83']</t>
   </si>
   <si>
-    <t>['24', '36', '85', '90+3']</t>
+    <t>['66']</t>
   </si>
   <si>
-    <t>['66']</t>
+    <t>['24', '36', '85', '90+3']</t>
   </si>
   <si>
     <t>['68']</t>
@@ -865,10 +865,10 @@
     <t>['39', '49']</t>
   </si>
   <si>
-    <t>['68', '90+5']</t>
+    <t>['45', '63']</t>
   </si>
   <si>
-    <t>['45', '63']</t>
+    <t>['68', '90+5']</t>
   </si>
   <si>
     <t>['37', '84', '89']</t>
@@ -901,10 +901,10 @@
     <t>['18']</t>
   </si>
   <si>
-    <t>['16', '67', '90+7']</t>
+    <t>['52']</t>
   </si>
   <si>
-    <t>['52']</t>
+    <t>['16', '67', '90+7']</t>
   </si>
   <si>
     <t>['76']</t>
@@ -922,10 +922,7 @@
     <t>['54', '74']</t>
   </si>
   <si>
-    <t>['11', '36']</t>
-  </si>
-  <si>
-    <t>['50', '59']</t>
+    <t>['12', '47', '60']</t>
   </si>
   <si>
     <t>['31', '89']</t>
@@ -934,7 +931,10 @@
     <t>['26', '41']</t>
   </si>
   <si>
-    <t>['12', '47', '60']</t>
+    <t>['50', '59']</t>
+  </si>
+  <si>
+    <t>['11', '36']</t>
   </si>
   <si>
     <t>['21', '41', '64', '90+5']</t>
@@ -1015,10 +1015,10 @@
     <t>['24', '47', '64']</t>
   </si>
   <si>
-    <t>['45+5', '90', '90+5']</t>
+    <t>['45+2']</t>
   </si>
   <si>
-    <t>['45+2']</t>
+    <t>['45+5', '90', '90+5']</t>
   </si>
   <si>
     <t>['79']</t>
@@ -3926,7 +3926,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -5532,7 +5532,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7452275</v>
+        <v>7452274</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5547,88 +5547,88 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="Q21">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="R21">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="T21">
+        <v>1.33</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>2.45</v>
+      </c>
+      <c r="W21">
+        <v>1.48</v>
+      </c>
+      <c r="X21">
+        <v>6.2</v>
+      </c>
+      <c r="Y21">
+        <v>1.1</v>
+      </c>
+      <c r="Z21">
+        <v>1.9</v>
+      </c>
+      <c r="AA21">
+        <v>3.4</v>
+      </c>
+      <c r="AB21">
+        <v>4.1</v>
+      </c>
+      <c r="AC21">
+        <v>1.05</v>
+      </c>
+      <c r="AD21">
+        <v>9.5</v>
+      </c>
+      <c r="AE21">
         <v>1.25</v>
       </c>
-      <c r="U21">
-        <v>3.55</v>
-      </c>
-      <c r="V21">
-        <v>2.15</v>
-      </c>
-      <c r="W21">
-        <v>1.62</v>
-      </c>
-      <c r="X21">
-        <v>4.4</v>
-      </c>
-      <c r="Y21">
-        <v>1.17</v>
-      </c>
-      <c r="Z21">
-        <v>1.33</v>
-      </c>
-      <c r="AA21">
-        <v>5</v>
-      </c>
-      <c r="AB21">
-        <v>9</v>
-      </c>
-      <c r="AC21">
-        <v>1.02</v>
-      </c>
-      <c r="AD21">
-        <v>20</v>
-      </c>
-      <c r="AE21">
-        <v>1.17</v>
-      </c>
       <c r="AF21">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="AG21">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="AH21">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="AI21">
         <v>1.75</v>
@@ -5637,100 +5637,100 @@
         <v>2</v>
       </c>
       <c r="AK21">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="AL21">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AM21">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>0.5600000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="AR21">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="AS21">
-        <v>0.8100000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="AT21">
-        <v>2.25</v>
+        <v>2.93</v>
       </c>
       <c r="AU21">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV21">
         <v>4</v>
       </c>
       <c r="AW21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY21">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA21">
         <v>12</v>
       </c>
       <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>12</v>
+      </c>
+      <c r="BD21">
+        <v>1.64</v>
+      </c>
+      <c r="BE21">
+        <v>7.6</v>
+      </c>
+      <c r="BF21">
+        <v>2.86</v>
+      </c>
+      <c r="BG21">
+        <v>1.24</v>
+      </c>
+      <c r="BH21">
+        <v>3.55</v>
+      </c>
+      <c r="BI21">
+        <v>1.49</v>
+      </c>
+      <c r="BJ21">
+        <v>2.45</v>
+      </c>
+      <c r="BK21">
+        <v>2.25</v>
+      </c>
+      <c r="BL21">
+        <v>1.98</v>
+      </c>
+      <c r="BM21">
+        <v>2.25</v>
+      </c>
+      <c r="BN21">
+        <v>1.59</v>
+      </c>
+      <c r="BO21">
         <v>3</v>
       </c>
-      <c r="BC21">
-        <v>15</v>
-      </c>
-      <c r="BD21">
-        <v>1.28</v>
-      </c>
-      <c r="BE21">
-        <v>10.5</v>
-      </c>
-      <c r="BF21">
-        <v>4.66</v>
-      </c>
-      <c r="BG21">
-        <v>1.13</v>
-      </c>
-      <c r="BH21">
-        <v>4.75</v>
-      </c>
-      <c r="BI21">
-        <v>1.28</v>
-      </c>
-      <c r="BJ21">
-        <v>3.2</v>
-      </c>
-      <c r="BK21">
-        <v>1.91</v>
-      </c>
-      <c r="BL21">
-        <v>2.34</v>
-      </c>
-      <c r="BM21">
-        <v>1.98</v>
-      </c>
-      <c r="BN21">
-        <v>1.82</v>
-      </c>
-      <c r="BO21">
-        <v>2.41</v>
-      </c>
       <c r="BP21">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5738,7 +5738,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7452274</v>
+        <v>7452275</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5753,88 +5753,88 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="Q22">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="R22">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="S22">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="T22">
+        <v>1.25</v>
+      </c>
+      <c r="U22">
+        <v>3.55</v>
+      </c>
+      <c r="V22">
+        <v>2.15</v>
+      </c>
+      <c r="W22">
+        <v>1.62</v>
+      </c>
+      <c r="X22">
+        <v>4.4</v>
+      </c>
+      <c r="Y22">
+        <v>1.17</v>
+      </c>
+      <c r="Z22">
         <v>1.33</v>
       </c>
-      <c r="U22">
-        <v>3</v>
-      </c>
-      <c r="V22">
-        <v>2.45</v>
-      </c>
-      <c r="W22">
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>9</v>
+      </c>
+      <c r="AC22">
+        <v>1.02</v>
+      </c>
+      <c r="AD22">
+        <v>20</v>
+      </c>
+      <c r="AE22">
+        <v>1.17</v>
+      </c>
+      <c r="AF22">
+        <v>5</v>
+      </c>
+      <c r="AG22">
         <v>1.48</v>
       </c>
-      <c r="X22">
-        <v>6.2</v>
-      </c>
-      <c r="Y22">
-        <v>1.1</v>
-      </c>
-      <c r="Z22">
-        <v>1.9</v>
-      </c>
-      <c r="AA22">
-        <v>3.4</v>
-      </c>
-      <c r="AB22">
-        <v>4.1</v>
-      </c>
-      <c r="AC22">
-        <v>1.05</v>
-      </c>
-      <c r="AD22">
-        <v>9.5</v>
-      </c>
-      <c r="AE22">
-        <v>1.25</v>
-      </c>
-      <c r="AF22">
-        <v>3.95</v>
-      </c>
-      <c r="AG22">
-        <v>1.95</v>
-      </c>
       <c r="AH22">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="AI22">
         <v>1.75</v>
@@ -5843,100 +5843,100 @@
         <v>2</v>
       </c>
       <c r="AK22">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="AL22">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AM22">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="AQ22">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR22">
         <v>1.44</v>
       </c>
-      <c r="AR22">
-        <v>1.14</v>
-      </c>
       <c r="AS22">
-        <v>1.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT22">
-        <v>2.93</v>
+        <v>2.25</v>
       </c>
       <c r="AU22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV22">
         <v>4</v>
       </c>
       <c r="AW22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY22">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA22">
         <v>12</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD22">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="BE22">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="BF22">
-        <v>2.86</v>
+        <v>4.66</v>
       </c>
       <c r="BG22">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="BH22">
-        <v>3.55</v>
+        <v>4.75</v>
       </c>
       <c r="BI22">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="BJ22">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="BK22">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="BL22">
+        <v>2.34</v>
+      </c>
+      <c r="BM22">
         <v>1.98</v>
       </c>
-      <c r="BM22">
-        <v>2.25</v>
-      </c>
       <c r="BN22">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="BO22">
-        <v>3</v>
+        <v>2.41</v>
       </c>
       <c r="BP22">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -6768,7 +6768,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7452280</v>
+        <v>7452281</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6783,28 +6783,28 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
         <v>102</v>
@@ -6813,160 +6813,160 @@
         <v>244</v>
       </c>
       <c r="Q27">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="R27">
         <v>2.3</v>
       </c>
       <c r="S27">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="T27">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V27">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W27">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z27">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="AA27">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AB27">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="AC27">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD27">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE27">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AF27">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AG27">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AH27">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AI27">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ27">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK27">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="AL27">
         <v>1.22</v>
       </c>
       <c r="AM27">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="AN27">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ27">
-        <v>1.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR27">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AS27">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="AT27">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="AU27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB27">
         <v>3</v>
       </c>
       <c r="BC27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD27">
-        <v>1.5</v>
+        <v>2.81</v>
       </c>
       <c r="BE27">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BF27">
-        <v>3.34</v>
+        <v>1.65</v>
       </c>
       <c r="BG27">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH27">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="BI27">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="BJ27">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="BK27">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL27">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BM27">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="BN27">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="BO27">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="BP27">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6974,7 +6974,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7452281</v>
+        <v>7452280</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6989,28 +6989,28 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
         <v>3</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>5</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
@@ -7019,160 +7019,160 @@
         <v>245</v>
       </c>
       <c r="Q28">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="R28">
         <v>2.3</v>
       </c>
       <c r="S28">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="T28">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U28">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V28">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W28">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y28">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z28">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA28">
+        <v>3.8</v>
+      </c>
+      <c r="AB28">
+        <v>4.75</v>
+      </c>
+      <c r="AC28">
+        <v>1.03</v>
+      </c>
+      <c r="AD28">
+        <v>12.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.27</v>
+      </c>
+      <c r="AF28">
         <v>3.7</v>
       </c>
-      <c r="AB28">
-        <v>2</v>
-      </c>
-      <c r="AC28">
-        <v>1.02</v>
-      </c>
-      <c r="AD28">
-        <v>14.5</v>
-      </c>
-      <c r="AE28">
-        <v>1.22</v>
-      </c>
-      <c r="AF28">
-        <v>4.3</v>
-      </c>
       <c r="AG28">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AH28">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="AI28">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AJ28">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK28">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AL28">
         <v>1.22</v>
       </c>
       <c r="AM28">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>0.6899999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR28">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AS28">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="AT28">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="AU28">
+        <v>8</v>
+      </c>
+      <c r="AV28">
+        <v>6</v>
+      </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>16</v>
+      </c>
+      <c r="AZ28">
+        <v>14</v>
+      </c>
+      <c r="BA28">
         <v>7</v>
-      </c>
-      <c r="AV28">
-        <v>4</v>
-      </c>
-      <c r="AW28">
-        <v>4</v>
-      </c>
-      <c r="AX28">
-        <v>7</v>
-      </c>
-      <c r="AY28">
-        <v>12</v>
-      </c>
-      <c r="AZ28">
-        <v>13</v>
-      </c>
-      <c r="BA28">
-        <v>3</v>
       </c>
       <c r="BB28">
         <v>3</v>
       </c>
       <c r="BC28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD28">
-        <v>2.81</v>
+        <v>1.5</v>
       </c>
       <c r="BE28">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BF28">
-        <v>1.65</v>
+        <v>3.34</v>
       </c>
       <c r="BG28">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH28">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="BI28">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="BJ28">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="BK28">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL28">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BM28">
+        <v>1.8</v>
+      </c>
+      <c r="BN28">
+        <v>1.92</v>
+      </c>
+      <c r="BO28">
         <v>2.25</v>
       </c>
-      <c r="BN28">
+      <c r="BP28">
         <v>1.59</v>
-      </c>
-      <c r="BO28">
-        <v>2.88</v>
-      </c>
-      <c r="BP28">
-        <v>1.35</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -9446,7 +9446,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7452293</v>
+        <v>7452294</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -9461,10 +9461,10 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -9476,10 +9476,10 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>4</v>
@@ -9491,13 +9491,13 @@
         <v>254</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R40">
         <v>2.3</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T40">
         <v>1.33</v>
@@ -9518,133 +9518,133 @@
         <v>1.11</v>
       </c>
       <c r="Z40">
+        <v>2.2</v>
+      </c>
+      <c r="AA40">
+        <v>3.7</v>
+      </c>
+      <c r="AB40">
+        <v>3</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>11</v>
+      </c>
+      <c r="AE40">
+        <v>1.17</v>
+      </c>
+      <c r="AF40">
+        <v>4.5</v>
+      </c>
+      <c r="AG40">
+        <v>1.65</v>
+      </c>
+      <c r="AH40">
+        <v>2.2</v>
+      </c>
+      <c r="AI40">
+        <v>1.53</v>
+      </c>
+      <c r="AJ40">
+        <v>2.38</v>
+      </c>
+      <c r="AK40">
+        <v>1.36</v>
+      </c>
+      <c r="AL40">
+        <v>1.29</v>
+      </c>
+      <c r="AM40">
+        <v>1.7</v>
+      </c>
+      <c r="AN40">
+        <v>1.67</v>
+      </c>
+      <c r="AO40">
+        <v>2.33</v>
+      </c>
+      <c r="AP40">
+        <v>2.19</v>
+      </c>
+      <c r="AQ40">
+        <v>1.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.87</v>
+      </c>
+      <c r="AS40">
+        <v>2.27</v>
+      </c>
+      <c r="AT40">
+        <v>4.14</v>
+      </c>
+      <c r="AU40">
+        <v>5</v>
+      </c>
+      <c r="AV40">
+        <v>9</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>6</v>
+      </c>
+      <c r="AZ40">
+        <v>19</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>10</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>1.87</v>
+      </c>
+      <c r="BE40">
+        <v>7.2</v>
+      </c>
+      <c r="BF40">
         <v>2.4</v>
       </c>
-      <c r="AA40">
-        <v>3.5</v>
-      </c>
-      <c r="AB40">
-        <v>2.75</v>
-      </c>
-      <c r="AC40">
-        <v>1.02</v>
-      </c>
-      <c r="AD40">
-        <v>10</v>
-      </c>
-      <c r="AE40">
-        <v>1.25</v>
-      </c>
-      <c r="AF40">
-        <v>3.6</v>
-      </c>
-      <c r="AG40">
-        <v>1.67</v>
-      </c>
-      <c r="AH40">
-        <v>2.15</v>
-      </c>
-      <c r="AI40">
-        <v>1.57</v>
-      </c>
-      <c r="AJ40">
-        <v>2.25</v>
-      </c>
-      <c r="AK40">
-        <v>1.4</v>
-      </c>
-      <c r="AL40">
-        <v>1.27</v>
-      </c>
-      <c r="AM40">
-        <v>1.5</v>
-      </c>
-      <c r="AN40">
-        <v>0.5</v>
-      </c>
-      <c r="AO40">
-        <v>0.33</v>
-      </c>
-      <c r="AP40">
-        <v>1.25</v>
-      </c>
-      <c r="AQ40">
-        <v>1.06</v>
-      </c>
-      <c r="AR40">
+      <c r="BG40">
+        <v>1.22</v>
+      </c>
+      <c r="BH40">
+        <v>3.75</v>
+      </c>
+      <c r="BI40">
+        <v>1.41</v>
+      </c>
+      <c r="BJ40">
+        <v>2.63</v>
+      </c>
+      <c r="BK40">
+        <v>2.1</v>
+      </c>
+      <c r="BL40">
+        <v>1.98</v>
+      </c>
+      <c r="BM40">
+        <v>2.18</v>
+      </c>
+      <c r="BN40">
+        <v>1.6</v>
+      </c>
+      <c r="BO40">
+        <v>2.88</v>
+      </c>
+      <c r="BP40">
         <v>1.35</v>
-      </c>
-      <c r="AS40">
-        <v>1.16</v>
-      </c>
-      <c r="AT40">
-        <v>2.51</v>
-      </c>
-      <c r="AU40">
-        <v>7</v>
-      </c>
-      <c r="AV40">
-        <v>7</v>
-      </c>
-      <c r="AW40">
-        <v>5</v>
-      </c>
-      <c r="AX40">
-        <v>8</v>
-      </c>
-      <c r="AY40">
-        <v>12</v>
-      </c>
-      <c r="AZ40">
-        <v>22</v>
-      </c>
-      <c r="BA40">
-        <v>7</v>
-      </c>
-      <c r="BB40">
-        <v>9</v>
-      </c>
-      <c r="BC40">
-        <v>16</v>
-      </c>
-      <c r="BD40">
-        <v>1.97</v>
-      </c>
-      <c r="BE40">
-        <v>7.3</v>
-      </c>
-      <c r="BF40">
-        <v>2.2</v>
-      </c>
-      <c r="BG40">
-        <v>1.18</v>
-      </c>
-      <c r="BH40">
-        <v>4.25</v>
-      </c>
-      <c r="BI40">
-        <v>1.34</v>
-      </c>
-      <c r="BJ40">
-        <v>2.95</v>
-      </c>
-      <c r="BK40">
-        <v>2</v>
-      </c>
-      <c r="BL40">
-        <v>2</v>
-      </c>
-      <c r="BM40">
-        <v>1.95</v>
-      </c>
-      <c r="BN40">
-        <v>1.77</v>
-      </c>
-      <c r="BO40">
-        <v>2.6</v>
-      </c>
-      <c r="BP40">
-        <v>1.43</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9652,7 +9652,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7452294</v>
+        <v>7452293</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9667,10 +9667,10 @@
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -9682,10 +9682,10 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41">
         <v>4</v>
@@ -9697,13 +9697,13 @@
         <v>255</v>
       </c>
       <c r="Q41">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R41">
         <v>2.3</v>
       </c>
       <c r="S41">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T41">
         <v>1.33</v>
@@ -9724,133 +9724,133 @@
         <v>1.11</v>
       </c>
       <c r="Z41">
+        <v>2.4</v>
+      </c>
+      <c r="AA41">
+        <v>3.5</v>
+      </c>
+      <c r="AB41">
+        <v>2.75</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>10</v>
+      </c>
+      <c r="AE41">
+        <v>1.25</v>
+      </c>
+      <c r="AF41">
+        <v>3.6</v>
+      </c>
+      <c r="AG41">
+        <v>1.67</v>
+      </c>
+      <c r="AH41">
+        <v>2.15</v>
+      </c>
+      <c r="AI41">
+        <v>1.57</v>
+      </c>
+      <c r="AJ41">
+        <v>2.25</v>
+      </c>
+      <c r="AK41">
+        <v>1.4</v>
+      </c>
+      <c r="AL41">
+        <v>1.27</v>
+      </c>
+      <c r="AM41">
+        <v>1.5</v>
+      </c>
+      <c r="AN41">
+        <v>0.5</v>
+      </c>
+      <c r="AO41">
+        <v>0.33</v>
+      </c>
+      <c r="AP41">
+        <v>1.25</v>
+      </c>
+      <c r="AQ41">
+        <v>1.06</v>
+      </c>
+      <c r="AR41">
+        <v>1.35</v>
+      </c>
+      <c r="AS41">
+        <v>1.16</v>
+      </c>
+      <c r="AT41">
+        <v>2.51</v>
+      </c>
+      <c r="AU41">
+        <v>7</v>
+      </c>
+      <c r="AV41">
+        <v>7</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>22</v>
+      </c>
+      <c r="BA41">
+        <v>7</v>
+      </c>
+      <c r="BB41">
+        <v>9</v>
+      </c>
+      <c r="BC41">
+        <v>16</v>
+      </c>
+      <c r="BD41">
+        <v>1.97</v>
+      </c>
+      <c r="BE41">
+        <v>7.3</v>
+      </c>
+      <c r="BF41">
         <v>2.2</v>
       </c>
-      <c r="AA41">
-        <v>3.7</v>
-      </c>
-      <c r="AB41">
-        <v>3</v>
-      </c>
-      <c r="AC41">
-        <v>1.01</v>
-      </c>
-      <c r="AD41">
-        <v>11</v>
-      </c>
-      <c r="AE41">
-        <v>1.17</v>
-      </c>
-      <c r="AF41">
-        <v>4.5</v>
-      </c>
-      <c r="AG41">
-        <v>1.65</v>
-      </c>
-      <c r="AH41">
-        <v>2.2</v>
-      </c>
-      <c r="AI41">
-        <v>1.53</v>
-      </c>
-      <c r="AJ41">
-        <v>2.38</v>
-      </c>
-      <c r="AK41">
-        <v>1.36</v>
-      </c>
-      <c r="AL41">
-        <v>1.29</v>
-      </c>
-      <c r="AM41">
-        <v>1.7</v>
-      </c>
-      <c r="AN41">
-        <v>1.67</v>
-      </c>
-      <c r="AO41">
-        <v>2.33</v>
-      </c>
-      <c r="AP41">
-        <v>2.19</v>
-      </c>
-      <c r="AQ41">
-        <v>1.5</v>
-      </c>
-      <c r="AR41">
-        <v>1.87</v>
-      </c>
-      <c r="AS41">
-        <v>2.27</v>
-      </c>
-      <c r="AT41">
-        <v>4.14</v>
-      </c>
-      <c r="AU41">
-        <v>5</v>
-      </c>
-      <c r="AV41">
-        <v>9</v>
-      </c>
-      <c r="AW41">
-        <v>1</v>
-      </c>
-      <c r="AX41">
-        <v>6</v>
-      </c>
-      <c r="AY41">
-        <v>6</v>
-      </c>
-      <c r="AZ41">
-        <v>19</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>10</v>
-      </c>
-      <c r="BC41">
-        <v>10</v>
-      </c>
-      <c r="BD41">
-        <v>1.87</v>
-      </c>
-      <c r="BE41">
-        <v>7.2</v>
-      </c>
-      <c r="BF41">
-        <v>2.4</v>
-      </c>
       <c r="BG41">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH41">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="BI41">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BJ41">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="BK41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL41">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BM41">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="BN41">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="BO41">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="BP41">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -10518,7 +10518,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -12990,7 +12990,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -14184,7 +14184,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7452318</v>
+        <v>7452319</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -14199,28 +14199,28 @@
         <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
         <v>132</v>
@@ -14229,160 +14229,160 @@
         <v>267</v>
       </c>
       <c r="Q63">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="R63">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S63">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="T63">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V63">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W63">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X63">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y63">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
-        <v>4.5</v>
+        <v>1.73</v>
       </c>
       <c r="AA63">
         <v>3.9</v>
       </c>
       <c r="AB63">
+        <v>4.75</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>9.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.2</v>
+      </c>
+      <c r="AF63">
+        <v>3.58</v>
+      </c>
+      <c r="AG63">
+        <v>1.73</v>
+      </c>
+      <c r="AH63">
+        <v>2.08</v>
+      </c>
+      <c r="AI63">
         <v>1.7</v>
       </c>
-      <c r="AC63">
-        <v>1.04</v>
-      </c>
-      <c r="AD63">
-        <v>10</v>
-      </c>
-      <c r="AE63">
-        <v>1.13</v>
-      </c>
-      <c r="AF63">
-        <v>4.3</v>
-      </c>
-      <c r="AG63">
-        <v>1.57</v>
-      </c>
-      <c r="AH63">
-        <v>2.35</v>
-      </c>
-      <c r="AI63">
-        <v>1.57</v>
-      </c>
       <c r="AJ63">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AK63">
-        <v>2.02</v>
+        <v>1.18</v>
       </c>
       <c r="AL63">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AM63">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="AN63">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AO63">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR63">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="AT63">
-        <v>3.19</v>
+        <v>2.68</v>
       </c>
       <c r="AU63">
+        <v>2</v>
+      </c>
+      <c r="AV63">
         <v>3</v>
       </c>
-      <c r="AV63">
-        <v>11</v>
-      </c>
       <c r="AW63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY63">
         <v>8</v>
       </c>
       <c r="AZ63">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="BA63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD63">
-        <v>2.91</v>
+        <v>1.51</v>
       </c>
       <c r="BE63">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BF63">
+        <v>3.24</v>
+      </c>
+      <c r="BG63">
+        <v>1.08</v>
+      </c>
+      <c r="BH63">
+        <v>5.2</v>
+      </c>
+      <c r="BI63">
+        <v>1.2</v>
+      </c>
+      <c r="BJ63">
+        <v>3.52</v>
+      </c>
+      <c r="BK63">
+        <v>1.42</v>
+      </c>
+      <c r="BL63">
+        <v>2.57</v>
+      </c>
+      <c r="BM63">
+        <v>1.85</v>
+      </c>
+      <c r="BN63">
+        <v>1.85</v>
+      </c>
+      <c r="BO63">
+        <v>2.14</v>
+      </c>
+      <c r="BP63">
         <v>1.6</v>
-      </c>
-      <c r="BG63">
-        <v>1.15</v>
-      </c>
-      <c r="BH63">
-        <v>4.05</v>
-      </c>
-      <c r="BI63">
-        <v>1.32</v>
-      </c>
-      <c r="BJ63">
-        <v>2.78</v>
-      </c>
-      <c r="BK63">
-        <v>2</v>
-      </c>
-      <c r="BL63">
-        <v>1.95</v>
-      </c>
-      <c r="BM63">
-        <v>2.06</v>
-      </c>
-      <c r="BN63">
-        <v>1.71</v>
-      </c>
-      <c r="BO63">
-        <v>2.64</v>
-      </c>
-      <c r="BP63">
-        <v>1.4</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -14390,7 +14390,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7452319</v>
+        <v>7452318</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14405,28 +14405,28 @@
         <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O64" t="s">
         <v>133</v>
@@ -14435,160 +14435,160 @@
         <v>268</v>
       </c>
       <c r="Q64">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="R64">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S64">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="T64">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U64">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V64">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W64">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X64">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y64">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z64">
-        <v>1.73</v>
+        <v>4.5</v>
       </c>
       <c r="AA64">
         <v>3.9</v>
       </c>
       <c r="AB64">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="AC64">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD64">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE64">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AF64">
-        <v>3.58</v>
+        <v>4.3</v>
       </c>
       <c r="AG64">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AH64">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="AI64">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AJ64">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AK64">
-        <v>1.18</v>
+        <v>2.02</v>
       </c>
       <c r="AL64">
+        <v>1.24</v>
+      </c>
+      <c r="AM64">
         <v>1.25</v>
       </c>
-      <c r="AM64">
-        <v>2.14</v>
-      </c>
       <c r="AN64">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AO64">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR64">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AS64">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="AT64">
-        <v>2.68</v>
+        <v>3.19</v>
       </c>
       <c r="AU64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV64">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX64">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY64">
         <v>8</v>
       </c>
       <c r="AZ64">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BA64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD64">
-        <v>1.51</v>
+        <v>2.91</v>
       </c>
       <c r="BE64">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF64">
-        <v>3.24</v>
+        <v>1.6</v>
       </c>
       <c r="BG64">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="BH64">
-        <v>5.2</v>
+        <v>4.05</v>
       </c>
       <c r="BI64">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="BJ64">
-        <v>3.52</v>
+        <v>2.78</v>
       </c>
       <c r="BK64">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="BL64">
-        <v>2.57</v>
+        <v>1.95</v>
       </c>
       <c r="BM64">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="BN64">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="BO64">
-        <v>2.14</v>
+        <v>2.64</v>
       </c>
       <c r="BP64">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -18964,7 +18964,7 @@
         <v>152</v>
       </c>
       <c r="P86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19128,7 +19128,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7452342</v>
+        <v>7452344</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -19143,43 +19143,43 @@
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O87" t="s">
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="Q87">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R87">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S87">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T87">
         <v>1.33</v>
@@ -19194,73 +19194,73 @@
         <v>1.44</v>
       </c>
       <c r="X87">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y87">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z87">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="AA87">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB87">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AC87">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD87">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE87">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF87">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AG87">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AH87">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AI87">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AJ87">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK87">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AL87">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM87">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AN87">
-        <v>1.71</v>
+        <v>0.86</v>
       </c>
       <c r="AO87">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>1.25</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR87">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AS87">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AT87">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19269,64 +19269,64 @@
         <v>4</v>
       </c>
       <c r="AW87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY87">
         <v>13</v>
       </c>
       <c r="AZ87">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB87">
+        <v>7</v>
+      </c>
+      <c r="BC87">
         <v>8</v>
-      </c>
-      <c r="BC87">
-        <v>11</v>
       </c>
       <c r="BD87">
         <v>2.02</v>
       </c>
       <c r="BE87">
-        <v>6.25</v>
+        <v>5.95</v>
       </c>
       <c r="BF87">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="BG87">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="BH87">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="BI87">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BJ87">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="BK87">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="BL87">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="BM87">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="BN87">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="BO87">
-        <v>2.75</v>
+        <v>2.34</v>
       </c>
       <c r="BP87">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -19334,7 +19334,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7452344</v>
+        <v>7452342</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -19349,43 +19349,43 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O88" t="s">
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>279</v>
+        <v>87</v>
       </c>
       <c r="Q88">
+        <v>3.25</v>
+      </c>
+      <c r="R88">
+        <v>2.25</v>
+      </c>
+      <c r="S88">
         <v>3</v>
-      </c>
-      <c r="R88">
-        <v>2.2</v>
-      </c>
-      <c r="S88">
-        <v>3.4</v>
       </c>
       <c r="T88">
         <v>1.33</v>
@@ -19400,73 +19400,73 @@
         <v>1.44</v>
       </c>
       <c r="X88">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y88">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z88">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="AA88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB88">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AC88">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD88">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE88">
+        <v>1.18</v>
+      </c>
+      <c r="AF88">
+        <v>4.75</v>
+      </c>
+      <c r="AG88">
+        <v>1.73</v>
+      </c>
+      <c r="AH88">
+        <v>2.08</v>
+      </c>
+      <c r="AI88">
+        <v>1.62</v>
+      </c>
+      <c r="AJ88">
+        <v>2.2</v>
+      </c>
+      <c r="AK88">
+        <v>1.57</v>
+      </c>
+      <c r="AL88">
+        <v>1.22</v>
+      </c>
+      <c r="AM88">
+        <v>1.45</v>
+      </c>
+      <c r="AN88">
+        <v>1.71</v>
+      </c>
+      <c r="AO88">
+        <v>1.86</v>
+      </c>
+      <c r="AP88">
+        <v>1.63</v>
+      </c>
+      <c r="AQ88">
         <v>1.25</v>
       </c>
-      <c r="AF88">
-        <v>3.9</v>
-      </c>
-      <c r="AG88">
-        <v>1.8</v>
-      </c>
-      <c r="AH88">
-        <v>2</v>
-      </c>
-      <c r="AI88">
-        <v>1.67</v>
-      </c>
-      <c r="AJ88">
-        <v>2.1</v>
-      </c>
-      <c r="AK88">
-        <v>1.45</v>
-      </c>
-      <c r="AL88">
-        <v>1.25</v>
-      </c>
-      <c r="AM88">
-        <v>1.53</v>
-      </c>
-      <c r="AN88">
-        <v>0.86</v>
-      </c>
-      <c r="AO88">
-        <v>0.71</v>
-      </c>
-      <c r="AP88">
-        <v>1.13</v>
-      </c>
-      <c r="AQ88">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AR88">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AS88">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AT88">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19475,64 +19475,64 @@
         <v>4</v>
       </c>
       <c r="AW88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX88">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY88">
         <v>13</v>
       </c>
       <c r="AZ88">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC88">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD88">
         <v>2.02</v>
       </c>
       <c r="BE88">
-        <v>5.95</v>
+        <v>6.25</v>
       </c>
       <c r="BF88">
+        <v>1.86</v>
+      </c>
+      <c r="BG88">
+        <v>1.26</v>
+      </c>
+      <c r="BH88">
+        <v>3.4</v>
+      </c>
+      <c r="BI88">
+        <v>1.41</v>
+      </c>
+      <c r="BJ88">
+        <v>2.68</v>
+      </c>
+      <c r="BK88">
+        <v>2.1</v>
+      </c>
+      <c r="BL88">
+        <v>2.04</v>
+      </c>
+      <c r="BM88">
         <v>2.12</v>
       </c>
-      <c r="BG88">
-        <v>1.1</v>
-      </c>
-      <c r="BH88">
-        <v>4.75</v>
-      </c>
-      <c r="BI88">
-        <v>1.3</v>
-      </c>
-      <c r="BJ88">
-        <v>3.2</v>
-      </c>
-      <c r="BK88">
-        <v>1.83</v>
-      </c>
-      <c r="BL88">
-        <v>2.35</v>
-      </c>
-      <c r="BM88">
-        <v>1.9</v>
-      </c>
       <c r="BN88">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="BO88">
-        <v>2.34</v>
+        <v>2.75</v>
       </c>
       <c r="BP88">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -20364,7 +20364,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7452348</v>
+        <v>7452347</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20379,10 +20379,10 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -20394,34 +20394,34 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O93" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="P93" t="s">
         <v>87</v>
       </c>
       <c r="Q93">
+        <v>2.1</v>
+      </c>
+      <c r="R93">
+        <v>2.5</v>
+      </c>
+      <c r="S93">
+        <v>5</v>
+      </c>
+      <c r="T93">
+        <v>1.3</v>
+      </c>
+      <c r="U93">
         <v>3.4</v>
-      </c>
-      <c r="R93">
-        <v>2.38</v>
-      </c>
-      <c r="S93">
-        <v>2.75</v>
-      </c>
-      <c r="T93">
-        <v>1.29</v>
-      </c>
-      <c r="U93">
-        <v>3.5</v>
       </c>
       <c r="V93">
         <v>2.38</v>
@@ -20430,25 +20430,25 @@
         <v>1.53</v>
       </c>
       <c r="X93">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y93">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z93">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="AA93">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AB93">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="AC93">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="AD93">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AE93">
         <v>0</v>
@@ -20457,16 +20457,16 @@
         <v>0</v>
       </c>
       <c r="AG93">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AH93">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AI93">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AJ93">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AK93">
         <v>0</v>
@@ -20478,52 +20478,52 @@
         <v>0</v>
       </c>
       <c r="AN93">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AO93">
-        <v>0.75</v>
+        <v>0.14</v>
       </c>
       <c r="AP93">
-        <v>0.8100000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AS93">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AT93">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AU93">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW93">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY93">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ93">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BA93">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BB93">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BC93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD93">
         <v>0</v>
@@ -20547,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="BK93">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BL93">
         <v>0</v>
@@ -20570,7 +20570,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7452347</v>
+        <v>7452348</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20585,10 +20585,10 @@
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -20600,34 +20600,34 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="P94" t="s">
         <v>87</v>
       </c>
       <c r="Q94">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="R94">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S94">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="T94">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U94">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V94">
         <v>2.38</v>
@@ -20636,100 +20636,100 @@
         <v>1.53</v>
       </c>
       <c r="X94">
+        <v>5.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.14</v>
+      </c>
+      <c r="Z94">
+        <v>3.1</v>
+      </c>
+      <c r="AA94">
+        <v>3.6</v>
+      </c>
+      <c r="AB94">
+        <v>2.15</v>
+      </c>
+      <c r="AC94">
+        <v>3.91</v>
+      </c>
+      <c r="AD94">
+        <v>1.27</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>1.53</v>
+      </c>
+      <c r="AH94">
+        <v>2.4</v>
+      </c>
+      <c r="AI94">
+        <v>1.5</v>
+      </c>
+      <c r="AJ94">
+        <v>2.5</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1.43</v>
+      </c>
+      <c r="AO94">
+        <v>0.75</v>
+      </c>
+      <c r="AP94">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ94">
+        <v>1.06</v>
+      </c>
+      <c r="AR94">
+        <v>1.41</v>
+      </c>
+      <c r="AS94">
+        <v>1.39</v>
+      </c>
+      <c r="AT94">
+        <v>2.8</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>5</v>
+      </c>
+      <c r="AX94">
         <v>6</v>
       </c>
-      <c r="Y94">
-        <v>1.13</v>
-      </c>
-      <c r="Z94">
-        <v>1.57</v>
-      </c>
-      <c r="AA94">
-        <v>4.2</v>
-      </c>
-      <c r="AB94">
-        <v>5.25</v>
-      </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AD94">
-        <v>0</v>
-      </c>
-      <c r="AE94">
-        <v>0</v>
-      </c>
-      <c r="AF94">
-        <v>0</v>
-      </c>
-      <c r="AG94">
-        <v>1.6</v>
-      </c>
-      <c r="AH94">
-        <v>2.3</v>
-      </c>
-      <c r="AI94">
-        <v>1.67</v>
-      </c>
-      <c r="AJ94">
-        <v>2.1</v>
-      </c>
-      <c r="AK94">
-        <v>0</v>
-      </c>
-      <c r="AL94">
-        <v>0</v>
-      </c>
-      <c r="AM94">
-        <v>0</v>
-      </c>
-      <c r="AN94">
-        <v>1.57</v>
-      </c>
-      <c r="AO94">
-        <v>0.14</v>
-      </c>
-      <c r="AP94">
-        <v>1.75</v>
-      </c>
-      <c r="AQ94">
-        <v>0.88</v>
-      </c>
-      <c r="AR94">
-        <v>1.44</v>
-      </c>
-      <c r="AS94">
-        <v>1.26</v>
-      </c>
-      <c r="AT94">
-        <v>2.7</v>
-      </c>
-      <c r="AU94">
-        <v>7</v>
-      </c>
-      <c r="AV94">
-        <v>2</v>
-      </c>
-      <c r="AW94">
-        <v>8</v>
-      </c>
-      <c r="AX94">
-        <v>4</v>
-      </c>
       <c r="AY94">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AZ94">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BA94">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BB94">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BC94">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD94">
         <v>0</v>
@@ -20753,7 +20753,7 @@
         <v>0</v>
       </c>
       <c r="BK94">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BL94">
         <v>0</v>
@@ -21600,7 +21600,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7452352</v>
+        <v>7452355</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21615,43 +21615,43 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
         <v>2</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O99" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="P99" t="s">
         <v>283</v>
       </c>
       <c r="Q99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R99">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S99">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T99">
         <v>1.33</v>
@@ -21660,25 +21660,25 @@
         <v>3.25</v>
       </c>
       <c r="V99">
+        <v>2.5</v>
+      </c>
+      <c r="W99">
+        <v>1.5</v>
+      </c>
+      <c r="X99">
+        <v>6.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.11</v>
+      </c>
+      <c r="Z99">
+        <v>2.45</v>
+      </c>
+      <c r="AA99">
+        <v>3.6</v>
+      </c>
+      <c r="AB99">
         <v>2.63</v>
-      </c>
-      <c r="W99">
-        <v>1.44</v>
-      </c>
-      <c r="X99">
-        <v>7</v>
-      </c>
-      <c r="Y99">
-        <v>1.1</v>
-      </c>
-      <c r="Z99">
-        <v>2.4</v>
-      </c>
-      <c r="AA99">
-        <v>3.4</v>
-      </c>
-      <c r="AB99">
-        <v>2.8</v>
       </c>
       <c r="AC99">
         <v>1.04</v>
@@ -21687,118 +21687,118 @@
         <v>10</v>
       </c>
       <c r="AE99">
+        <v>1.2</v>
+      </c>
+      <c r="AF99">
+        <v>4.33</v>
+      </c>
+      <c r="AG99">
+        <v>1.7</v>
+      </c>
+      <c r="AH99">
+        <v>2.1</v>
+      </c>
+      <c r="AI99">
+        <v>1.57</v>
+      </c>
+      <c r="AJ99">
+        <v>2.25</v>
+      </c>
+      <c r="AK99">
+        <v>1.45</v>
+      </c>
+      <c r="AL99">
         <v>1.25</v>
       </c>
-      <c r="AF99">
-        <v>3.95</v>
-      </c>
-      <c r="AG99">
-        <v>1.85</v>
-      </c>
-      <c r="AH99">
-        <v>1.95</v>
-      </c>
-      <c r="AI99">
-        <v>1.7</v>
-      </c>
-      <c r="AJ99">
-        <v>2.05</v>
-      </c>
-      <c r="AK99">
-        <v>1.38</v>
-      </c>
-      <c r="AL99">
-        <v>1.22</v>
-      </c>
       <c r="AM99">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AN99">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="AO99">
-        <v>0.5</v>
+        <v>1.63</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="AQ99">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="AS99">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AT99">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="AU99">
         <v>3</v>
       </c>
       <c r="AV99">
+        <v>6</v>
+      </c>
+      <c r="AW99">
         <v>4</v>
       </c>
-      <c r="AW99">
-        <v>3</v>
-      </c>
       <c r="AX99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ99">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA99">
         <v>2</v>
       </c>
       <c r="BB99">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BC99">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BD99">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
       <c r="BE99">
         <v>6.4</v>
       </c>
       <c r="BF99">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="BG99">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH99">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="BI99">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ99">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="BK99">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="BL99">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="BM99">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="BN99">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BO99">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="BP99">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21806,7 +21806,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7452355</v>
+        <v>7452352</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21821,43 +21821,43 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>2</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O100" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="P100" t="s">
         <v>284</v>
       </c>
       <c r="Q100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R100">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S100">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T100">
         <v>1.33</v>
@@ -21866,25 +21866,25 @@
         <v>3.25</v>
       </c>
       <c r="V100">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W100">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X100">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y100">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z100">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AA100">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB100">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AC100">
         <v>1.04</v>
@@ -21893,118 +21893,118 @@
         <v>10</v>
       </c>
       <c r="AE100">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF100">
-        <v>4.33</v>
+        <v>3.95</v>
       </c>
       <c r="AG100">
+        <v>1.85</v>
+      </c>
+      <c r="AH100">
+        <v>1.95</v>
+      </c>
+      <c r="AI100">
         <v>1.7</v>
       </c>
-      <c r="AH100">
-        <v>2.1</v>
-      </c>
-      <c r="AI100">
-        <v>1.57</v>
-      </c>
       <c r="AJ100">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AK100">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AL100">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM100">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>2</v>
+        <v>0.88</v>
       </c>
       <c r="AO100">
-        <v>1.63</v>
+        <v>0.5</v>
       </c>
       <c r="AP100">
-        <v>1.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AR100">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AS100">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT100">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="AU100">
         <v>3</v>
       </c>
       <c r="AV100">
+        <v>4</v>
+      </c>
+      <c r="AW100">
+        <v>3</v>
+      </c>
+      <c r="AX100">
+        <v>3</v>
+      </c>
+      <c r="AY100">
+        <v>8</v>
+      </c>
+      <c r="AZ100">
+        <v>11</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
+        <v>4</v>
+      </c>
+      <c r="BC100">
         <v>6</v>
       </c>
-      <c r="AW100">
-        <v>4</v>
-      </c>
-      <c r="AX100">
-        <v>6</v>
-      </c>
-      <c r="AY100">
-        <v>10</v>
-      </c>
-      <c r="AZ100">
-        <v>14</v>
-      </c>
-      <c r="BA100">
-        <v>2</v>
-      </c>
-      <c r="BB100">
-        <v>13</v>
-      </c>
-      <c r="BC100">
-        <v>15</v>
-      </c>
       <c r="BD100">
-        <v>2.07</v>
+        <v>1.76</v>
       </c>
       <c r="BE100">
         <v>6.4</v>
       </c>
       <c r="BF100">
-        <v>1.81</v>
+        <v>2.15</v>
       </c>
       <c r="BG100">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="BH100">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="BI100">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BJ100">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BK100">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="BL100">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="BM100">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BN100">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BO100">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="BP100">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -23866,7 +23866,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7452368</v>
+        <v>7452364</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23881,190 +23881,190 @@
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H110" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O110" t="s">
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="Q110">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R110">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="S110">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T110">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U110">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V110">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W110">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y110">
+        <v>1.17</v>
+      </c>
+      <c r="Z110">
+        <v>1.43</v>
+      </c>
+      <c r="AA110">
+        <v>4.8</v>
+      </c>
+      <c r="AB110">
+        <v>6.2</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>17</v>
+      </c>
+      <c r="AE110">
+        <v>1.15</v>
+      </c>
+      <c r="AF110">
+        <v>5.25</v>
+      </c>
+      <c r="AG110">
+        <v>1.47</v>
+      </c>
+      <c r="AH110">
+        <v>2.57</v>
+      </c>
+      <c r="AI110">
+        <v>1.7</v>
+      </c>
+      <c r="AJ110">
+        <v>2.05</v>
+      </c>
+      <c r="AK110">
+        <v>1.09</v>
+      </c>
+      <c r="AL110">
         <v>1.13</v>
       </c>
-      <c r="Z110">
-        <v>1.51</v>
-      </c>
-      <c r="AA110">
-        <v>4.3</v>
-      </c>
-      <c r="AB110">
-        <v>5.7</v>
-      </c>
-      <c r="AC110">
-        <v>1.04</v>
-      </c>
-      <c r="AD110">
-        <v>10</v>
-      </c>
-      <c r="AE110">
-        <v>1.2</v>
-      </c>
-      <c r="AF110">
-        <v>4.33</v>
-      </c>
-      <c r="AG110">
-        <v>1.61</v>
-      </c>
-      <c r="AH110">
-        <v>2.17</v>
-      </c>
-      <c r="AI110">
-        <v>1.75</v>
-      </c>
-      <c r="AJ110">
-        <v>2</v>
-      </c>
-      <c r="AK110">
-        <v>1.12</v>
-      </c>
-      <c r="AL110">
-        <v>1.17</v>
-      </c>
       <c r="AM110">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="AN110">
         <v>2.11</v>
       </c>
       <c r="AO110">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="AQ110">
-        <v>0.6899999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR110">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AS110">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT110">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="AU110">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW110">
         <v>11</v>
       </c>
       <c r="AX110">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY110">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ110">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="BA110">
+        <v>1</v>
+      </c>
+      <c r="BB110">
+        <v>6</v>
+      </c>
+      <c r="BC110">
         <v>7</v>
       </c>
-      <c r="BB110">
-        <v>2</v>
-      </c>
-      <c r="BC110">
-        <v>9</v>
-      </c>
       <c r="BD110">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BE110">
         <v>7.5</v>
       </c>
       <c r="BF110">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="BG110">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BH110">
         <v>3.2</v>
       </c>
       <c r="BI110">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="BJ110">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BK110">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="BL110">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="BM110">
         <v>2.23</v>
       </c>
       <c r="BN110">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="BO110">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BP110">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -24072,7 +24072,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7452364</v>
+        <v>7452368</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -24087,190 +24087,190 @@
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H111" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O111" t="s">
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="Q111">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R111">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="S111">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T111">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U111">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V111">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W111">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="X111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y111">
+        <v>1.13</v>
+      </c>
+      <c r="Z111">
+        <v>1.51</v>
+      </c>
+      <c r="AA111">
+        <v>4.3</v>
+      </c>
+      <c r="AB111">
+        <v>5.7</v>
+      </c>
+      <c r="AC111">
+        <v>1.04</v>
+      </c>
+      <c r="AD111">
+        <v>10</v>
+      </c>
+      <c r="AE111">
+        <v>1.2</v>
+      </c>
+      <c r="AF111">
+        <v>4.33</v>
+      </c>
+      <c r="AG111">
+        <v>1.61</v>
+      </c>
+      <c r="AH111">
+        <v>2.17</v>
+      </c>
+      <c r="AI111">
+        <v>1.75</v>
+      </c>
+      <c r="AJ111">
+        <v>2</v>
+      </c>
+      <c r="AK111">
+        <v>1.12</v>
+      </c>
+      <c r="AL111">
         <v>1.17</v>
       </c>
-      <c r="Z111">
-        <v>1.43</v>
-      </c>
-      <c r="AA111">
-        <v>4.8</v>
-      </c>
-      <c r="AB111">
-        <v>6.2</v>
-      </c>
-      <c r="AC111">
-        <v>1.01</v>
-      </c>
-      <c r="AD111">
-        <v>17</v>
-      </c>
-      <c r="AE111">
-        <v>1.15</v>
-      </c>
-      <c r="AF111">
-        <v>5.25</v>
-      </c>
-      <c r="AG111">
-        <v>1.47</v>
-      </c>
-      <c r="AH111">
-        <v>2.57</v>
-      </c>
-      <c r="AI111">
-        <v>1.7</v>
-      </c>
-      <c r="AJ111">
-        <v>2.05</v>
-      </c>
-      <c r="AK111">
-        <v>1.09</v>
-      </c>
-      <c r="AL111">
-        <v>1.13</v>
-      </c>
       <c r="AM111">
-        <v>2.85</v>
+        <v>2.45</v>
       </c>
       <c r="AN111">
         <v>2.11</v>
       </c>
       <c r="AO111">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="AQ111">
-        <v>1.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR111">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AS111">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AT111">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="AU111">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW111">
         <v>11</v>
       </c>
       <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>26</v>
+      </c>
+      <c r="AZ111">
+        <v>3</v>
+      </c>
+      <c r="BA111">
         <v>7</v>
       </c>
-      <c r="AY111">
-        <v>24</v>
-      </c>
-      <c r="AZ111">
-        <v>16</v>
-      </c>
-      <c r="BA111">
-        <v>1</v>
-      </c>
       <c r="BB111">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC111">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD111">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BE111">
         <v>7.5</v>
       </c>
       <c r="BF111">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="BG111">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BH111">
         <v>3.2</v>
       </c>
       <c r="BI111">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BJ111">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BK111">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="BL111">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BM111">
         <v>2.23</v>
       </c>
       <c r="BN111">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="BO111">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BP111">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -25308,7 +25308,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7452373</v>
+        <v>7452374</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -25323,25 +25323,25 @@
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H117" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N117">
         <v>4</v>
@@ -25353,160 +25353,160 @@
         <v>295</v>
       </c>
       <c r="Q117">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="R117">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S117">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="T117">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U117">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V117">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W117">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X117">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y117">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z117">
-        <v>2.95</v>
+        <v>1.73</v>
       </c>
       <c r="AA117">
-        <v>3.67</v>
+        <v>3.71</v>
       </c>
       <c r="AB117">
-        <v>2.18</v>
+        <v>4.5</v>
       </c>
       <c r="AC117">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD117">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE117">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF117">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AG117">
         <v>1.67</v>
       </c>
       <c r="AH117">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AI117">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ117">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK117">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="AL117">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM117">
+        <v>1.98</v>
+      </c>
+      <c r="AN117">
+        <v>1.56</v>
+      </c>
+      <c r="AO117">
+        <v>0.44</v>
+      </c>
+      <c r="AP117">
+        <v>1.88</v>
+      </c>
+      <c r="AQ117">
+        <v>0.88</v>
+      </c>
+      <c r="AR117">
         <v>1.35</v>
       </c>
-      <c r="AN117">
-        <v>1</v>
-      </c>
-      <c r="AO117">
-        <v>1.44</v>
-      </c>
-      <c r="AP117">
-        <v>1.25</v>
-      </c>
-      <c r="AQ117">
-        <v>1.44</v>
-      </c>
-      <c r="AR117">
-        <v>1.38</v>
-      </c>
       <c r="AS117">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AT117">
-        <v>2.68</v>
+        <v>2.49</v>
       </c>
       <c r="AU117">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV117">
+        <v>3</v>
+      </c>
+      <c r="AW117">
         <v>10</v>
-      </c>
-      <c r="AW117">
-        <v>8</v>
       </c>
       <c r="AX117">
         <v>10</v>
       </c>
       <c r="AY117">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ117">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="BA117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB117">
+        <v>4</v>
+      </c>
+      <c r="BC117">
+        <v>8</v>
+      </c>
+      <c r="BD117">
+        <v>1.57</v>
+      </c>
+      <c r="BE117">
         <v>7</v>
       </c>
-      <c r="BC117">
-        <v>10</v>
-      </c>
-      <c r="BD117">
-        <v>2.17</v>
-      </c>
-      <c r="BE117">
-        <v>6.4</v>
-      </c>
       <c r="BF117">
-        <v>1.84</v>
+        <v>2.65</v>
       </c>
       <c r="BG117">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="BH117">
-        <v>2.85</v>
+        <v>4.1</v>
       </c>
       <c r="BI117">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="BJ117">
-        <v>2.15</v>
+        <v>2.95</v>
       </c>
       <c r="BK117">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="BL117">
-        <v>1.72</v>
+        <v>2.28</v>
       </c>
       <c r="BM117">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="BN117">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="BO117">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="BP117">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="118" spans="1:68">
@@ -25514,7 +25514,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7452374</v>
+        <v>7452373</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25529,25 +25529,25 @@
         <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
         <v>3</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>3</v>
-      </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>1</v>
       </c>
       <c r="N118">
         <v>4</v>
@@ -25559,160 +25559,160 @@
         <v>296</v>
       </c>
       <c r="Q118">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="R118">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S118">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="T118">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U118">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V118">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W118">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X118">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y118">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z118">
-        <v>1.73</v>
+        <v>2.95</v>
       </c>
       <c r="AA118">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="AB118">
-        <v>4.5</v>
+        <v>2.18</v>
       </c>
       <c r="AC118">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD118">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE118">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF118">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AG118">
         <v>1.67</v>
       </c>
       <c r="AH118">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AI118">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ118">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK118">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="AL118">
+        <v>1.28</v>
+      </c>
+      <c r="AM118">
+        <v>1.35</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
+        <v>1.44</v>
+      </c>
+      <c r="AP118">
         <v>1.25</v>
       </c>
-      <c r="AM118">
-        <v>1.98</v>
-      </c>
-      <c r="AN118">
-        <v>1.56</v>
-      </c>
-      <c r="AO118">
-        <v>0.44</v>
-      </c>
-      <c r="AP118">
-        <v>1.88</v>
-      </c>
       <c r="AQ118">
-        <v>0.88</v>
+        <v>1.44</v>
       </c>
       <c r="AR118">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS118">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AT118">
-        <v>2.49</v>
+        <v>2.68</v>
       </c>
       <c r="AU118">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV118">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX118">
         <v>10</v>
       </c>
       <c r="AY118">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ118">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BA118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB118">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC118">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD118">
-        <v>1.57</v>
+        <v>2.17</v>
       </c>
       <c r="BE118">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF118">
-        <v>2.65</v>
+        <v>1.84</v>
       </c>
       <c r="BG118">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="BH118">
-        <v>4.1</v>
+        <v>2.85</v>
       </c>
       <c r="BI118">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="BJ118">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="BK118">
-        <v>1.55</v>
+        <v>1.98</v>
       </c>
       <c r="BL118">
-        <v>2.28</v>
+        <v>1.72</v>
       </c>
       <c r="BM118">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="BN118">
-        <v>1.83</v>
+        <v>1.46</v>
       </c>
       <c r="BO118">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="BP118">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="119" spans="1:68">
@@ -26544,7 +26544,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7452380</v>
+        <v>7452378</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26559,190 +26559,190 @@
         <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H123" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O123" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="Q123">
+        <v>4.75</v>
+      </c>
+      <c r="R123">
         <v>2.38</v>
       </c>
-      <c r="R123">
+      <c r="S123">
+        <v>2.25</v>
+      </c>
+      <c r="T123">
+        <v>1.3</v>
+      </c>
+      <c r="U123">
+        <v>3.4</v>
+      </c>
+      <c r="V123">
+        <v>2.5</v>
+      </c>
+      <c r="W123">
+        <v>1.5</v>
+      </c>
+      <c r="X123">
+        <v>6</v>
+      </c>
+      <c r="Y123">
+        <v>1.13</v>
+      </c>
+      <c r="Z123">
+        <v>3.95</v>
+      </c>
+      <c r="AA123">
+        <v>3.9</v>
+      </c>
+      <c r="AB123">
+        <v>1.78</v>
+      </c>
+      <c r="AC123">
+        <v>1.03</v>
+      </c>
+      <c r="AD123">
+        <v>11</v>
+      </c>
+      <c r="AE123">
+        <v>1.18</v>
+      </c>
+      <c r="AF123">
+        <v>4.75</v>
+      </c>
+      <c r="AG123">
+        <v>1.55</v>
+      </c>
+      <c r="AH123">
         <v>2.2</v>
       </c>
-      <c r="S123">
-        <v>5</v>
-      </c>
-      <c r="T123">
-        <v>1.4</v>
-      </c>
-      <c r="U123">
-        <v>2.75</v>
-      </c>
-      <c r="V123">
-        <v>3</v>
-      </c>
-      <c r="W123">
-        <v>1.36</v>
-      </c>
-      <c r="X123">
+      <c r="AI123">
+        <v>1.67</v>
+      </c>
+      <c r="AJ123">
+        <v>2.1</v>
+      </c>
+      <c r="AK123">
+        <v>2.05</v>
+      </c>
+      <c r="AL123">
+        <v>1.18</v>
+      </c>
+      <c r="AM123">
+        <v>1.22</v>
+      </c>
+      <c r="AN123">
+        <v>1.2</v>
+      </c>
+      <c r="AO123">
+        <v>1.2</v>
+      </c>
+      <c r="AP123">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ123">
+        <v>1.25</v>
+      </c>
+      <c r="AR123">
+        <v>1.31</v>
+      </c>
+      <c r="AS123">
+        <v>1.53</v>
+      </c>
+      <c r="AT123">
+        <v>2.84</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>10</v>
+      </c>
+      <c r="AW123">
+        <v>9</v>
+      </c>
+      <c r="AX123">
+        <v>18</v>
+      </c>
+      <c r="AY123">
+        <v>17</v>
+      </c>
+      <c r="AZ123">
+        <v>35</v>
+      </c>
+      <c r="BA123">
         <v>8</v>
       </c>
-      <c r="Y123">
-        <v>1.08</v>
-      </c>
-      <c r="Z123">
-        <v>1.61</v>
-      </c>
-      <c r="AA123">
-        <v>4</v>
-      </c>
-      <c r="AB123">
-        <v>5</v>
-      </c>
-      <c r="AC123">
-        <v>1.02</v>
-      </c>
-      <c r="AD123">
-        <v>10</v>
-      </c>
-      <c r="AE123">
-        <v>1.29</v>
-      </c>
-      <c r="AF123">
-        <v>3.3</v>
-      </c>
-      <c r="AG123">
-        <v>1.89</v>
-      </c>
-      <c r="AH123">
-        <v>1.85</v>
-      </c>
-      <c r="AI123">
-        <v>1.91</v>
-      </c>
-      <c r="AJ123">
-        <v>1.91</v>
-      </c>
-      <c r="AK123">
-        <v>1.2</v>
-      </c>
-      <c r="AL123">
-        <v>1.26</v>
-      </c>
-      <c r="AM123">
-        <v>2.05</v>
-      </c>
-      <c r="AN123">
-        <v>1.6</v>
-      </c>
-      <c r="AO123">
-        <v>0.4</v>
-      </c>
-      <c r="AP123">
-        <v>1.63</v>
-      </c>
-      <c r="AQ123">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR123">
-        <v>1.29</v>
-      </c>
-      <c r="AS123">
-        <v>1.16</v>
-      </c>
-      <c r="AT123">
-        <v>2.45</v>
-      </c>
-      <c r="AU123">
+      <c r="BB123">
         <v>7</v>
       </c>
-      <c r="AV123">
-        <v>4</v>
-      </c>
-      <c r="AW123">
-        <v>17</v>
-      </c>
-      <c r="AX123">
-        <v>5</v>
-      </c>
-      <c r="AY123">
-        <v>30</v>
-      </c>
-      <c r="AZ123">
-        <v>10</v>
-      </c>
-      <c r="BA123">
-        <v>6</v>
-      </c>
-      <c r="BB123">
-        <v>4</v>
-      </c>
       <c r="BC123">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD123">
-        <v>1.52</v>
+        <v>2.9</v>
       </c>
       <c r="BE123">
         <v>6.75</v>
       </c>
       <c r="BF123">
-        <v>2.8</v>
+        <v>1.48</v>
       </c>
       <c r="BG123">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BH123">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="BI123">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="BJ123">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="BK123">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="BL123">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="BM123">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="BN123">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BO123">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BP123">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26750,7 +26750,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7452378</v>
+        <v>7452380</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26765,190 +26765,190 @@
         <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H124" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>87</v>
+      </c>
+      <c r="P124" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q124">
+        <v>2.38</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>5</v>
+      </c>
+      <c r="T124">
+        <v>1.4</v>
+      </c>
+      <c r="U124">
+        <v>2.75</v>
+      </c>
+      <c r="V124">
         <v>3</v>
       </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124">
+      <c r="W124">
+        <v>1.36</v>
+      </c>
+      <c r="X124">
+        <v>8</v>
+      </c>
+      <c r="Y124">
+        <v>1.08</v>
+      </c>
+      <c r="Z124">
+        <v>1.61</v>
+      </c>
+      <c r="AA124">
         <v>4</v>
       </c>
-      <c r="N124">
+      <c r="AB124">
         <v>5</v>
       </c>
-      <c r="O124" t="s">
-        <v>177</v>
-      </c>
-      <c r="P124" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q124">
-        <v>4.75</v>
-      </c>
-      <c r="R124">
-        <v>2.38</v>
-      </c>
-      <c r="S124">
-        <v>2.25</v>
-      </c>
-      <c r="T124">
-        <v>1.3</v>
-      </c>
-      <c r="U124">
-        <v>3.4</v>
-      </c>
-      <c r="V124">
-        <v>2.5</v>
-      </c>
-      <c r="W124">
-        <v>1.5</v>
-      </c>
-      <c r="X124">
+      <c r="AC124">
+        <v>1.02</v>
+      </c>
+      <c r="AD124">
+        <v>10</v>
+      </c>
+      <c r="AE124">
+        <v>1.29</v>
+      </c>
+      <c r="AF124">
+        <v>3.3</v>
+      </c>
+      <c r="AG124">
+        <v>1.89</v>
+      </c>
+      <c r="AH124">
+        <v>1.85</v>
+      </c>
+      <c r="AI124">
+        <v>1.91</v>
+      </c>
+      <c r="AJ124">
+        <v>1.91</v>
+      </c>
+      <c r="AK124">
+        <v>1.2</v>
+      </c>
+      <c r="AL124">
+        <v>1.26</v>
+      </c>
+      <c r="AM124">
+        <v>2.05</v>
+      </c>
+      <c r="AN124">
+        <v>1.6</v>
+      </c>
+      <c r="AO124">
+        <v>0.4</v>
+      </c>
+      <c r="AP124">
+        <v>1.63</v>
+      </c>
+      <c r="AQ124">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR124">
+        <v>1.29</v>
+      </c>
+      <c r="AS124">
+        <v>1.16</v>
+      </c>
+      <c r="AT124">
+        <v>2.45</v>
+      </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
+      <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>17</v>
+      </c>
+      <c r="AX124">
+        <v>5</v>
+      </c>
+      <c r="AY124">
+        <v>30</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
         <v>6</v>
       </c>
-      <c r="Y124">
-        <v>1.13</v>
-      </c>
-      <c r="Z124">
-        <v>3.95</v>
-      </c>
-      <c r="AA124">
-        <v>3.9</v>
-      </c>
-      <c r="AB124">
-        <v>1.78</v>
-      </c>
-      <c r="AC124">
-        <v>1.03</v>
-      </c>
-      <c r="AD124">
-        <v>11</v>
-      </c>
-      <c r="AE124">
-        <v>1.18</v>
-      </c>
-      <c r="AF124">
-        <v>4.75</v>
-      </c>
-      <c r="AG124">
-        <v>1.55</v>
-      </c>
-      <c r="AH124">
-        <v>2.2</v>
-      </c>
-      <c r="AI124">
-        <v>1.67</v>
-      </c>
-      <c r="AJ124">
-        <v>2.1</v>
-      </c>
-      <c r="AK124">
-        <v>2.05</v>
-      </c>
-      <c r="AL124">
-        <v>1.18</v>
-      </c>
-      <c r="AM124">
-        <v>1.22</v>
-      </c>
-      <c r="AN124">
-        <v>1.2</v>
-      </c>
-      <c r="AO124">
-        <v>1.2</v>
-      </c>
-      <c r="AP124">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AQ124">
-        <v>1.25</v>
-      </c>
-      <c r="AR124">
-        <v>1.31</v>
-      </c>
-      <c r="AS124">
-        <v>1.53</v>
-      </c>
-      <c r="AT124">
-        <v>2.84</v>
-      </c>
-      <c r="AU124">
+      <c r="BB124">
         <v>4</v>
       </c>
-      <c r="AV124">
+      <c r="BC124">
         <v>10</v>
       </c>
-      <c r="AW124">
-        <v>9</v>
-      </c>
-      <c r="AX124">
-        <v>18</v>
-      </c>
-      <c r="AY124">
-        <v>17</v>
-      </c>
-      <c r="AZ124">
-        <v>35</v>
-      </c>
-      <c r="BA124">
-        <v>8</v>
-      </c>
-      <c r="BB124">
-        <v>7</v>
-      </c>
-      <c r="BC124">
-        <v>15</v>
-      </c>
       <c r="BD124">
-        <v>2.9</v>
+        <v>1.52</v>
       </c>
       <c r="BE124">
         <v>6.75</v>
       </c>
       <c r="BF124">
-        <v>1.48</v>
+        <v>2.8</v>
       </c>
       <c r="BG124">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BH124">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI124">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="BJ124">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="BK124">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BL124">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="BM124">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="BN124">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BO124">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="BP124">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -27574,7 +27574,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7452381</v>
+        <v>7452386</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27589,88 +27589,88 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H128" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
         <v>3</v>
       </c>
-      <c r="L128">
-        <v>2</v>
-      </c>
-      <c r="M128">
-        <v>2</v>
-      </c>
       <c r="N128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O128" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="P128" t="s">
         <v>302</v>
       </c>
       <c r="Q128">
+        <v>2.88</v>
+      </c>
+      <c r="R128">
         <v>2.25</v>
       </c>
-      <c r="R128">
-        <v>2.38</v>
-      </c>
       <c r="S128">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T128">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U128">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V128">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W128">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X128">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y128">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z128">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="AA128">
-        <v>4.2</v>
+        <v>3.53</v>
       </c>
       <c r="AB128">
-        <v>5.1</v>
+        <v>3.32</v>
       </c>
       <c r="AC128">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD128">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE128">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF128">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AG128">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="AH128">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="AI128">
         <v>1.62</v>
@@ -27679,100 +27679,100 @@
         <v>2.2</v>
       </c>
       <c r="AK128">
+        <v>1.36</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.61</v>
+      </c>
+      <c r="AN128">
+        <v>0.9</v>
+      </c>
+      <c r="AO128">
+        <v>0.6</v>
+      </c>
+      <c r="AP128">
+        <v>1.25</v>
+      </c>
+      <c r="AQ128">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR128">
+        <v>1.44</v>
+      </c>
+      <c r="AS128">
+        <v>1.17</v>
+      </c>
+      <c r="AT128">
+        <v>2.61</v>
+      </c>
+      <c r="AU128">
+        <v>0</v>
+      </c>
+      <c r="AV128">
+        <v>8</v>
+      </c>
+      <c r="AW128">
+        <v>2</v>
+      </c>
+      <c r="AX128">
+        <v>6</v>
+      </c>
+      <c r="AY128">
+        <v>3</v>
+      </c>
+      <c r="AZ128">
+        <v>16</v>
+      </c>
+      <c r="BA128">
+        <v>2</v>
+      </c>
+      <c r="BB128">
+        <v>7</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>1.8</v>
+      </c>
+      <c r="BE128">
+        <v>8.5</v>
+      </c>
+      <c r="BF128">
+        <v>2.2</v>
+      </c>
+      <c r="BG128">
         <v>1.2</v>
       </c>
-      <c r="AL128">
-        <v>1.23</v>
-      </c>
-      <c r="AM128">
-        <v>2.1</v>
-      </c>
-      <c r="AN128">
-        <v>1.9</v>
-      </c>
-      <c r="AO128">
-        <v>1.6</v>
-      </c>
-      <c r="AP128">
-        <v>1.69</v>
-      </c>
-      <c r="AQ128">
-        <v>1.44</v>
-      </c>
-      <c r="AR128">
-        <v>1.76</v>
-      </c>
-      <c r="AS128">
-        <v>1.41</v>
-      </c>
-      <c r="AT128">
-        <v>3.17</v>
-      </c>
-      <c r="AU128">
-        <v>8</v>
-      </c>
-      <c r="AV128">
-        <v>4</v>
-      </c>
-      <c r="AW128">
-        <v>14</v>
-      </c>
-      <c r="AX128">
-        <v>4</v>
-      </c>
-      <c r="AY128">
-        <v>22</v>
-      </c>
-      <c r="AZ128">
-        <v>8</v>
-      </c>
-      <c r="BA128">
-        <v>7</v>
-      </c>
-      <c r="BB128">
-        <v>1</v>
-      </c>
-      <c r="BC128">
-        <v>8</v>
-      </c>
-      <c r="BD128">
+      <c r="BH128">
+        <v>3.9</v>
+      </c>
+      <c r="BI128">
+        <v>1.38</v>
+      </c>
+      <c r="BJ128">
+        <v>2.7</v>
+      </c>
+      <c r="BK128">
+        <v>1.68</v>
+      </c>
+      <c r="BL128">
+        <v>1.98</v>
+      </c>
+      <c r="BM128">
+        <v>2.15</v>
+      </c>
+      <c r="BN128">
         <v>1.57</v>
       </c>
-      <c r="BE128">
-        <v>9</v>
-      </c>
-      <c r="BF128">
-        <v>2.62</v>
-      </c>
-      <c r="BG128">
-        <v>1.21</v>
-      </c>
-      <c r="BH128">
-        <v>3.8</v>
-      </c>
-      <c r="BI128">
-        <v>1.41</v>
-      </c>
-      <c r="BJ128">
-        <v>2.6</v>
-      </c>
-      <c r="BK128">
-        <v>1.73</v>
-      </c>
-      <c r="BL128">
-        <v>1.93</v>
-      </c>
-      <c r="BM128">
-        <v>2.25</v>
-      </c>
-      <c r="BN128">
-        <v>1.53</v>
-      </c>
       <c r="BO128">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="BP128">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27780,7 +27780,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7452382</v>
+        <v>7452384</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27795,190 +27795,190 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H129" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129">
         <v>3</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M129">
         <v>2</v>
       </c>
       <c r="N129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P129" t="s">
         <v>303</v>
       </c>
       <c r="Q129">
+        <v>5</v>
+      </c>
+      <c r="R129">
         <v>2.25</v>
       </c>
-      <c r="R129">
+      <c r="S129">
         <v>2.3</v>
       </c>
-      <c r="S129">
-        <v>5</v>
-      </c>
       <c r="T129">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U129">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V129">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W129">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X129">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y129">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z129">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="AA129">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="AB129">
-        <v>3.92</v>
+        <v>1.69</v>
       </c>
       <c r="AC129">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD129">
+        <v>9.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.28</v>
+      </c>
+      <c r="AF129">
+        <v>3.6</v>
+      </c>
+      <c r="AG129">
+        <v>1.87</v>
+      </c>
+      <c r="AH129">
+        <v>1.87</v>
+      </c>
+      <c r="AI129">
+        <v>1.8</v>
+      </c>
+      <c r="AJ129">
+        <v>1.95</v>
+      </c>
+      <c r="AK129">
+        <v>2.1</v>
+      </c>
+      <c r="AL129">
+        <v>1.26</v>
+      </c>
+      <c r="AM129">
+        <v>1.19</v>
+      </c>
+      <c r="AN129">
+        <v>0.6</v>
+      </c>
+      <c r="AO129">
+        <v>1.3</v>
+      </c>
+      <c r="AP129">
+        <v>0.88</v>
+      </c>
+      <c r="AQ129">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR129">
+        <v>1.4</v>
+      </c>
+      <c r="AS129">
+        <v>1.18</v>
+      </c>
+      <c r="AT129">
+        <v>2.58</v>
+      </c>
+      <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
+        <v>11</v>
+      </c>
+      <c r="AW129">
+        <v>4</v>
+      </c>
+      <c r="AX129">
+        <v>8</v>
+      </c>
+      <c r="AY129">
+        <v>14</v>
+      </c>
+      <c r="AZ129">
+        <v>25</v>
+      </c>
+      <c r="BA129">
+        <v>6</v>
+      </c>
+      <c r="BB129">
         <v>10</v>
       </c>
-      <c r="AE129">
-        <v>1.22</v>
-      </c>
-      <c r="AF129">
-        <v>4</v>
-      </c>
-      <c r="AG129">
-        <v>1.8</v>
-      </c>
-      <c r="AH129">
-        <v>1.94</v>
-      </c>
-      <c r="AI129">
-        <v>1.75</v>
-      </c>
-      <c r="AJ129">
-        <v>2</v>
-      </c>
-      <c r="AK129">
-        <v>1.19</v>
-      </c>
-      <c r="AL129">
-        <v>1.24</v>
-      </c>
-      <c r="AM129">
-        <v>2.1</v>
-      </c>
-      <c r="AN129">
-        <v>2.7</v>
-      </c>
-      <c r="AO129">
-        <v>1.7</v>
-      </c>
-      <c r="AP129">
-        <v>2.63</v>
-      </c>
-      <c r="AQ129">
-        <v>1.25</v>
-      </c>
-      <c r="AR129">
-        <v>1.73</v>
-      </c>
-      <c r="AS129">
-        <v>1.33</v>
-      </c>
-      <c r="AT129">
-        <v>3.06</v>
-      </c>
-      <c r="AU129">
-        <v>9</v>
-      </c>
-      <c r="AV129">
-        <v>5</v>
-      </c>
-      <c r="AW129">
-        <v>5</v>
-      </c>
-      <c r="AX129">
-        <v>6</v>
-      </c>
-      <c r="AY129">
-        <v>17</v>
-      </c>
-      <c r="AZ129">
-        <v>15</v>
-      </c>
-      <c r="BA129">
-        <v>5</v>
-      </c>
-      <c r="BB129">
-        <v>2</v>
-      </c>
       <c r="BC129">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BD129">
-        <v>1.53</v>
+        <v>2.88</v>
       </c>
       <c r="BE129">
         <v>9</v>
       </c>
       <c r="BF129">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="BG129">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="BH129">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="BI129">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BJ129">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BK129">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="BL129">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="BM129">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="BN129">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="BO129">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="BP129">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27986,7 +27986,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7452383</v>
+        <v>7452385</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -28001,34 +28001,34 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H130" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>87</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>4.75</v>
@@ -28046,10 +28046,10 @@
         <v>3.25</v>
       </c>
       <c r="V130">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W130">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X130">
         <v>6.5</v>
@@ -28058,13 +28058,13 @@
         <v>1.11</v>
       </c>
       <c r="Z130">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AA130">
-        <v>4.1</v>
+        <v>3.94</v>
       </c>
       <c r="AB130">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC130">
         <v>1.04</v>
@@ -28073,118 +28073,118 @@
         <v>10</v>
       </c>
       <c r="AE130">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF130">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AG130">
+        <v>1.8</v>
+      </c>
+      <c r="AH130">
+        <v>1.94</v>
+      </c>
+      <c r="AI130">
+        <v>1.67</v>
+      </c>
+      <c r="AJ130">
+        <v>2.1</v>
+      </c>
+      <c r="AK130">
+        <v>1.95</v>
+      </c>
+      <c r="AL130">
+        <v>1.26</v>
+      </c>
+      <c r="AM130">
+        <v>1.23</v>
+      </c>
+      <c r="AN130">
         <v>1.7</v>
       </c>
-      <c r="AH130">
-        <v>1.95</v>
-      </c>
-      <c r="AI130">
-        <v>1.7</v>
-      </c>
-      <c r="AJ130">
-        <v>2.05</v>
-      </c>
-      <c r="AK130">
-        <v>2</v>
-      </c>
-      <c r="AL130">
-        <v>1.25</v>
-      </c>
-      <c r="AM130">
-        <v>1.22</v>
-      </c>
-      <c r="AN130">
-        <v>0.8</v>
-      </c>
       <c r="AO130">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="AQ130">
-        <v>0.6899999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="AR130">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AS130">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT130">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="AU130">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV130">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW130">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX130">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AY130">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ130">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="BA130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB130">
         <v>5</v>
       </c>
       <c r="BC130">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD130">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="BE130">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF130">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BG130">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="BH130">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="BI130">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="BJ130">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BK130">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="BL130">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="BM130">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="BN130">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="BO130">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="BP130">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -28192,7 +28192,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7452384</v>
+        <v>7452382</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -28207,190 +28207,190 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H131" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131">
         <v>3</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M131">
         <v>2</v>
       </c>
       <c r="N131">
+        <v>6</v>
+      </c>
+      <c r="O131" t="s">
+        <v>182</v>
+      </c>
+      <c r="P131" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q131">
+        <v>2.25</v>
+      </c>
+      <c r="R131">
+        <v>2.3</v>
+      </c>
+      <c r="S131">
         <v>5</v>
       </c>
-      <c r="O131" t="s">
-        <v>183</v>
-      </c>
-      <c r="P131" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q131">
+      <c r="T131">
+        <v>1.33</v>
+      </c>
+      <c r="U131">
+        <v>3.25</v>
+      </c>
+      <c r="V131">
+        <v>2.63</v>
+      </c>
+      <c r="W131">
+        <v>1.44</v>
+      </c>
+      <c r="X131">
+        <v>6.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.11</v>
+      </c>
+      <c r="Z131">
+        <v>1.85</v>
+      </c>
+      <c r="AA131">
+        <v>3.66</v>
+      </c>
+      <c r="AB131">
+        <v>3.92</v>
+      </c>
+      <c r="AC131">
+        <v>1.04</v>
+      </c>
+      <c r="AD131">
+        <v>10</v>
+      </c>
+      <c r="AE131">
+        <v>1.22</v>
+      </c>
+      <c r="AF131">
+        <v>4</v>
+      </c>
+      <c r="AG131">
+        <v>1.8</v>
+      </c>
+      <c r="AH131">
+        <v>1.94</v>
+      </c>
+      <c r="AI131">
+        <v>1.75</v>
+      </c>
+      <c r="AJ131">
+        <v>2</v>
+      </c>
+      <c r="AK131">
+        <v>1.19</v>
+      </c>
+      <c r="AL131">
+        <v>1.24</v>
+      </c>
+      <c r="AM131">
+        <v>2.1</v>
+      </c>
+      <c r="AN131">
+        <v>2.7</v>
+      </c>
+      <c r="AO131">
+        <v>1.7</v>
+      </c>
+      <c r="AP131">
+        <v>2.63</v>
+      </c>
+      <c r="AQ131">
+        <v>1.25</v>
+      </c>
+      <c r="AR131">
+        <v>1.73</v>
+      </c>
+      <c r="AS131">
+        <v>1.33</v>
+      </c>
+      <c r="AT131">
+        <v>3.06</v>
+      </c>
+      <c r="AU131">
+        <v>9</v>
+      </c>
+      <c r="AV131">
         <v>5</v>
       </c>
-      <c r="R131">
-        <v>2.25</v>
-      </c>
-      <c r="S131">
-        <v>2.3</v>
-      </c>
-      <c r="T131">
-        <v>1.36</v>
-      </c>
-      <c r="U131">
-        <v>3</v>
-      </c>
-      <c r="V131">
-        <v>2.75</v>
-      </c>
-      <c r="W131">
-        <v>1.4</v>
-      </c>
-      <c r="X131">
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>17</v>
+      </c>
+      <c r="AZ131">
+        <v>15</v>
+      </c>
+      <c r="BA131">
+        <v>5</v>
+      </c>
+      <c r="BB131">
+        <v>2</v>
+      </c>
+      <c r="BC131">
         <v>7</v>
       </c>
-      <c r="Y131">
-        <v>1.1</v>
-      </c>
-      <c r="Z131">
-        <v>4.75</v>
-      </c>
-      <c r="AA131">
-        <v>3.73</v>
-      </c>
-      <c r="AB131">
-        <v>1.69</v>
-      </c>
-      <c r="AC131">
-        <v>1.05</v>
-      </c>
-      <c r="AD131">
-        <v>9.5</v>
-      </c>
-      <c r="AE131">
-        <v>1.28</v>
-      </c>
-      <c r="AF131">
-        <v>3.6</v>
-      </c>
-      <c r="AG131">
-        <v>1.87</v>
-      </c>
-      <c r="AH131">
-        <v>1.87</v>
-      </c>
-      <c r="AI131">
-        <v>1.8</v>
-      </c>
-      <c r="AJ131">
-        <v>1.95</v>
-      </c>
-      <c r="AK131">
-        <v>2.1</v>
-      </c>
-      <c r="AL131">
-        <v>1.26</v>
-      </c>
-      <c r="AM131">
-        <v>1.19</v>
-      </c>
-      <c r="AN131">
-        <v>0.6</v>
-      </c>
-      <c r="AO131">
-        <v>1.3</v>
-      </c>
-      <c r="AP131">
-        <v>0.88</v>
-      </c>
-      <c r="AQ131">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AR131">
-        <v>1.4</v>
-      </c>
-      <c r="AS131">
-        <v>1.18</v>
-      </c>
-      <c r="AT131">
-        <v>2.58</v>
-      </c>
-      <c r="AU131">
-        <v>8</v>
-      </c>
-      <c r="AV131">
-        <v>11</v>
-      </c>
-      <c r="AW131">
-        <v>4</v>
-      </c>
-      <c r="AX131">
-        <v>8</v>
-      </c>
-      <c r="AY131">
-        <v>14</v>
-      </c>
-      <c r="AZ131">
-        <v>25</v>
-      </c>
-      <c r="BA131">
-        <v>6</v>
-      </c>
-      <c r="BB131">
-        <v>10</v>
-      </c>
-      <c r="BC131">
-        <v>16</v>
-      </c>
       <c r="BD131">
-        <v>2.88</v>
+        <v>1.53</v>
       </c>
       <c r="BE131">
         <v>9</v>
       </c>
       <c r="BF131">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="BG131">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="BH131">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="BI131">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BJ131">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BK131">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BL131">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="BM131">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="BN131">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="BO131">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="BP131">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28398,7 +28398,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7452385</v>
+        <v>7452383</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28413,34 +28413,34 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H132" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>305</v>
+        <v>87</v>
       </c>
       <c r="Q132">
         <v>4.75</v>
@@ -28458,10 +28458,10 @@
         <v>3.25</v>
       </c>
       <c r="V132">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W132">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X132">
         <v>6.5</v>
@@ -28470,13 +28470,13 @@
         <v>1.11</v>
       </c>
       <c r="Z132">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AA132">
-        <v>3.94</v>
+        <v>4.1</v>
       </c>
       <c r="AB132">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AC132">
         <v>1.04</v>
@@ -28485,118 +28485,118 @@
         <v>10</v>
       </c>
       <c r="AE132">
+        <v>1.25</v>
+      </c>
+      <c r="AF132">
+        <v>3.95</v>
+      </c>
+      <c r="AG132">
+        <v>1.7</v>
+      </c>
+      <c r="AH132">
+        <v>1.95</v>
+      </c>
+      <c r="AI132">
+        <v>1.7</v>
+      </c>
+      <c r="AJ132">
+        <v>2.05</v>
+      </c>
+      <c r="AK132">
+        <v>2</v>
+      </c>
+      <c r="AL132">
+        <v>1.25</v>
+      </c>
+      <c r="AM132">
         <v>1.22</v>
       </c>
-      <c r="AF132">
-        <v>4.2</v>
-      </c>
-      <c r="AG132">
-        <v>1.8</v>
-      </c>
-      <c r="AH132">
-        <v>1.94</v>
-      </c>
-      <c r="AI132">
-        <v>1.67</v>
-      </c>
-      <c r="AJ132">
-        <v>2.1</v>
-      </c>
-      <c r="AK132">
-        <v>1.95</v>
-      </c>
-      <c r="AL132">
-        <v>1.26</v>
-      </c>
-      <c r="AM132">
+      <c r="AN132">
+        <v>0.8</v>
+      </c>
+      <c r="AO132">
+        <v>1</v>
+      </c>
+      <c r="AP132">
+        <v>1.13</v>
+      </c>
+      <c r="AQ132">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR132">
         <v>1.23</v>
       </c>
-      <c r="AN132">
-        <v>1.7</v>
-      </c>
-      <c r="AO132">
-        <v>1.6</v>
-      </c>
-      <c r="AP132">
-        <v>1.88</v>
-      </c>
-      <c r="AQ132">
-        <v>1.75</v>
-      </c>
-      <c r="AR132">
-        <v>1.38</v>
-      </c>
       <c r="AS132">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AT132">
+        <v>2.86</v>
+      </c>
+      <c r="AU132">
         <v>3</v>
       </c>
-      <c r="AU132">
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>3</v>
+      </c>
+      <c r="AX132">
+        <v>18</v>
+      </c>
+      <c r="AY132">
         <v>6</v>
       </c>
-      <c r="AV132">
-        <v>6</v>
-      </c>
-      <c r="AW132">
-        <v>6</v>
-      </c>
-      <c r="AX132">
-        <v>4</v>
-      </c>
-      <c r="AY132">
-        <v>12</v>
-      </c>
       <c r="AZ132">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="BA132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB132">
         <v>5</v>
       </c>
       <c r="BC132">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD132">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="BE132">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF132">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="BG132">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="BH132">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="BI132">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="BJ132">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BK132">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BL132">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="BM132">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="BN132">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="BO132">
-        <v>2.35</v>
+        <v>2.95</v>
       </c>
       <c r="BP132">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28604,7 +28604,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7452386</v>
+        <v>7452381</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28619,88 +28619,88 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H133" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O133" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="P133" t="s">
         <v>306</v>
       </c>
       <c r="Q133">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="R133">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S133">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T133">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U133">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V133">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W133">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y133">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z133">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="AA133">
-        <v>3.53</v>
+        <v>4.2</v>
       </c>
       <c r="AB133">
-        <v>3.32</v>
+        <v>5.1</v>
       </c>
       <c r="AC133">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD133">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE133">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF133">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AG133">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="AH133">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="AI133">
         <v>1.62</v>
@@ -28709,100 +28709,100 @@
         <v>2.2</v>
       </c>
       <c r="AK133">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AL133">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AM133">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="AN133">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="AO133">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="AP133">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AQ133">
-        <v>0.6899999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="AR133">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="AS133">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="AT133">
-        <v>2.61</v>
+        <v>3.17</v>
       </c>
       <c r="AU133">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>14</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+      <c r="AY133">
+        <v>22</v>
+      </c>
+      <c r="AZ133">
         <v>8</v>
       </c>
-      <c r="AW133">
-        <v>2</v>
-      </c>
-      <c r="AX133">
-        <v>6</v>
-      </c>
-      <c r="AY133">
+      <c r="BA133">
+        <v>7</v>
+      </c>
+      <c r="BB133">
+        <v>1</v>
+      </c>
+      <c r="BC133">
+        <v>8</v>
+      </c>
+      <c r="BD133">
+        <v>1.57</v>
+      </c>
+      <c r="BE133">
+        <v>9</v>
+      </c>
+      <c r="BF133">
+        <v>2.62</v>
+      </c>
+      <c r="BG133">
+        <v>1.21</v>
+      </c>
+      <c r="BH133">
+        <v>3.8</v>
+      </c>
+      <c r="BI133">
+        <v>1.41</v>
+      </c>
+      <c r="BJ133">
+        <v>2.6</v>
+      </c>
+      <c r="BK133">
+        <v>1.73</v>
+      </c>
+      <c r="BL133">
+        <v>1.93</v>
+      </c>
+      <c r="BM133">
+        <v>2.25</v>
+      </c>
+      <c r="BN133">
+        <v>1.53</v>
+      </c>
+      <c r="BO133">
         <v>3</v>
       </c>
-      <c r="AZ133">
-        <v>16</v>
-      </c>
-      <c r="BA133">
-        <v>2</v>
-      </c>
-      <c r="BB133">
-        <v>7</v>
-      </c>
-      <c r="BC133">
-        <v>9</v>
-      </c>
-      <c r="BD133">
-        <v>1.8</v>
-      </c>
-      <c r="BE133">
-        <v>8.5</v>
-      </c>
-      <c r="BF133">
-        <v>2.2</v>
-      </c>
-      <c r="BG133">
-        <v>1.2</v>
-      </c>
-      <c r="BH133">
-        <v>3.9</v>
-      </c>
-      <c r="BI133">
-        <v>1.38</v>
-      </c>
-      <c r="BJ133">
-        <v>2.7</v>
-      </c>
-      <c r="BK133">
-        <v>1.68</v>
-      </c>
-      <c r="BL133">
-        <v>1.98</v>
-      </c>
-      <c r="BM133">
-        <v>2.15</v>
-      </c>
-      <c r="BN133">
-        <v>1.57</v>
-      </c>
-      <c r="BO133">
-        <v>2.9</v>
-      </c>
       <c r="BP133">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -30252,7 +30252,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7861647</v>
+        <v>7861646</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30267,19 +30267,19 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H141" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141">
         <v>1</v>
       </c>
       <c r="K141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L141">
         <v>2</v>
@@ -30294,163 +30294,163 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="Q141">
+        <v>2.2</v>
+      </c>
+      <c r="R141">
         <v>2.4</v>
       </c>
-      <c r="R141">
-        <v>2.25</v>
-      </c>
       <c r="S141">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T141">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U141">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V141">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W141">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X141">
+        <v>5.5</v>
+      </c>
+      <c r="Y141">
+        <v>1.14</v>
+      </c>
+      <c r="Z141">
+        <v>1.76</v>
+      </c>
+      <c r="AA141">
+        <v>3.65</v>
+      </c>
+      <c r="AB141">
+        <v>4.4</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>10</v>
+      </c>
+      <c r="AE141">
+        <v>1.2</v>
+      </c>
+      <c r="AF141">
+        <v>4.33</v>
+      </c>
+      <c r="AG141">
+        <v>1.55</v>
+      </c>
+      <c r="AH141">
+        <v>2.2</v>
+      </c>
+      <c r="AI141">
+        <v>1.62</v>
+      </c>
+      <c r="AJ141">
+        <v>2.2</v>
+      </c>
+      <c r="AK141">
+        <v>1.17</v>
+      </c>
+      <c r="AL141">
+        <v>1.18</v>
+      </c>
+      <c r="AM141">
+        <v>2.2</v>
+      </c>
+      <c r="AN141">
+        <v>1.35</v>
+      </c>
+      <c r="AO141">
+        <v>0.87</v>
+      </c>
+      <c r="AP141">
+        <v>1.47</v>
+      </c>
+      <c r="AQ141">
+        <v>1.16</v>
+      </c>
+      <c r="AR141">
+        <v>1.42</v>
+      </c>
+      <c r="AS141">
+        <v>1.27</v>
+      </c>
+      <c r="AT141">
+        <v>2.69</v>
+      </c>
+      <c r="AU141">
+        <v>5</v>
+      </c>
+      <c r="AV141">
         <v>7</v>
       </c>
-      <c r="Y141">
-        <v>1.1</v>
-      </c>
-      <c r="Z141">
-        <v>1.77</v>
-      </c>
-      <c r="AA141">
-        <v>3.69</v>
-      </c>
-      <c r="AB141">
-        <v>4.3</v>
-      </c>
-      <c r="AC141">
-        <v>1.05</v>
-      </c>
-      <c r="AD141">
-        <v>9.5</v>
-      </c>
-      <c r="AE141">
+      <c r="AW141">
+        <v>6</v>
+      </c>
+      <c r="AX141">
+        <v>10</v>
+      </c>
+      <c r="AY141">
+        <v>12</v>
+      </c>
+      <c r="AZ141">
+        <v>17</v>
+      </c>
+      <c r="BA141">
+        <v>4</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>9</v>
+      </c>
+      <c r="BD141">
+        <v>1.65</v>
+      </c>
+      <c r="BE141">
+        <v>6.75</v>
+      </c>
+      <c r="BF141">
+        <v>2.48</v>
+      </c>
+      <c r="BG141">
         <v>1.25</v>
       </c>
-      <c r="AF141">
-        <v>3.7</v>
-      </c>
-      <c r="AG141">
-        <v>1.8</v>
-      </c>
-      <c r="AH141">
-        <v>1.94</v>
-      </c>
-      <c r="AI141">
-        <v>1.75</v>
-      </c>
-      <c r="AJ141">
-        <v>2</v>
-      </c>
-      <c r="AK141">
-        <v>1.2</v>
-      </c>
-      <c r="AL141">
-        <v>1.22</v>
-      </c>
-      <c r="AM141">
-        <v>2</v>
-      </c>
-      <c r="AN141">
-        <v>1.43</v>
-      </c>
-      <c r="AO141">
-        <v>0.78</v>
-      </c>
-      <c r="AP141">
-        <v>1.53</v>
-      </c>
-      <c r="AQ141">
-        <v>0.84</v>
-      </c>
-      <c r="AR141">
+      <c r="BH141">
+        <v>3.4</v>
+      </c>
+      <c r="BI141">
         <v>1.44</v>
       </c>
-      <c r="AS141">
-        <v>1.2</v>
-      </c>
-      <c r="AT141">
-        <v>2.64</v>
-      </c>
-      <c r="AU141">
-        <v>4</v>
-      </c>
-      <c r="AV141">
-        <v>3</v>
-      </c>
-      <c r="AW141">
-        <v>3</v>
-      </c>
-      <c r="AX141">
-        <v>6</v>
-      </c>
-      <c r="AY141">
-        <v>9</v>
-      </c>
-      <c r="AZ141">
-        <v>10</v>
-      </c>
-      <c r="BA141">
-        <v>1</v>
-      </c>
-      <c r="BB141">
-        <v>3</v>
-      </c>
-      <c r="BC141">
-        <v>4</v>
-      </c>
-      <c r="BD141">
+      <c r="BJ141">
+        <v>2.55</v>
+      </c>
+      <c r="BK141">
+        <v>1.73</v>
+      </c>
+      <c r="BL141">
+        <v>1.96</v>
+      </c>
+      <c r="BM141">
+        <v>2.14</v>
+      </c>
+      <c r="BN141">
         <v>1.61</v>
       </c>
-      <c r="BE141">
-        <v>6.4</v>
-      </c>
-      <c r="BF141">
-        <v>2.55</v>
-      </c>
-      <c r="BG141">
-        <v>1.28</v>
-      </c>
-      <c r="BH141">
-        <v>3.3</v>
-      </c>
-      <c r="BI141">
-        <v>1.48</v>
-      </c>
-      <c r="BJ141">
-        <v>2.45</v>
-      </c>
-      <c r="BK141">
-        <v>1.76</v>
-      </c>
-      <c r="BL141">
-        <v>1.94</v>
-      </c>
-      <c r="BM141">
-        <v>2.17</v>
-      </c>
-      <c r="BN141">
-        <v>1.6</v>
-      </c>
       <c r="BO141">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BP141">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30458,7 +30458,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7861646</v>
+        <v>7861647</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30473,19 +30473,19 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142">
         <v>1</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L142">
         <v>2</v>
@@ -30500,163 +30500,163 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="Q142">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R142">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S142">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="T142">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U142">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V142">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>7</v>
+      </c>
+      <c r="Y142">
+        <v>1.1</v>
+      </c>
+      <c r="Z142">
+        <v>1.77</v>
+      </c>
+      <c r="AA142">
+        <v>3.69</v>
+      </c>
+      <c r="AB142">
+        <v>4.3</v>
+      </c>
+      <c r="AC142">
+        <v>1.05</v>
+      </c>
+      <c r="AD142">
+        <v>9.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.25</v>
+      </c>
+      <c r="AF142">
+        <v>3.7</v>
+      </c>
+      <c r="AG142">
+        <v>1.8</v>
+      </c>
+      <c r="AH142">
+        <v>1.94</v>
+      </c>
+      <c r="AI142">
+        <v>1.75</v>
+      </c>
+      <c r="AJ142">
+        <v>2</v>
+      </c>
+      <c r="AK142">
+        <v>1.2</v>
+      </c>
+      <c r="AL142">
+        <v>1.22</v>
+      </c>
+      <c r="AM142">
+        <v>2</v>
+      </c>
+      <c r="AN142">
+        <v>1.43</v>
+      </c>
+      <c r="AO142">
+        <v>0.78</v>
+      </c>
+      <c r="AP142">
         <v>1.53</v>
       </c>
-      <c r="X142">
-        <v>5.5</v>
-      </c>
-      <c r="Y142">
-        <v>1.14</v>
-      </c>
-      <c r="Z142">
+      <c r="AQ142">
+        <v>0.84</v>
+      </c>
+      <c r="AR142">
+        <v>1.44</v>
+      </c>
+      <c r="AS142">
+        <v>1.2</v>
+      </c>
+      <c r="AT142">
+        <v>2.64</v>
+      </c>
+      <c r="AU142">
+        <v>4</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>3</v>
+      </c>
+      <c r="AX142">
+        <v>6</v>
+      </c>
+      <c r="AY142">
+        <v>9</v>
+      </c>
+      <c r="AZ142">
+        <v>10</v>
+      </c>
+      <c r="BA142">
+        <v>1</v>
+      </c>
+      <c r="BB142">
+        <v>3</v>
+      </c>
+      <c r="BC142">
+        <v>4</v>
+      </c>
+      <c r="BD142">
+        <v>1.61</v>
+      </c>
+      <c r="BE142">
+        <v>6.4</v>
+      </c>
+      <c r="BF142">
+        <v>2.55</v>
+      </c>
+      <c r="BG142">
+        <v>1.28</v>
+      </c>
+      <c r="BH142">
+        <v>3.3</v>
+      </c>
+      <c r="BI142">
+        <v>1.48</v>
+      </c>
+      <c r="BJ142">
+        <v>2.45</v>
+      </c>
+      <c r="BK142">
         <v>1.76</v>
       </c>
-      <c r="AA142">
-        <v>3.65</v>
-      </c>
-      <c r="AB142">
-        <v>4.4</v>
-      </c>
-      <c r="AC142">
-        <v>1.04</v>
-      </c>
-      <c r="AD142">
-        <v>10</v>
-      </c>
-      <c r="AE142">
-        <v>1.2</v>
-      </c>
-      <c r="AF142">
-        <v>4.33</v>
-      </c>
-      <c r="AG142">
-        <v>1.55</v>
-      </c>
-      <c r="AH142">
-        <v>2.2</v>
-      </c>
-      <c r="AI142">
-        <v>1.62</v>
-      </c>
-      <c r="AJ142">
-        <v>2.2</v>
-      </c>
-      <c r="AK142">
-        <v>1.17</v>
-      </c>
-      <c r="AL142">
-        <v>1.18</v>
-      </c>
-      <c r="AM142">
-        <v>2.2</v>
-      </c>
-      <c r="AN142">
-        <v>1.35</v>
-      </c>
-      <c r="AO142">
-        <v>0.87</v>
-      </c>
-      <c r="AP142">
-        <v>1.47</v>
-      </c>
-      <c r="AQ142">
-        <v>1.16</v>
-      </c>
-      <c r="AR142">
-        <v>1.42</v>
-      </c>
-      <c r="AS142">
-        <v>1.27</v>
-      </c>
-      <c r="AT142">
-        <v>2.69</v>
-      </c>
-      <c r="AU142">
-        <v>5</v>
-      </c>
-      <c r="AV142">
-        <v>7</v>
-      </c>
-      <c r="AW142">
-        <v>6</v>
-      </c>
-      <c r="AX142">
-        <v>10</v>
-      </c>
-      <c r="AY142">
-        <v>12</v>
-      </c>
-      <c r="AZ142">
-        <v>17</v>
-      </c>
-      <c r="BA142">
-        <v>4</v>
-      </c>
-      <c r="BB142">
-        <v>5</v>
-      </c>
-      <c r="BC142">
-        <v>9</v>
-      </c>
-      <c r="BD142">
-        <v>1.65</v>
-      </c>
-      <c r="BE142">
-        <v>6.75</v>
-      </c>
-      <c r="BF142">
-        <v>2.48</v>
-      </c>
-      <c r="BG142">
-        <v>1.25</v>
-      </c>
-      <c r="BH142">
-        <v>3.4</v>
-      </c>
-      <c r="BI142">
-        <v>1.44</v>
-      </c>
-      <c r="BJ142">
-        <v>2.55</v>
-      </c>
-      <c r="BK142">
-        <v>1.73</v>
-      </c>
       <c r="BL142">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="BM142">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="BN142">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="BO142">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BP142">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -36680,7 +36680,7 @@
         <v>212</v>
       </c>
       <c r="P172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q172">
         <v>2.13</v>
@@ -37462,7 +37462,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7861664</v>
+        <v>7861637</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37477,190 +37477,190 @@
         <v>8</v>
       </c>
       <c r="G176" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H176" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O176" t="s">
         <v>215</v>
       </c>
       <c r="P176" t="s">
-        <v>87</v>
+        <v>331</v>
       </c>
       <c r="Q176">
-        <v>2.11</v>
+        <v>3.3</v>
       </c>
       <c r="R176">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="S176">
-        <v>4.65</v>
+        <v>2.8</v>
       </c>
       <c r="T176">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U176">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="V176">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="W176">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X176">
-        <v>5.35</v>
+        <v>4.9</v>
       </c>
       <c r="Y176">
         <v>1.15</v>
       </c>
       <c r="Z176">
+        <v>2.8</v>
+      </c>
+      <c r="AA176">
+        <v>3.95</v>
+      </c>
+      <c r="AB176">
+        <v>2.25</v>
+      </c>
+      <c r="AC176">
+        <v>1</v>
+      </c>
+      <c r="AD176">
+        <v>15</v>
+      </c>
+      <c r="AE176">
+        <v>1.17</v>
+      </c>
+      <c r="AF176">
+        <v>5</v>
+      </c>
+      <c r="AG176">
+        <v>1.58</v>
+      </c>
+      <c r="AH176">
+        <v>2.38</v>
+      </c>
+      <c r="AI176">
+        <v>1.42</v>
+      </c>
+      <c r="AJ176">
+        <v>2.5</v>
+      </c>
+      <c r="AK176">
+        <v>1.25</v>
+      </c>
+      <c r="AL176">
+        <v>1.27</v>
+      </c>
+      <c r="AM176">
         <v>1.6</v>
       </c>
-      <c r="AA176">
-        <v>4.38</v>
-      </c>
-      <c r="AB176">
-        <v>5.35</v>
-      </c>
-      <c r="AC176">
-        <v>1.02</v>
-      </c>
-      <c r="AD176">
-        <v>12</v>
-      </c>
-      <c r="AE176">
-        <v>1.18</v>
-      </c>
-      <c r="AF176">
-        <v>4.9</v>
-      </c>
-      <c r="AG176">
-        <v>1.61</v>
-      </c>
-      <c r="AH176">
-        <v>2.47</v>
-      </c>
-      <c r="AI176">
+      <c r="AN176">
+        <v>1.45</v>
+      </c>
+      <c r="AO176">
         <v>1.62</v>
       </c>
-      <c r="AJ176">
-        <v>2</v>
-      </c>
-      <c r="AK176">
-        <v>1.17</v>
-      </c>
-      <c r="AL176">
-        <v>1.22</v>
-      </c>
-      <c r="AM176">
-        <v>2.29</v>
-      </c>
-      <c r="AN176">
-        <v>1.48</v>
-      </c>
-      <c r="AO176">
-        <v>1.07</v>
-      </c>
       <c r="AP176">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ176">
-        <v>1.16</v>
+        <v>1.59</v>
       </c>
       <c r="AR176">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="AS176">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="AT176">
-        <v>2.83</v>
+        <v>3.42</v>
       </c>
       <c r="AU176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV176">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW176">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX176">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AY176">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ176">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="BA176">
         <v>6</v>
       </c>
       <c r="BB176">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC176">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD176">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="BE176">
-        <v>9.5</v>
+        <v>6.65</v>
       </c>
       <c r="BF176">
-        <v>3.38</v>
+        <v>1.92</v>
       </c>
       <c r="BG176">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BH176">
-        <v>3.34</v>
+        <v>3.85</v>
       </c>
       <c r="BI176">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="BJ176">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="BK176">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="BL176">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="BM176">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="BN176">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="BO176">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="BP176">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="177" spans="1:68">
@@ -37668,7 +37668,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7861637</v>
+        <v>7861664</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37683,190 +37683,190 @@
         <v>8</v>
       </c>
       <c r="G177" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H177" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O177" t="s">
         <v>216</v>
       </c>
       <c r="P177" t="s">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="Q177">
-        <v>3.3</v>
+        <v>2.11</v>
       </c>
       <c r="R177">
-        <v>2.27</v>
+        <v>2.43</v>
       </c>
       <c r="S177">
-        <v>2.8</v>
+        <v>4.65</v>
       </c>
       <c r="T177">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U177">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="V177">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="W177">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X177">
-        <v>4.9</v>
+        <v>5.35</v>
       </c>
       <c r="Y177">
         <v>1.15</v>
       </c>
       <c r="Z177">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="AA177">
-        <v>3.95</v>
+        <v>4.38</v>
       </c>
       <c r="AB177">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="AD177">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE177">
+        <v>1.18</v>
+      </c>
+      <c r="AF177">
+        <v>4.9</v>
+      </c>
+      <c r="AG177">
+        <v>1.61</v>
+      </c>
+      <c r="AH177">
+        <v>2.47</v>
+      </c>
+      <c r="AI177">
+        <v>1.62</v>
+      </c>
+      <c r="AJ177">
+        <v>2</v>
+      </c>
+      <c r="AK177">
         <v>1.17</v>
       </c>
-      <c r="AF177">
-        <v>5</v>
-      </c>
-      <c r="AG177">
-        <v>1.58</v>
-      </c>
-      <c r="AH177">
-        <v>2.38</v>
-      </c>
-      <c r="AI177">
-        <v>1.42</v>
-      </c>
-      <c r="AJ177">
-        <v>2.5</v>
-      </c>
-      <c r="AK177">
-        <v>1.25</v>
-      </c>
       <c r="AL177">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AM177">
-        <v>1.6</v>
+        <v>2.29</v>
       </c>
       <c r="AN177">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AO177">
-        <v>1.62</v>
+        <v>1.07</v>
       </c>
       <c r="AP177">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ177">
-        <v>1.59</v>
+        <v>1.16</v>
       </c>
       <c r="AR177">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AS177">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="AT177">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="AU177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV177">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW177">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>12</v>
+      </c>
+      <c r="AZ177">
         <v>11</v>
-      </c>
-      <c r="AY177">
-        <v>17</v>
-      </c>
-      <c r="AZ177">
-        <v>21</v>
       </c>
       <c r="BA177">
         <v>6</v>
       </c>
       <c r="BB177">
+        <v>1</v>
+      </c>
+      <c r="BC177">
         <v>7</v>
       </c>
-      <c r="BC177">
-        <v>13</v>
-      </c>
       <c r="BD177">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="BE177">
-        <v>6.65</v>
+        <v>9.5</v>
       </c>
       <c r="BF177">
-        <v>1.92</v>
+        <v>3.38</v>
       </c>
       <c r="BG177">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BH177">
-        <v>3.85</v>
+        <v>3.34</v>
       </c>
       <c r="BI177">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="BJ177">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="BK177">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="BL177">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="BM177">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="BN177">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="BO177">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP177">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -38904,7 +38904,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7861667</v>
+        <v>7861668</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38919,190 +38919,190 @@
         <v>9</v>
       </c>
       <c r="G183" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H183" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183">
         <v>1</v>
       </c>
       <c r="K183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O183" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="P183" t="s">
         <v>333</v>
       </c>
       <c r="Q183">
-        <v>3.02</v>
+        <v>2.21</v>
       </c>
       <c r="R183">
-        <v>2.36</v>
+        <v>2.63</v>
       </c>
       <c r="S183">
-        <v>2.76</v>
+        <v>4.1</v>
       </c>
       <c r="T183">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U183">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="V183">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="W183">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X183">
-        <v>5.15</v>
+        <v>4.75</v>
       </c>
       <c r="Y183">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="Z183">
-        <v>2.86</v>
+        <v>1.6</v>
       </c>
       <c r="AA183">
         <v>3.7</v>
       </c>
       <c r="AB183">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="AC183">
         <v>1.03</v>
       </c>
       <c r="AD183">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE183">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AF183">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AG183">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AH183">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AI183">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AJ183">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="AK183">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AL183">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM183">
-        <v>1.45</v>
+        <v>2.26</v>
       </c>
       <c r="AN183">
-        <v>0.8</v>
+        <v>1.47</v>
       </c>
       <c r="AO183">
-        <v>1.53</v>
+        <v>0.83</v>
       </c>
       <c r="AP183">
-        <v>0.75</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AR183">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AS183">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AT183">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="AU183">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV183">
         <v>6</v>
       </c>
       <c r="AW183">
+        <v>13</v>
+      </c>
+      <c r="AX183">
         <v>4</v>
       </c>
-      <c r="AX183">
-        <v>9</v>
-      </c>
       <c r="AY183">
+        <v>25</v>
+      </c>
+      <c r="AZ183">
+        <v>11</v>
+      </c>
+      <c r="BA183">
+        <v>14</v>
+      </c>
+      <c r="BB183">
+        <v>3</v>
+      </c>
+      <c r="BC183">
+        <v>17</v>
+      </c>
+      <c r="BD183">
+        <v>1.55</v>
+      </c>
+      <c r="BE183">
         <v>7</v>
       </c>
-      <c r="AZ183">
-        <v>18</v>
-      </c>
-      <c r="BA183">
-        <v>1</v>
-      </c>
-      <c r="BB183">
-        <v>8</v>
-      </c>
-      <c r="BC183">
-        <v>9</v>
-      </c>
-      <c r="BD183">
-        <v>2.28</v>
-      </c>
-      <c r="BE183">
-        <v>7.3</v>
-      </c>
       <c r="BF183">
-        <v>1.85</v>
+        <v>2.65</v>
       </c>
       <c r="BG183">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="BH183">
-        <v>3.58</v>
+        <v>4.45</v>
       </c>
       <c r="BI183">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="BJ183">
-        <v>2.6</v>
+        <v>3.04</v>
       </c>
       <c r="BK183">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="BL183">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="BM183">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="BN183">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="BO183">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BP183">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39110,7 +39110,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>7861668</v>
+        <v>7861667</v>
       </c>
       <c r="C184" t="s">
         <v>68</v>
@@ -39125,190 +39125,190 @@
         <v>9</v>
       </c>
       <c r="G184" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H184" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>1</v>
       </c>
       <c r="K184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O184" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="P184" t="s">
         <v>334</v>
       </c>
       <c r="Q184">
-        <v>2.21</v>
+        <v>3.02</v>
       </c>
       <c r="R184">
-        <v>2.63</v>
+        <v>2.36</v>
       </c>
       <c r="S184">
-        <v>4.1</v>
+        <v>2.76</v>
       </c>
       <c r="T184">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U184">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="V184">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="W184">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="X184">
-        <v>4.75</v>
+        <v>5.15</v>
       </c>
       <c r="Y184">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="Z184">
-        <v>1.6</v>
+        <v>2.86</v>
       </c>
       <c r="AA184">
         <v>3.7</v>
       </c>
       <c r="AB184">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="AC184">
         <v>1.03</v>
       </c>
       <c r="AD184">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE184">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AF184">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="AG184">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AH184">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AI184">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AJ184">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="AK184">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AL184">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AM184">
-        <v>2.26</v>
+        <v>1.45</v>
       </c>
       <c r="AN184">
-        <v>1.47</v>
+        <v>0.8</v>
       </c>
       <c r="AO184">
-        <v>0.83</v>
+        <v>1.53</v>
       </c>
       <c r="AP184">
-        <v>1.47</v>
+        <v>0.75</v>
       </c>
       <c r="AQ184">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="AR184">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AS184">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AT184">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="AU184">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV184">
         <v>6</v>
       </c>
       <c r="AW184">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AX184">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY184">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AZ184">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA184">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BB184">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC184">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BD184">
-        <v>1.55</v>
+        <v>2.28</v>
       </c>
       <c r="BE184">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="BF184">
-        <v>2.65</v>
+        <v>1.85</v>
       </c>
       <c r="BG184">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="BH184">
-        <v>4.45</v>
+        <v>3.58</v>
       </c>
       <c r="BI184">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="BJ184">
-        <v>3.04</v>
+        <v>2.6</v>
       </c>
       <c r="BK184">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="BL184">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="BM184">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="BN184">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="BO184">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="BP184">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -39767,7 +39767,7 @@
         <v>3</v>
       </c>
       <c r="O187" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P187" t="s">
         <v>337</v>
@@ -40182,7 +40182,7 @@
         <v>225</v>
       </c>
       <c r="P189" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q189">
         <v>2.72</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1041,6 +1041,9 @@
   <si>
     <t>['9', '44', '52']</t>
   </si>
+  <si>
+    <t>['8', '26', '71']</t>
+  </si>
 </sst>
 </file>
 
@@ -1401,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3386,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ10">
         <v>1.06</v>
@@ -3595,7 +3598,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ11">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5652,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ21">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -7094,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -8333,7 +8336,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ34">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -10184,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ43">
         <v>0.6899999999999999</v>
@@ -10805,7 +10808,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ46">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -12038,7 +12041,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ52">
         <v>1.25</v>
@@ -13483,7 +13486,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR59">
         <v>1.04</v>
@@ -14304,7 +14307,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ63">
         <v>0.5600000000000001</v>
@@ -15955,7 +15958,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ71">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -17600,7 +17603,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ79">
         <v>0.6899999999999999</v>
@@ -18839,7 +18842,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ85">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR85">
         <v>1.76</v>
@@ -20484,7 +20487,7 @@
         <v>0.14</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ93">
         <v>0.88</v>
@@ -21311,7 +21314,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR97">
         <v>1.78</v>
@@ -23574,7 +23577,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ108">
         <v>1.75</v>
@@ -24813,7 +24816,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ114">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR114">
         <v>1.41</v>
@@ -25222,7 +25225,7 @@
         <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ116">
         <v>0.8100000000000001</v>
@@ -25637,7 +25640,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -27488,7 +27491,7 @@
         <v>1.3</v>
       </c>
       <c r="AP127">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ127">
         <v>1.5</v>
@@ -28727,7 +28730,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ133">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR133">
         <v>1.76</v>
@@ -29139,7 +29142,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ135">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29963,7 +29966,7 @@
         <v>1.97</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR139">
         <v>1.77</v>
@@ -30166,7 +30169,7 @@
         <v>1.96</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ140">
         <v>1.94</v>
@@ -30578,7 +30581,7 @@
         <v>0.78</v>
       </c>
       <c r="AP142">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ142">
         <v>0.84</v>
@@ -31817,7 +31820,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ148">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR148">
         <v>1.42</v>
@@ -32229,7 +32232,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR150">
         <v>1.64</v>
@@ -32638,7 +32641,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ152">
         <v>0.75</v>
@@ -33256,7 +33259,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ155">
         <v>1.25</v>
@@ -34289,7 +34292,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ160">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR160">
         <v>1.33</v>
@@ -34495,7 +34498,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ161">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR161">
         <v>1.75</v>
@@ -35110,7 +35113,7 @@
         <v>1.7</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ164">
         <v>1.59</v>
@@ -35319,7 +35322,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ165">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR165">
         <v>1.21</v>
@@ -36346,7 +36349,7 @@
         <v>1.5</v>
       </c>
       <c r="AP170">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ170">
         <v>1.44</v>
@@ -36758,7 +36761,7 @@
         <v>0.75</v>
       </c>
       <c r="AP172">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ172">
         <v>0.88</v>
@@ -37788,7 +37791,7 @@
         <v>1.07</v>
       </c>
       <c r="AP177">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ177">
         <v>1.16</v>
@@ -37997,7 +38000,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ178">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -39233,7 +39236,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ184">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR184">
         <v>1.35</v>
@@ -39642,7 +39645,7 @@
         <v>1.9</v>
       </c>
       <c r="AP186">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ186">
         <v>1.97</v>
@@ -40054,7 +40057,7 @@
         <v>1.42</v>
       </c>
       <c r="AP188">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AQ188">
         <v>1.47</v>
@@ -40881,7 +40884,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ192">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR192">
         <v>1.73</v>
@@ -41163,6 +41166,212 @@
       </c>
       <c r="BP193">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7907347</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45809.5625</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>77</v>
+      </c>
+      <c r="H194" t="s">
+        <v>72</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>3</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>115</v>
+      </c>
+      <c r="P194" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q194">
+        <v>2.9</v>
+      </c>
+      <c r="R194">
+        <v>2.13</v>
+      </c>
+      <c r="S194">
+        <v>3.5</v>
+      </c>
+      <c r="T194">
+        <v>1.36</v>
+      </c>
+      <c r="U194">
+        <v>2.9</v>
+      </c>
+      <c r="V194">
+        <v>2.7</v>
+      </c>
+      <c r="W194">
+        <v>1.42</v>
+      </c>
+      <c r="X194">
+        <v>6</v>
+      </c>
+      <c r="Y194">
+        <v>1.09</v>
+      </c>
+      <c r="Z194">
+        <v>2.2</v>
+      </c>
+      <c r="AA194">
+        <v>3.25</v>
+      </c>
+      <c r="AB194">
+        <v>2.88</v>
+      </c>
+      <c r="AC194">
+        <v>1.05</v>
+      </c>
+      <c r="AD194">
+        <v>10</v>
+      </c>
+      <c r="AE194">
+        <v>1.25</v>
+      </c>
+      <c r="AF194">
+        <v>3.5</v>
+      </c>
+      <c r="AG194">
+        <v>1.85</v>
+      </c>
+      <c r="AH194">
+        <v>1.99</v>
+      </c>
+      <c r="AI194">
+        <v>1.62</v>
+      </c>
+      <c r="AJ194">
+        <v>2.1</v>
+      </c>
+      <c r="AK194">
+        <v>1.31</v>
+      </c>
+      <c r="AL194">
+        <v>1.25</v>
+      </c>
+      <c r="AM194">
+        <v>1.58</v>
+      </c>
+      <c r="AN194">
+        <v>1.5</v>
+      </c>
+      <c r="AO194">
+        <v>1.53</v>
+      </c>
+      <c r="AP194">
+        <v>1.45</v>
+      </c>
+      <c r="AQ194">
+        <v>1.58</v>
+      </c>
+      <c r="AR194">
+        <v>1.36</v>
+      </c>
+      <c r="AS194">
+        <v>1.52</v>
+      </c>
+      <c r="AT194">
+        <v>2.88</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>9</v>
+      </c>
+      <c r="AW194">
+        <v>10</v>
+      </c>
+      <c r="AX194">
+        <v>8</v>
+      </c>
+      <c r="AY194">
+        <v>17</v>
+      </c>
+      <c r="AZ194">
+        <v>22</v>
+      </c>
+      <c r="BA194">
+        <v>4</v>
+      </c>
+      <c r="BB194">
+        <v>5</v>
+      </c>
+      <c r="BC194">
+        <v>9</v>
+      </c>
+      <c r="BD194">
+        <v>1.82</v>
+      </c>
+      <c r="BE194">
+        <v>6.4</v>
+      </c>
+      <c r="BF194">
+        <v>3.05</v>
+      </c>
+      <c r="BG194">
+        <v>1.36</v>
+      </c>
+      <c r="BH194">
+        <v>3.05</v>
+      </c>
+      <c r="BI194">
+        <v>1.61</v>
+      </c>
+      <c r="BJ194">
+        <v>2.2</v>
+      </c>
+      <c r="BK194">
+        <v>1.97</v>
+      </c>
+      <c r="BL194">
+        <v>1.79</v>
+      </c>
+      <c r="BM194">
+        <v>2.55</v>
+      </c>
+      <c r="BN194">
+        <v>1.42</v>
+      </c>
+      <c r="BO194">
+        <v>3.32</v>
+      </c>
+      <c r="BP194">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
